--- a/7wonders/data/7wonders.xlsx
+++ b/7wonders/data/7wonders.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Mota\Documents\VS Code\DataSy\7wonders\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B68BC1E-7BA4-457F-AC8E-1B9A40C137AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71A7DAD-708E-47FD-AC7D-68D1C2B9C424}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4BEFDDDF-0926-4228-BEFA-2D10815E9504}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4BEFDDDF-0926-4228-BEFA-2D10815E9504}"/>
   </bookViews>
   <sheets>
-    <sheet name="Individual" sheetId="1" r:id="rId1"/>
-    <sheet name="Maravilha" sheetId="3" r:id="rId2"/>
+    <sheet name="Sem M." sheetId="1" r:id="rId1"/>
+    <sheet name="Com M." sheetId="3" r:id="rId2"/>
     <sheet name="Duplas" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -258,30 +258,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -613,11 +599,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC39C8B6-C2BD-49C0-833C-9ECA8EC96273}">
-  <dimension ref="A1:K393"/>
+  <dimension ref="A1:K283"/>
   <sheetViews>
-    <sheetView zoomScale="97" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B283" sqref="B283"/>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A284" sqref="A284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,7 +686,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C3">
@@ -808,7 +794,7 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C6">
@@ -952,7 +938,7 @@
       <c r="A10">
         <v>3</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C10">
@@ -1168,7 +1154,7 @@
       <c r="A16">
         <v>4</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C16">
@@ -1240,7 +1226,7 @@
       <c r="A18">
         <v>5</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C18">
@@ -1456,7 +1442,7 @@
       <c r="A24">
         <v>6</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C24">
@@ -1636,7 +1622,7 @@
       <c r="A29">
         <v>7</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C29">
@@ -1708,7 +1694,7 @@
       <c r="A31">
         <v>8</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C31">
@@ -1852,7 +1838,7 @@
       <c r="A35">
         <v>9</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C35">
@@ -1996,7 +1982,7 @@
       <c r="A39">
         <v>10</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C39">
@@ -2248,7 +2234,7 @@
       <c r="A46">
         <v>11</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C46">
@@ -2320,7 +2306,7 @@
       <c r="A48">
         <v>12</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C48">
@@ -2500,7 +2486,7 @@
       <c r="A53">
         <v>13</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C53">
@@ -2572,7 +2558,7 @@
       <c r="A55">
         <v>14</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C55">
@@ -2716,7 +2702,7 @@
       <c r="A59">
         <v>15</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C59">
@@ -2860,7 +2846,7 @@
       <c r="A63">
         <v>16</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C63">
@@ -2968,7 +2954,7 @@
       <c r="A66">
         <v>17</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C66">
@@ -3184,7 +3170,7 @@
       <c r="A72">
         <v>18</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C72">
@@ -3328,7 +3314,7 @@
       <c r="A76">
         <v>19</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C76">
@@ -3436,7 +3422,7 @@
       <c r="A79">
         <v>20</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C79">
@@ -3544,7 +3530,7 @@
       <c r="A82">
         <v>21</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C82">
@@ -3904,7 +3890,7 @@
       <c r="A92">
         <v>22</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C92">
@@ -3976,7 +3962,7 @@
       <c r="A94">
         <v>23</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C94">
@@ -4084,7 +4070,7 @@
       <c r="A97">
         <v>24</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C97">
@@ -4300,7 +4286,7 @@
       <c r="A103">
         <v>25</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C103">
@@ -4372,7 +4358,7 @@
       <c r="A105">
         <v>26</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C105">
@@ -4588,7 +4574,7 @@
       <c r="A111">
         <v>27</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C111">
@@ -4660,7 +4646,7 @@
       <c r="A113">
         <v>28</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C113">
@@ -4876,7 +4862,7 @@
       <c r="A119">
         <v>29</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C119">
@@ -5020,7 +5006,7 @@
       <c r="A123">
         <v>30</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C123">
@@ -5128,7 +5114,7 @@
       <c r="A126">
         <v>31</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C126">
@@ -5236,7 +5222,7 @@
       <c r="A129">
         <v>32</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C129">
@@ -5452,7 +5438,7 @@
       <c r="A135">
         <v>33</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C135">
@@ -5740,7 +5726,7 @@
       <c r="A143">
         <v>34</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B143" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C143">
@@ -5884,7 +5870,7 @@
       <c r="A147">
         <v>35</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B147" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C147">
@@ -5992,7 +5978,7 @@
       <c r="A150">
         <v>36</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C150">
@@ -6064,7 +6050,7 @@
       <c r="A152">
         <v>37</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C152">
@@ -6244,7 +6230,7 @@
       <c r="A157">
         <v>38</v>
       </c>
-      <c r="B157" s="10" t="s">
+      <c r="B157" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C157">
@@ -6352,7 +6338,7 @@
       <c r="A160">
         <v>39</v>
       </c>
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C160">
@@ -6748,7 +6734,7 @@
       <c r="A171">
         <v>40</v>
       </c>
-      <c r="B171" s="10" t="s">
+      <c r="B171" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C171">
@@ -7000,7 +6986,7 @@
       <c r="A178">
         <v>41</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C178">
@@ -7144,7 +7130,7 @@
       <c r="A182">
         <v>42</v>
       </c>
-      <c r="B182" s="10" t="s">
+      <c r="B182" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C182">
@@ -7360,7 +7346,7 @@
       <c r="A188">
         <v>43</v>
       </c>
-      <c r="B188" s="10" t="s">
+      <c r="B188" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C188">
@@ -7576,7 +7562,7 @@
       <c r="A194">
         <v>44</v>
       </c>
-      <c r="B194" s="10" t="s">
+      <c r="B194" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C194">
@@ -7648,7 +7634,7 @@
       <c r="A196">
         <v>45</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="B196" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C196">
@@ -7936,7 +7922,7 @@
       <c r="A204">
         <v>46</v>
       </c>
-      <c r="B204" s="10" t="s">
+      <c r="B204" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C204">
@@ -8008,7 +7994,7 @@
       <c r="A206">
         <v>47</v>
       </c>
-      <c r="B206" s="10" t="s">
+      <c r="B206" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C206">
@@ -8296,7 +8282,7 @@
       <c r="A214">
         <v>48</v>
       </c>
-      <c r="B214" s="10" t="s">
+      <c r="B214" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C214">
@@ -8404,7 +8390,7 @@
       <c r="A217">
         <v>49</v>
       </c>
-      <c r="B217" s="10" t="s">
+      <c r="B217" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C217">
@@ -8440,7 +8426,7 @@
       <c r="A218">
         <v>50</v>
       </c>
-      <c r="B218" s="10" t="s">
+      <c r="B218" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C218">
@@ -8656,7 +8642,7 @@
       <c r="A224">
         <v>51</v>
       </c>
-      <c r="B224" s="10" t="s">
+      <c r="B224" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C224">
@@ -8728,7 +8714,7 @@
       <c r="A226">
         <v>52</v>
       </c>
-      <c r="B226" s="10" t="s">
+      <c r="B226" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C226">
@@ -8872,7 +8858,7 @@
       <c r="A230">
         <v>53</v>
       </c>
-      <c r="B230" s="10" t="s">
+      <c r="B230" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C230">
@@ -9052,7 +9038,7 @@
       <c r="A235">
         <v>54</v>
       </c>
-      <c r="B235" s="10" t="s">
+      <c r="B235" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C235">
@@ -9124,7 +9110,7 @@
       <c r="A237">
         <v>55</v>
       </c>
-      <c r="B237" s="10" t="s">
+      <c r="B237" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C237">
@@ -9232,7 +9218,7 @@
       <c r="A240">
         <v>56</v>
       </c>
-      <c r="B240" s="10" t="s">
+      <c r="B240" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C240">
@@ -9448,7 +9434,7 @@
       <c r="A246">
         <v>57</v>
       </c>
-      <c r="B246" s="10" t="s">
+      <c r="B246" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C246">
@@ -9520,7 +9506,7 @@
       <c r="A248">
         <v>58</v>
       </c>
-      <c r="B248" s="10" t="s">
+      <c r="B248" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C248">
@@ -9772,7 +9758,7 @@
       <c r="A255">
         <v>59</v>
       </c>
-      <c r="B255" s="10" t="s">
+      <c r="B255" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C255">
@@ -9880,7 +9866,7 @@
       <c r="A258">
         <v>60</v>
       </c>
-      <c r="B258" s="10" t="s">
+      <c r="B258" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C258">
@@ -10060,7 +10046,7 @@
       <c r="A263">
         <v>61</v>
       </c>
-      <c r="B263" s="10" t="s">
+      <c r="B263" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C263">
@@ -10240,7 +10226,7 @@
       <c r="A268">
         <v>62</v>
       </c>
-      <c r="B268" s="10" t="s">
+      <c r="B268" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C268">
@@ -10384,7 +10370,7 @@
       <c r="A272">
         <v>63</v>
       </c>
-      <c r="B272" s="10" t="s">
+      <c r="B272" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C272">
@@ -10456,7 +10442,7 @@
       <c r="A274">
         <v>64</v>
       </c>
-      <c r="B274" s="10" t="s">
+      <c r="B274" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C274">
@@ -10672,7 +10658,7 @@
       <c r="A280">
         <v>65</v>
       </c>
-      <c r="B280" s="10" t="s">
+      <c r="B280" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C280">
@@ -10780,7 +10766,7 @@
       <c r="A283">
         <v>66</v>
       </c>
-      <c r="B283" s="10" t="s">
+      <c r="B283" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C283">
@@ -10812,669 +10798,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K284">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K285">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K286">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K287">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K288">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K289">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K290">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K291">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K292">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K293">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K294">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K295">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K296">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K297">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K298">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K299">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K300">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K301">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K302">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K303">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K304">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K305">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K306">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K307">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K308">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K309">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K310">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K311">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K312">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K313">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K314">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K315">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K316">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K317">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K318">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K319">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K320">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K321">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K322">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K323">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K324">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K325">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K326">
-        <f t="shared" ref="K326:K389" si="6">SUM(C326:J326)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K327">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K328">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K329">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K330">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K331">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K332">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K333">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K334">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K335">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K336">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K337">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K338">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K339">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K340">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K341">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K342">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K343">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K344">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K345">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K346">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K347">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K348">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K349">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K350">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K351">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K352">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K353">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K354">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K355">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K356">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K357">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K358">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K359">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K360">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K361">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K362">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K363">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K364">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K365">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K366">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K367">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K368">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K369">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K370">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K371">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K372">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K373">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K374">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K375">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K376">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K377">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K378">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K379">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K380">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K381">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K382">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K383">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K384">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K385">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K386">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K387">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K388">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K389">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K390">
-        <f t="shared" ref="K390:K393" si="7">SUM(C390:J390)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K391">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K392">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K393">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:XFD393">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD($A2,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11485,11 +10811,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874C2040-D9D2-425D-8341-F45C98E38288}">
-  <dimension ref="A1:L1000"/>
+  <dimension ref="A1:L163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11540,10 +10866,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D2">
@@ -11696,10 +11022,10 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D6">
@@ -12047,10 +11373,10 @@
       <c r="A15">
         <v>3</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D15">
@@ -12359,10 +11685,10 @@
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D23">
@@ -12632,10 +11958,10 @@
       <c r="A30">
         <v>5</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D30">
@@ -12671,10 +11997,10 @@
       <c r="A31">
         <v>6</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D31">
@@ -13061,10 +12387,10 @@
       <c r="A41">
         <v>7</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D41">
@@ -13217,10 +12543,10 @@
       <c r="A45">
         <v>8</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D45">
@@ -13412,10 +12738,10 @@
       <c r="A50">
         <v>9</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D50">
@@ -13529,10 +12855,10 @@
       <c r="A53">
         <v>10</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D53">
@@ -13802,10 +13128,10 @@
       <c r="A60">
         <v>11</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D60">
@@ -14075,10 +13401,10 @@
       <c r="A67">
         <v>12</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D67">
@@ -14114,10 +13440,10 @@
       <c r="A68">
         <v>13</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D68">
@@ -14387,10 +13713,10 @@
       <c r="A75">
         <v>14</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D75">
@@ -14660,10 +13986,10 @@
       <c r="A82">
         <v>15</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D82">
@@ -14855,10 +14181,10 @@
       <c r="A87">
         <v>16</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D87">
@@ -14933,10 +14259,10 @@
       <c r="A89">
         <v>17</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D89">
@@ -15167,10 +14493,10 @@
       <c r="A95">
         <v>18</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D95">
@@ -15323,10 +14649,10 @@
       <c r="A99">
         <v>19</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C99" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D99">
@@ -15557,10 +14883,10 @@
       <c r="A105">
         <v>20</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D105">
@@ -15674,10 +15000,10 @@
       <c r="A108">
         <v>21</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D108">
@@ -15791,10 +15117,10 @@
       <c r="A111">
         <v>22</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D111">
@@ -16025,10 +15351,10 @@
       <c r="A117">
         <v>23</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C117" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D117">
@@ -16181,7 +15507,7 @@
       <c r="A121">
         <v>24</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C121" t="s">
@@ -16259,10 +15585,10 @@
       <c r="A123">
         <v>25</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C123" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D123">
@@ -16415,10 +15741,10 @@
       <c r="A127">
         <v>26</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C127" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D127">
@@ -16571,10 +15897,10 @@
       <c r="A131">
         <v>27</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C131" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D131">
@@ -16922,10 +16248,10 @@
       <c r="A140">
         <v>28</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C140" s="10" t="s">
+      <c r="C140" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D140">
@@ -17117,10 +16443,10 @@
       <c r="A145">
         <v>29</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B145" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="C145" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D145">
@@ -17195,7 +16521,7 @@
       <c r="A147">
         <v>30</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C147" t="s">
@@ -17273,10 +16599,10 @@
       <c r="A149">
         <v>30</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B149" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="C149" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D149">
@@ -17351,10 +16677,10 @@
       <c r="A151">
         <v>31</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C151" s="10" t="s">
+      <c r="C151" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D151">
@@ -17624,10 +16950,10 @@
       <c r="A158">
         <v>32</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C158" s="10" t="s">
+      <c r="C158" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D158">
@@ -17852,5028 +17178,6 @@
       <c r="L163">
         <f t="shared" si="2"/>
         <v>72</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L164">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L165">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L166">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L167">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L168">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L169">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L170">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L171">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L172">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L173">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L174">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L175">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L176">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L177">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L178">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L179">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L180">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L181">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L182">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L183">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L184">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L185">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L186">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L187">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L188">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L189">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L190">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L191">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L192">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L193">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L194">
-        <f t="shared" ref="L194:L257" si="3">SUM(D194:K194)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L195">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L196">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L197">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L198">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L199">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L200">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L201">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L202">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L203">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L204">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L205">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L206">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L207">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L208">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L209">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L210">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L211">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L212">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L213">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L214">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L215">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L216">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L217">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L218">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L219">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L220">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L221">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L222">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L223">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L224">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L225">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L226">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L227">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L228">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L229">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L230">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L231">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L232">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L233">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L234">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L235">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L236">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L237">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L238">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L239">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L240">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L241">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L242">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L243">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L244">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L245">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L246">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L247">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L248">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L249">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L250">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L251">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L252">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L253">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L254">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L255">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L256">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L257">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L258">
-        <f t="shared" ref="L258:L321" si="4">SUM(D258:K258)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L259">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L260">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L261">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L262">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L263">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L264">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L265">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L266">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L267">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L268">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L269">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L270">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L271">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L272">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L273">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L274">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L275">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L276">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L277">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L278">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L279">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L280">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L281">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L282">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L283">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L284">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L285">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L286">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L287">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L288">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L289">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L290">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L291">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L292">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L293">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L294">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L295">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L296">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L297">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L298">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L299">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L300">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L301">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L302">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L303">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L304">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L305">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L306">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L307">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L308">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L309">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L310">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L311">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L312">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L313">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L314">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L315">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L316">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L317">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L318">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L319">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L320">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L321">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L322">
-        <f t="shared" ref="L322:L385" si="5">SUM(D322:K322)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L323">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L324">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L325">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L326">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L327">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L328">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L329">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L330">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L331">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L332">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L333">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L334">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L335">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L336">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L337">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L338">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L339">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L340">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L341">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L342">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L343">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L344">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L345">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L346">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L347">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L348">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L349">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L350">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L351">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L352">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L353">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L354">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L355">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L356">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L357">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L358">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L359">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L360">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L361">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L362">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L363">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L364">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L365">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L366">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L367">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L368">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L369">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L370">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L371">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L372">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L373">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L374">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L375">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L376">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L377">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L378">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L379">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L380">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L381">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L382">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L383">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L384">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L385">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L386">
-        <f t="shared" ref="L386:L449" si="6">SUM(D386:K386)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L387">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L388">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L389">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L390">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L391">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L392">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L393">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L394">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L395">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L396">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L397">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L398">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L399">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L400">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L401">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L402">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L403">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L404">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L405">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L406">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L407">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L408">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L409">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L410">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L411">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L412">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L413">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L414">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L415">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L416">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L417">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L418">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L419">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L420">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L421">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L422">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L423">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L424">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L425">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L426">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L427">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L428">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L429">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L430">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L431">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L432">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L433">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L434">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L435">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L436">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L437">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L438">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L439">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L440">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L441">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L442">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L443">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L444">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L445">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L446">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L447">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L448">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L449">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L450">
-        <f t="shared" ref="L450:L513" si="7">SUM(D450:K450)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L451">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L452">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L453">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L454">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L455">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L456">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L457">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L458">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L459">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L460">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L461">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L462">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L463">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L464">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L465">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L466">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L467">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L468">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L469">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L470">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L471">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L472">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L473">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L474">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L475">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L476">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L477">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L478">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L479">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L480">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L481">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L482">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L483">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L484">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L485">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L486">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L487">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L488">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L489">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L490">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L491">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L492">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L493">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="494" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L494">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L495">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L496">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L497">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L498">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L499">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L500">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L501">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L502">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L503">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L504">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L505">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="506" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L506">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="507" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L507">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L508">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L509">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L510">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="511" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L511">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="512" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L512">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L513">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="514" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L514">
-        <f t="shared" ref="L514:L577" si="8">SUM(D514:K514)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L515">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L516">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L517">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L518">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="519" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L519">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="520" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L520">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="521" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L521">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="522" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L522">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="523" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L523">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="524" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L524">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="525" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L525">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="526" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L526">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="527" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L527">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="528" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L528">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="529" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L529">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="530" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L530">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="531" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L531">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="532" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L532">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="533" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L533">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="534" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L534">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="535" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L535">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="536" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L536">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="537" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L537">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L538">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="539" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L539">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="540" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L540">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="541" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L541">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="542" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L542">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="543" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L543">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="544" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L544">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="545" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L545">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="546" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L546">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="547" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L547">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="548" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L548">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="549" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L549">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="550" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L550">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="551" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L551">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="552" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L552">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="553" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L553">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="554" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L554">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="555" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L555">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="556" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L556">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="557" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L557">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="558" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L558">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="559" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L559">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="560" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L560">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="561" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L561">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="562" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L562">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="563" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L563">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="564" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L564">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="565" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L565">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="566" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L566">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="567" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L567">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="568" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L568">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="569" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L569">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="570" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L570">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="571" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L571">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="572" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L572">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="573" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L573">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="574" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L574">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="575" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L575">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="576" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L576">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="577" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L577">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="578" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L578">
-        <f t="shared" ref="L578:L641" si="9">SUM(D578:K578)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="579" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L579">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="580" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L580">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="581" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L581">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="582" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L582">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="583" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L583">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="584" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L584">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="585" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L585">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="586" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L586">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="587" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L587">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="588" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L588">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="589" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L589">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="590" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L590">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="591" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L591">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="592" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L592">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="593" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L593">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="594" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L594">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="595" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L595">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="596" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L596">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="597" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L597">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="598" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L598">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="599" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L599">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="600" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L600">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="601" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L601">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="602" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L602">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="603" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L603">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="604" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L604">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="605" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L605">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="606" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L606">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="607" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L607">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="608" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L608">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="609" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L609">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="610" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L610">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="611" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L611">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="612" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L612">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="613" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L613">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="614" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L614">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="615" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L615">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="616" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L616">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="617" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L617">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="618" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L618">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="619" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L619">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="620" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L620">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="621" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L621">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="622" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L622">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="623" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L623">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="624" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L624">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="625" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L625">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="626" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L626">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="627" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L627">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="628" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L628">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="629" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L629">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="630" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L630">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="631" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L631">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="632" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L632">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="633" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L633">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="634" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L634">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="635" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L635">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="636" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L636">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="637" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L637">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="638" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L638">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="639" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L639">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="640" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L640">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="641" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L641">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="642" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L642">
-        <f t="shared" ref="L642:L705" si="10">SUM(D642:K642)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="643" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L643">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="644" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L644">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="645" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L645">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="646" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L646">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="647" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L647">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="648" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L648">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="649" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L649">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="650" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L650">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="651" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L651">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="652" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L652">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="653" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L653">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="654" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L654">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="655" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L655">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="656" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L656">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="657" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L657">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="658" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L658">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="659" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L659">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="660" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L660">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="661" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L661">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="662" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L662">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="663" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L663">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="664" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L664">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="665" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L665">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="666" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L666">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="667" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L667">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="668" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L668">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="669" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L669">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="670" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L670">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="671" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L671">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="672" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L672">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="673" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L673">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="674" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L674">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="675" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L675">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="676" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L676">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="677" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L677">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="678" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L678">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="679" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L679">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="680" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L680">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="681" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L681">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="682" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L682">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="683" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L683">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="684" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L684">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="685" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L685">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="686" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L686">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="687" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L687">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="688" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L688">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="689" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L689">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="690" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L690">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="691" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L691">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="692" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L692">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="693" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L693">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="694" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L694">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="695" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L695">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="696" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L696">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="697" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L697">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="698" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L698">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="699" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L699">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="700" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L700">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="701" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L701">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="702" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L702">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="703" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L703">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="704" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L704">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="705" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L705">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="706" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L706">
-        <f t="shared" ref="L706:L769" si="11">SUM(D706:K706)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="707" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L707">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="708" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L708">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="709" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L709">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="710" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L710">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="711" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L711">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="712" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L712">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="713" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L713">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="714" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L714">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="715" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L715">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="716" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L716">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="717" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L717">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="718" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L718">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="719" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L719">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="720" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L720">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="721" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L721">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="722" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L722">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="723" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L723">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="724" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L724">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="725" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L725">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="726" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L726">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="727" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L727">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="728" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L728">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="729" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L729">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="730" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L730">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="731" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L731">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="732" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L732">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="733" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L733">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="734" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L734">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="735" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L735">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="736" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L736">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="737" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L737">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="738" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L738">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="739" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L739">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="740" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L740">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="741" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L741">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="742" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L742">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="743" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L743">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="744" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L744">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="745" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L745">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="746" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L746">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="747" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L747">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="748" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L748">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="749" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L749">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="750" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L750">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="751" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L751">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="752" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L752">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="753" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L753">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="754" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L754">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="755" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L755">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="756" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L756">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="757" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L757">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="758" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L758">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="759" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L759">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="760" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L760">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="761" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L761">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="762" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L762">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="763" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L763">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="764" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L764">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="765" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L765">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="766" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L766">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="767" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L767">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="768" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L768">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="769" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L769">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="770" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L770">
-        <f t="shared" ref="L770:L833" si="12">SUM(D770:K770)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="771" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L771">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="772" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L772">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="773" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L773">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="774" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L774">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="775" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L775">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="776" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L776">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="777" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L777">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="778" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L778">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="779" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L779">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="780" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L780">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="781" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L781">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="782" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L782">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="783" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L783">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="784" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L784">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="785" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L785">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="786" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L786">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="787" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L787">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="788" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L788">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="789" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L789">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="790" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L790">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="791" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L791">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="792" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L792">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="793" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L793">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="794" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L794">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="795" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L795">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="796" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L796">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="797" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L797">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="798" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L798">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="799" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L799">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="800" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L800">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="801" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L801">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="802" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L802">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="803" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L803">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="804" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L804">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="805" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L805">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="806" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L806">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="807" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L807">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="808" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L808">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="809" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L809">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="810" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L810">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="811" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L811">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="812" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L812">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="813" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L813">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="814" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L814">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="815" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L815">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="816" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L816">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="817" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L817">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="818" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L818">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="819" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L819">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="820" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L820">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="821" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L821">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="822" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L822">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="823" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L823">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="824" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L824">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="825" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L825">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="826" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L826">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="827" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L827">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="828" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L828">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="829" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L829">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="830" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L830">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="831" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L831">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="832" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L832">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="833" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L833">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="834" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L834">
-        <f t="shared" ref="L834:L897" si="13">SUM(D834:K834)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="835" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L835">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="836" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L836">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="837" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L837">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="838" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L838">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="839" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L839">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="840" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L840">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="841" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L841">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="842" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L842">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="843" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L843">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="844" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L844">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="845" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L845">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="846" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L846">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="847" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L847">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="848" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L848">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="849" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L849">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="850" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L850">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="851" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L851">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="852" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L852">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="853" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L853">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="854" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L854">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="855" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L855">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="856" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L856">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="857" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L857">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="858" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L858">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="859" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L859">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="860" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L860">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="861" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L861">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="862" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L862">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="863" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L863">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="864" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L864">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="865" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L865">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="866" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L866">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="867" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L867">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="868" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L868">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="869" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L869">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="870" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L870">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="871" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L871">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="872" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L872">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="873" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L873">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="874" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L874">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="875" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L875">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="876" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L876">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="877" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L877">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="878" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L878">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="879" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L879">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="880" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L880">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="881" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L881">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="882" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L882">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="883" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L883">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="884" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L884">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="885" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L885">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="886" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L886">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="887" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L887">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="888" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L888">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="889" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L889">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="890" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L890">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="891" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L891">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="892" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L892">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="893" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L893">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="894" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L894">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="895" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L895">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="896" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L896">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="897" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L897">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="898" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L898">
-        <f t="shared" ref="L898:L961" si="14">SUM(D898:K898)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="899" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L899">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="900" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L900">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="901" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L901">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="902" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L902">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="903" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L903">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="904" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L904">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="905" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L905">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="906" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L906">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="907" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L907">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="908" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L908">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="909" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L909">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="910" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L910">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="911" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L911">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="912" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L912">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="913" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L913">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="914" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L914">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="915" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L915">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="916" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L916">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="917" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L917">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="918" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L918">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="919" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L919">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="920" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L920">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="921" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L921">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="922" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L922">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="923" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L923">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="924" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L924">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="925" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L925">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="926" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L926">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="927" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L927">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="928" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L928">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="929" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L929">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="930" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L930">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="931" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L931">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="932" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L932">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="933" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L933">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="934" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L934">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="935" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L935">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="936" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L936">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="937" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L937">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="938" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L938">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="939" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L939">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="940" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L940">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="941" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L941">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="942" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L942">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="943" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L943">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="944" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L944">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="945" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L945">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="946" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L946">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="947" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L947">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="948" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L948">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="949" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L949">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="950" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L950">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="951" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L951">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="952" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L952">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="953" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L953">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="954" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L954">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="955" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L955">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="956" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L956">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="957" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L957">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="958" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L958">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="959" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L959">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="960" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L960">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="961" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L961">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="962" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L962">
-        <f t="shared" ref="L962:L1000" si="15">SUM(D962:K962)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="963" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L963">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="964" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L964">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="965" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L965">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="966" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L966">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="967" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L967">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="968" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L968">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="969" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L969">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="970" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L970">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="971" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L971">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="972" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L972">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="973" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L973">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="974" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L974">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="975" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L975">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="976" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L976">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="977" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L977">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="978" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L978">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="979" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L979">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="980" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L980">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="981" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L981">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="982" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L982">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="983" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L983">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="984" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L984">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="985" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L985">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="986" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L986">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="987" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L987">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="988" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L988">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="989" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L989">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="990" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L990">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="991" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L991">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="992" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L992">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="993" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L993">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="994" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L994">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="995" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L995">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="996" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L996">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="997" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L997">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="998" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L998">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="999" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L999">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1000" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L1000">
-        <f t="shared" si="15"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22889,10 +17193,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D43612-C655-4179-92E5-124253FA72E3}">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22942,7 +17246,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C2">
@@ -22970,10 +17274,10 @@
         <v>11</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K47" si="0">SUM(C2:J2)</f>
+        <f t="shared" ref="K2:K17" si="0">SUM(C2:J2)</f>
         <v>37</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="11">
         <f>SUM(K2:K3)</f>
         <v>93</v>
       </c>
@@ -22982,7 +17286,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C3">
@@ -23013,7 +17317,7 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="L3" s="9"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -23050,7 +17354,7 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="11">
         <f>SUM(K4:K5)</f>
         <v>77</v>
       </c>
@@ -23090,7 +17394,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="L5" s="9"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -23127,7 +17431,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="11">
         <f>SUM(K6:K7)</f>
         <v>84</v>
       </c>
@@ -23167,7 +17471,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="L7" s="9"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -23204,7 +17508,7 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="11">
         <f>SUM(K8:K9)</f>
         <v>89</v>
       </c>
@@ -23244,7 +17548,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="L9" s="9"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -23281,7 +17585,7 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="11">
         <f>SUM(K10:K11)</f>
         <v>92</v>
       </c>
@@ -23321,7 +17625,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="L11" s="9"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -23358,7 +17662,7 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="11">
         <f>SUM(K12:K13)</f>
         <v>83</v>
       </c>
@@ -23398,7 +17702,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="L13" s="9"/>
+      <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -23435,7 +17739,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="11">
         <f>SUM(K14:K15)</f>
         <v>69</v>
       </c>
@@ -23475,13 +17779,13 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="L15" s="9"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C16">
@@ -23512,7 +17816,7 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="11">
         <f>SUM(K16:K17)</f>
         <v>103</v>
       </c>
@@ -23521,7 +17825,7 @@
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C17">
@@ -23552,301 +17856,21 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
-        <f t="shared" ref="L18" si="1">SUM(K18:K19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="9">
-        <f t="shared" ref="L20" si="2">SUM(K20:K21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <f t="shared" ref="L22" si="3">SUM(K22:K23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="9">
-        <f t="shared" ref="L24" si="4">SUM(K24:K25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="9"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="9">
-        <f t="shared" ref="L26" si="5">SUM(K26:K27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="9">
-        <f t="shared" ref="L28" si="6">SUM(K28:K29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="9"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="9">
-        <f t="shared" ref="L30" si="7">SUM(K30:K31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="9">
-        <f t="shared" ref="L32" si="8">SUM(K32:K33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="9"/>
-    </row>
-    <row r="34" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="9">
-        <f t="shared" ref="L34" si="9">SUM(K34:K35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="9"/>
-    </row>
-    <row r="36" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="9">
-        <f t="shared" ref="L36" si="10">SUM(K36:K37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="9"/>
-    </row>
-    <row r="38" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="9">
-        <f t="shared" ref="L38" si="11">SUM(K38:K39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="9"/>
-    </row>
-    <row r="40" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="9">
-        <f t="shared" ref="L40" si="12">SUM(K40:K41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="9"/>
-    </row>
-    <row r="42" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="9">
-        <f t="shared" ref="L42" si="13">SUM(K42:K43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="9"/>
-    </row>
-    <row r="44" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="9">
-        <f t="shared" ref="L44" si="14">SUM(K44:K45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="9"/>
-    </row>
-    <row r="46" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="9">
-        <f t="shared" ref="L46" si="15">SUM(K46:K47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="9"/>
+      <c r="L17" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="8">
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L16:L17"/>
     <mergeCell ref="L12:L13"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="L10:L11"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="L46:L47"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:K17 A18:A19">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>MOD($A2,2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18:K47">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>MOD($A18,2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A2:XFD1000">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>MOD($A2,2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/7wonders/data/7wonders.xlsx
+++ b/7wonders/data/7wonders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Mota\Documents\VS Code\DataSy\7wonders\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71A7DAD-708E-47FD-AC7D-68D1C2B9C424}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F522BDE3-B37A-4947-B12B-403CB4EB8700}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4BEFDDDF-0926-4228-BEFA-2D10815E9504}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="42">
   <si>
     <t>Jogador</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Gustavo</t>
+  </si>
+  <si>
+    <t>Posição</t>
   </si>
 </sst>
 </file>
@@ -599,11 +602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC39C8B6-C2BD-49C0-833C-9ECA8EC96273}">
-  <dimension ref="A1:K283"/>
+  <dimension ref="A1:L283"/>
   <sheetViews>
     <sheetView zoomScale="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A284" sqref="A284"/>
+      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L283" sqref="L283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,7 +614,7 @@
     <col min="1" max="1" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -645,8 +648,11 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -681,8 +687,11 @@
         <f>SUM(C2:J2)</f>
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -717,8 +726,11 @@
         <f>SUM(C3:J3)</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -753,8 +765,11 @@
         <f>SUM(C4:J4)</f>
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -789,8 +804,11 @@
         <f>SUM(C5:J5)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -825,8 +843,11 @@
         <f t="shared" ref="K6:K69" si="0">SUM(C6:J6)</f>
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -861,8 +882,11 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -897,8 +921,11 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -933,8 +960,11 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -969,8 +999,11 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1005,8 +1038,11 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1041,8 +1077,11 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1077,8 +1116,11 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1113,8 +1155,11 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1149,8 +1194,11 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1185,8 +1233,11 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1221,8 +1272,11 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -1257,8 +1311,11 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1293,8 +1350,11 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1329,8 +1389,11 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -1365,8 +1428,11 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1401,8 +1467,11 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1437,8 +1506,11 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1473,8 +1545,11 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1509,8 +1584,11 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1545,8 +1623,11 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>6</v>
       </c>
@@ -1581,8 +1662,11 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>7</v>
       </c>
@@ -1617,8 +1701,11 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>7</v>
       </c>
@@ -1653,8 +1740,11 @@
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>7</v>
       </c>
@@ -1689,8 +1779,11 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>8</v>
       </c>
@@ -1725,8 +1818,11 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>8</v>
       </c>
@@ -1761,8 +1857,11 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>8</v>
       </c>
@@ -1797,8 +1896,11 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>8</v>
       </c>
@@ -1833,8 +1935,11 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>9</v>
       </c>
@@ -1869,8 +1974,11 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>9</v>
       </c>
@@ -1905,8 +2013,11 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>9</v>
       </c>
@@ -1941,8 +2052,11 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>9</v>
       </c>
@@ -1977,8 +2091,11 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>10</v>
       </c>
@@ -2013,8 +2130,11 @@
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>10</v>
       </c>
@@ -2049,8 +2169,11 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>10</v>
       </c>
@@ -2085,8 +2208,11 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>10</v>
       </c>
@@ -2121,8 +2247,11 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>10</v>
       </c>
@@ -2157,8 +2286,11 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>11</v>
       </c>
@@ -2193,8 +2325,11 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>11</v>
       </c>
@@ -2229,8 +2364,11 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>11</v>
       </c>
@@ -2265,8 +2403,11 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>12</v>
       </c>
@@ -2301,8 +2442,11 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>12</v>
       </c>
@@ -2337,8 +2481,11 @@
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>12</v>
       </c>
@@ -2373,8 +2520,11 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>12</v>
       </c>
@@ -2409,8 +2559,11 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>12</v>
       </c>
@@ -2445,8 +2598,11 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>13</v>
       </c>
@@ -2481,8 +2637,11 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>13</v>
       </c>
@@ -2517,8 +2676,11 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>13</v>
       </c>
@@ -2553,8 +2715,11 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>14</v>
       </c>
@@ -2589,8 +2754,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>14</v>
       </c>
@@ -2625,8 +2793,11 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>14</v>
       </c>
@@ -2661,8 +2832,11 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>14</v>
       </c>
@@ -2697,8 +2871,11 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>15</v>
       </c>
@@ -2733,8 +2910,11 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>15</v>
       </c>
@@ -2769,8 +2949,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>15</v>
       </c>
@@ -2805,8 +2988,11 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>16</v>
       </c>
@@ -2841,8 +3027,11 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>16</v>
       </c>
@@ -2877,8 +3066,11 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>16</v>
       </c>
@@ -2913,8 +3105,11 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>16</v>
       </c>
@@ -2949,8 +3144,11 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>17</v>
       </c>
@@ -2985,8 +3183,11 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>17</v>
       </c>
@@ -3021,8 +3222,11 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>17</v>
       </c>
@@ -3057,8 +3261,11 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>17</v>
       </c>
@@ -3093,8 +3300,11 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>18</v>
       </c>
@@ -3129,8 +3339,11 @@
         <f t="shared" ref="K70:K133" si="1">SUM(C70:J70)</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>18</v>
       </c>
@@ -3165,8 +3378,11 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>18</v>
       </c>
@@ -3201,8 +3417,11 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>18</v>
       </c>
@@ -3237,8 +3456,11 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>19</v>
       </c>
@@ -3273,8 +3495,11 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>19</v>
       </c>
@@ -3309,8 +3534,11 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>19</v>
       </c>
@@ -3345,8 +3573,11 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>19</v>
       </c>
@@ -3381,8 +3612,11 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>20</v>
       </c>
@@ -3417,8 +3651,11 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>20</v>
       </c>
@@ -3453,8 +3690,11 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>20</v>
       </c>
@@ -3489,8 +3729,11 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>20</v>
       </c>
@@ -3525,8 +3768,11 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>21</v>
       </c>
@@ -3561,8 +3807,11 @@
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>21</v>
       </c>
@@ -3597,8 +3846,11 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>21</v>
       </c>
@@ -3633,8 +3885,11 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>21</v>
       </c>
@@ -3669,8 +3924,11 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>21</v>
       </c>
@@ -3705,8 +3963,11 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>21</v>
       </c>
@@ -3741,8 +4002,11 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>21</v>
       </c>
@@ -3777,8 +4041,11 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>22</v>
       </c>
@@ -3813,8 +4080,11 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>22</v>
       </c>
@@ -3849,8 +4119,11 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>22</v>
       </c>
@@ -3885,8 +4158,11 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>22</v>
       </c>
@@ -3921,8 +4197,11 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>22</v>
       </c>
@@ -3957,8 +4236,11 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>23</v>
       </c>
@@ -3993,8 +4275,11 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>23</v>
       </c>
@@ -4029,8 +4314,11 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>23</v>
       </c>
@@ -4065,8 +4353,11 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>24</v>
       </c>
@@ -4101,8 +4392,11 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>24</v>
       </c>
@@ -4137,8 +4431,11 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>24</v>
       </c>
@@ -4173,8 +4470,11 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>24</v>
       </c>
@@ -4209,8 +4509,11 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>24</v>
       </c>
@@ -4245,8 +4548,11 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>25</v>
       </c>
@@ -4281,8 +4587,11 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>25</v>
       </c>
@@ -4317,8 +4626,11 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>25</v>
       </c>
@@ -4353,8 +4665,11 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>26</v>
       </c>
@@ -4389,8 +4704,11 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>26</v>
       </c>
@@ -4425,8 +4743,11 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>26</v>
       </c>
@@ -4461,8 +4782,11 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>26</v>
       </c>
@@ -4497,8 +4821,11 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>26</v>
       </c>
@@ -4533,8 +4860,11 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>27</v>
       </c>
@@ -4569,8 +4899,11 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>27</v>
       </c>
@@ -4605,8 +4938,11 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>27</v>
       </c>
@@ -4641,8 +4977,11 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>28</v>
       </c>
@@ -4677,8 +5016,11 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>28</v>
       </c>
@@ -4713,8 +5055,11 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>28</v>
       </c>
@@ -4749,8 +5094,11 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>28</v>
       </c>
@@ -4785,8 +5133,11 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>28</v>
       </c>
@@ -4821,8 +5172,11 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>29</v>
       </c>
@@ -4857,8 +5211,11 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>29</v>
       </c>
@@ -4893,8 +5250,11 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>29</v>
       </c>
@@ -4929,8 +5289,11 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>30</v>
       </c>
@@ -4965,8 +5328,11 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>30</v>
       </c>
@@ -5001,8 +5367,11 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>30</v>
       </c>
@@ -5037,8 +5406,11 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>30</v>
       </c>
@@ -5073,8 +5445,11 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>30</v>
       </c>
@@ -5109,8 +5484,11 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>31</v>
       </c>
@@ -5145,8 +5523,11 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>31</v>
       </c>
@@ -5181,8 +5562,11 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>31</v>
       </c>
@@ -5217,8 +5601,11 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>32</v>
       </c>
@@ -5253,8 +5640,11 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>32</v>
       </c>
@@ -5289,8 +5679,11 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>32</v>
       </c>
@@ -5325,8 +5718,11 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>32</v>
       </c>
@@ -5361,8 +5757,11 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>32</v>
       </c>
@@ -5397,8 +5796,11 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>33</v>
       </c>
@@ -5433,8 +5835,11 @@
         <f t="shared" ref="K134:K197" si="2">SUM(C134:J134)</f>
         <v>53</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>33</v>
       </c>
@@ -5469,8 +5874,11 @@
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>33</v>
       </c>
@@ -5505,8 +5913,11 @@
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>34</v>
       </c>
@@ -5541,8 +5952,11 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>34</v>
       </c>
@@ -5578,7 +5992,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>34</v>
       </c>
@@ -5613,8 +6027,11 @@
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>34</v>
       </c>
@@ -5649,8 +6066,11 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L140">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>34</v>
       </c>
@@ -5685,8 +6105,11 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>34</v>
       </c>
@@ -5721,8 +6144,11 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>34</v>
       </c>
@@ -5757,8 +6183,11 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>35</v>
       </c>
@@ -5793,8 +6222,11 @@
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>35</v>
       </c>
@@ -5829,8 +6261,11 @@
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>35</v>
       </c>
@@ -5865,8 +6300,11 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>35</v>
       </c>
@@ -5901,8 +6339,11 @@
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>35</v>
       </c>
@@ -5937,8 +6378,11 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L148">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>36</v>
       </c>
@@ -5973,8 +6417,11 @@
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>36</v>
       </c>
@@ -6009,8 +6456,11 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>36</v>
       </c>
@@ -6045,8 +6495,11 @@
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>37</v>
       </c>
@@ -6081,8 +6534,11 @@
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>37</v>
       </c>
@@ -6117,8 +6573,11 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>37</v>
       </c>
@@ -6153,8 +6612,11 @@
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>37</v>
       </c>
@@ -6189,8 +6651,11 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L155">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>37</v>
       </c>
@@ -6225,8 +6690,11 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>38</v>
       </c>
@@ -6261,8 +6729,11 @@
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>38</v>
       </c>
@@ -6297,8 +6768,11 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>38</v>
       </c>
@@ -6333,8 +6807,11 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>39</v>
       </c>
@@ -6369,8 +6846,11 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>39</v>
       </c>
@@ -6405,8 +6885,11 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L161">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>39</v>
       </c>
@@ -6441,8 +6924,11 @@
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>39</v>
       </c>
@@ -6477,8 +6963,11 @@
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>39</v>
       </c>
@@ -6513,8 +7002,11 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>39</v>
       </c>
@@ -6549,8 +7041,11 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>40</v>
       </c>
@@ -6585,8 +7080,11 @@
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>40</v>
       </c>
@@ -6621,8 +7119,11 @@
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>40</v>
       </c>
@@ -6657,8 +7158,11 @@
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>40</v>
       </c>
@@ -6693,8 +7197,11 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>40</v>
       </c>
@@ -6729,8 +7236,11 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>40</v>
       </c>
@@ -6765,8 +7275,11 @@
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>40</v>
       </c>
@@ -6801,8 +7314,11 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L172">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>41</v>
       </c>
@@ -6837,8 +7353,11 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>41</v>
       </c>
@@ -6873,8 +7392,11 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>41</v>
       </c>
@@ -6909,8 +7431,11 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>41</v>
       </c>
@@ -6945,8 +7470,11 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>41</v>
       </c>
@@ -6981,8 +7509,11 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L177">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>41</v>
       </c>
@@ -7017,8 +7548,11 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>41</v>
       </c>
@@ -7053,8 +7587,11 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>41</v>
       </c>
@@ -7089,8 +7626,11 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L180">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>42</v>
       </c>
@@ -7125,8 +7665,11 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>42</v>
       </c>
@@ -7161,8 +7704,11 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>42</v>
       </c>
@@ -7197,8 +7743,11 @@
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>42</v>
       </c>
@@ -7233,8 +7782,11 @@
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>42</v>
       </c>
@@ -7269,8 +7821,11 @@
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>42</v>
       </c>
@@ -7305,8 +7860,11 @@
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>42</v>
       </c>
@@ -7341,8 +7899,11 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>43</v>
       </c>
@@ -7377,8 +7938,11 @@
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>43</v>
       </c>
@@ -7413,8 +7977,11 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L189">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>43</v>
       </c>
@@ -7449,8 +8016,11 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>43</v>
       </c>
@@ -7485,8 +8055,11 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>43</v>
       </c>
@@ -7521,8 +8094,11 @@
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>44</v>
       </c>
@@ -7557,8 +8133,11 @@
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>44</v>
       </c>
@@ -7593,8 +8172,11 @@
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>44</v>
       </c>
@@ -7629,8 +8211,11 @@
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>45</v>
       </c>
@@ -7665,8 +8250,11 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>45</v>
       </c>
@@ -7701,8 +8289,11 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>45</v>
       </c>
@@ -7737,8 +8328,11 @@
         <f t="shared" ref="K198:K261" si="3">SUM(C198:J198)</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>45</v>
       </c>
@@ -7773,8 +8367,11 @@
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>45</v>
       </c>
@@ -7809,8 +8406,11 @@
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L200">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>45</v>
       </c>
@@ -7845,8 +8445,11 @@
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>46</v>
       </c>
@@ -7881,8 +8484,11 @@
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>46</v>
       </c>
@@ -7917,8 +8523,11 @@
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>46</v>
       </c>
@@ -7953,8 +8562,11 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>46</v>
       </c>
@@ -7989,8 +8601,11 @@
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L205">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>47</v>
       </c>
@@ -8025,8 +8640,11 @@
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>47</v>
       </c>
@@ -8061,8 +8679,11 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>47</v>
       </c>
@@ -8097,8 +8718,11 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>47</v>
       </c>
@@ -8133,8 +8757,11 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>48</v>
       </c>
@@ -8169,8 +8796,11 @@
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>48</v>
       </c>
@@ -8205,8 +8835,11 @@
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>48</v>
       </c>
@@ -8241,8 +8874,11 @@
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>48</v>
       </c>
@@ -8277,8 +8913,11 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L213">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>48</v>
       </c>
@@ -8313,8 +8952,11 @@
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>49</v>
       </c>
@@ -8349,8 +8991,11 @@
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>49</v>
       </c>
@@ -8385,8 +9030,11 @@
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>49</v>
       </c>
@@ -8421,8 +9069,11 @@
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>50</v>
       </c>
@@ -8457,8 +9108,11 @@
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>50</v>
       </c>
@@ -8493,8 +9147,11 @@
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>50</v>
       </c>
@@ -8529,8 +9186,11 @@
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>50</v>
       </c>
@@ -8565,8 +9225,11 @@
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>51</v>
       </c>
@@ -8601,8 +9264,11 @@
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>51</v>
       </c>
@@ -8637,8 +9303,11 @@
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>51</v>
       </c>
@@ -8673,8 +9342,11 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>51</v>
       </c>
@@ -8709,8 +9381,11 @@
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>52</v>
       </c>
@@ -8745,8 +9420,11 @@
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>52</v>
       </c>
@@ -8781,8 +9459,11 @@
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>52</v>
       </c>
@@ -8817,8 +9498,11 @@
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>52</v>
       </c>
@@ -8853,8 +9537,11 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L229">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>53</v>
       </c>
@@ -8889,8 +9576,11 @@
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>53</v>
       </c>
@@ -8925,8 +9615,11 @@
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>53</v>
       </c>
@@ -8961,8 +9654,11 @@
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>54</v>
       </c>
@@ -8997,8 +9693,11 @@
         <f t="shared" ref="K233:K239" si="4">SUM(C233:J233)</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>54</v>
       </c>
@@ -9033,8 +9732,11 @@
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>54</v>
       </c>
@@ -9069,8 +9771,11 @@
         <f t="shared" si="4"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>54</v>
       </c>
@@ -9105,8 +9810,11 @@
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L236">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>55</v>
       </c>
@@ -9141,8 +9849,11 @@
         <f t="shared" si="4"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>55</v>
       </c>
@@ -9177,8 +9888,11 @@
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>55</v>
       </c>
@@ -9213,8 +9927,11 @@
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>56</v>
       </c>
@@ -9249,8 +9966,11 @@
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>56</v>
       </c>
@@ -9285,8 +10005,11 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>56</v>
       </c>
@@ -9321,8 +10044,11 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>56</v>
       </c>
@@ -9357,8 +10083,11 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>56</v>
       </c>
@@ -9393,8 +10122,11 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L244">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>57</v>
       </c>
@@ -9429,8 +10161,11 @@
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>57</v>
       </c>
@@ -9465,8 +10200,11 @@
         <f t="shared" si="3"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>57</v>
       </c>
@@ -9501,8 +10239,11 @@
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>58</v>
       </c>
@@ -9537,8 +10278,11 @@
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>58</v>
       </c>
@@ -9573,8 +10317,11 @@
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>58</v>
       </c>
@@ -9609,8 +10356,11 @@
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L250">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>58</v>
       </c>
@@ -9645,8 +10395,11 @@
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>58</v>
       </c>
@@ -9681,8 +10434,11 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L252">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>59</v>
       </c>
@@ -9717,8 +10473,11 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>59</v>
       </c>
@@ -9753,8 +10512,11 @@
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>59</v>
       </c>
@@ -9789,8 +10551,11 @@
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>60</v>
       </c>
@@ -9825,8 +10590,11 @@
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>60</v>
       </c>
@@ -9861,8 +10629,11 @@
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L257">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>60</v>
       </c>
@@ -9897,8 +10668,11 @@
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>60</v>
       </c>
@@ -9933,8 +10707,11 @@
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L259">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>60</v>
       </c>
@@ -9969,8 +10746,11 @@
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>61</v>
       </c>
@@ -10005,8 +10785,11 @@
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L261">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>61</v>
       </c>
@@ -10038,11 +10821,14 @@
         <v>4</v>
       </c>
       <c r="K262">
-        <f t="shared" ref="K262:K325" si="5">SUM(C262:J262)</f>
+        <f t="shared" ref="K262:K283" si="5">SUM(C262:J262)</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>61</v>
       </c>
@@ -10077,8 +10863,11 @@
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>61</v>
       </c>
@@ -10113,8 +10902,11 @@
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>62</v>
       </c>
@@ -10149,8 +10941,11 @@
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>62</v>
       </c>
@@ -10185,8 +10980,11 @@
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>62</v>
       </c>
@@ -10221,8 +11019,11 @@
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L267">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>62</v>
       </c>
@@ -10257,8 +11058,11 @@
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>63</v>
       </c>
@@ -10293,8 +11097,11 @@
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L269">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>63</v>
       </c>
@@ -10329,8 +11136,11 @@
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>63</v>
       </c>
@@ -10365,8 +11175,11 @@
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>63</v>
       </c>
@@ -10401,8 +11214,11 @@
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>64</v>
       </c>
@@ -10437,8 +11253,11 @@
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L273">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>64</v>
       </c>
@@ -10473,8 +11292,11 @@
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>64</v>
       </c>
@@ -10509,8 +11331,11 @@
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>64</v>
       </c>
@@ -10545,8 +11370,11 @@
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>65</v>
       </c>
@@ -10581,8 +11409,11 @@
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L277">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>65</v>
       </c>
@@ -10617,8 +11448,11 @@
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>65</v>
       </c>
@@ -10653,8 +11487,11 @@
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>65</v>
       </c>
@@ -10689,8 +11526,11 @@
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>66</v>
       </c>
@@ -10725,8 +11565,11 @@
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>66</v>
       </c>
@@ -10761,8 +11604,11 @@
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L282">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>66</v>
       </c>
@@ -10796,6 +11642,9 @@
       <c r="K283">
         <f t="shared" si="5"/>
         <v>78</v>
+      </c>
+      <c r="L283">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10811,11 +11660,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874C2040-D9D2-425D-8341-F45C98E38288}">
-  <dimension ref="A1:L163"/>
+  <dimension ref="A1:M163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M160" sqref="M160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10824,7 +11673,7 @@
     <col min="3" max="3" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -10861,8 +11710,11 @@
       <c r="L1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10900,8 +11752,11 @@
         <f t="shared" ref="L2:L65" si="0">SUM(D2:K2)</f>
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10939,8 +11794,11 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -10978,8 +11836,11 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -11017,8 +11878,11 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -11056,8 +11920,11 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -11095,8 +11962,11 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -11134,8 +12004,11 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -11173,8 +12046,11 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -11212,8 +12088,11 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -11251,8 +12130,11 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -11290,8 +12172,11 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -11329,8 +12214,11 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -11368,8 +12256,11 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -11407,8 +12298,11 @@
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -11446,8 +12340,11 @@
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -11485,8 +12382,11 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
@@ -11524,8 +12424,11 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -11563,8 +12466,11 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4</v>
       </c>
@@ -11602,8 +12508,11 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
@@ -11641,8 +12550,11 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
@@ -11680,8 +12592,11 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -11719,8 +12634,11 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -11758,8 +12676,11 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -11797,8 +12718,11 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
@@ -11836,8 +12760,11 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5</v>
       </c>
@@ -11875,8 +12802,11 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5</v>
       </c>
@@ -11914,8 +12844,11 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5</v>
       </c>
@@ -11953,8 +12886,11 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -11992,8 +12928,11 @@
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>6</v>
       </c>
@@ -12031,8 +12970,11 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>6</v>
       </c>
@@ -12070,8 +13012,11 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -12109,8 +13054,11 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>6</v>
       </c>
@@ -12148,8 +13096,11 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>6</v>
       </c>
@@ -12187,8 +13138,11 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>6</v>
       </c>
@@ -12226,8 +13180,11 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
@@ -12265,8 +13222,11 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>7</v>
       </c>
@@ -12304,8 +13264,11 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>7</v>
       </c>
@@ -12343,8 +13306,11 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>7</v>
       </c>
@@ -12382,8 +13348,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>7</v>
       </c>
@@ -12421,8 +13390,11 @@
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>7</v>
       </c>
@@ -12460,8 +13432,11 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>8</v>
       </c>
@@ -12499,8 +13474,11 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>8</v>
       </c>
@@ -12538,8 +13516,11 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>8</v>
       </c>
@@ -12577,8 +13558,11 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>8</v>
       </c>
@@ -12616,8 +13600,11 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>8</v>
       </c>
@@ -12655,8 +13642,11 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>9</v>
       </c>
@@ -12694,8 +13684,11 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>9</v>
       </c>
@@ -12733,8 +13726,11 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>9</v>
       </c>
@@ -12772,8 +13768,11 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>9</v>
       </c>
@@ -12811,8 +13810,11 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>9</v>
       </c>
@@ -12850,8 +13852,11 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>10</v>
       </c>
@@ -12889,8 +13894,11 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>10</v>
       </c>
@@ -12928,8 +13936,11 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>10</v>
       </c>
@@ -12967,8 +13978,11 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>10</v>
       </c>
@@ -13006,8 +14020,11 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>10</v>
       </c>
@@ -13045,8 +14062,11 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>11</v>
       </c>
@@ -13084,8 +14104,11 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>11</v>
       </c>
@@ -13123,8 +14146,11 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>11</v>
       </c>
@@ -13162,8 +14188,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>11</v>
       </c>
@@ -13201,8 +14230,11 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>11</v>
       </c>
@@ -13240,8 +14272,11 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>12</v>
       </c>
@@ -13279,8 +14314,11 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>12</v>
       </c>
@@ -13318,8 +14356,11 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>12</v>
       </c>
@@ -13357,8 +14398,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>12</v>
       </c>
@@ -13396,8 +14440,11 @@
         <f t="shared" ref="L66:L129" si="1">SUM(D66:K66)</f>
         <v>58</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>12</v>
       </c>
@@ -13435,8 +14482,11 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>13</v>
       </c>
@@ -13474,8 +14524,11 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>13</v>
       </c>
@@ -13513,8 +14566,11 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>13</v>
       </c>
@@ -13552,8 +14608,11 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>13</v>
       </c>
@@ -13591,8 +14650,11 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>13</v>
       </c>
@@ -13630,8 +14692,11 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>14</v>
       </c>
@@ -13669,8 +14734,11 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>14</v>
       </c>
@@ -13708,8 +14776,11 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>14</v>
       </c>
@@ -13747,8 +14818,11 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>14</v>
       </c>
@@ -13786,8 +14860,11 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>14</v>
       </c>
@@ -13825,8 +14902,11 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>15</v>
       </c>
@@ -13864,8 +14944,11 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>15</v>
       </c>
@@ -13903,8 +14986,11 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>15</v>
       </c>
@@ -13942,8 +15028,11 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>15</v>
       </c>
@@ -13981,8 +15070,11 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>15</v>
       </c>
@@ -14020,8 +15112,11 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>16</v>
       </c>
@@ -14059,8 +15154,11 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>16</v>
       </c>
@@ -14098,8 +15196,11 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>16</v>
       </c>
@@ -14137,8 +15238,11 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>16</v>
       </c>
@@ -14176,8 +15280,11 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>16</v>
       </c>
@@ -14215,8 +15322,11 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>16</v>
       </c>
@@ -14254,8 +15364,11 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>17</v>
       </c>
@@ -14293,8 +15406,11 @@
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>17</v>
       </c>
@@ -14332,8 +15448,11 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>17</v>
       </c>
@@ -14371,8 +15490,11 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>17</v>
       </c>
@@ -14410,8 +15532,11 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>17</v>
       </c>
@@ -14449,8 +15574,11 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>18</v>
       </c>
@@ -14488,8 +15616,11 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>18</v>
       </c>
@@ -14527,8 +15658,11 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>18</v>
       </c>
@@ -14566,8 +15700,11 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>18</v>
       </c>
@@ -14605,8 +15742,11 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>18</v>
       </c>
@@ -14644,8 +15784,11 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>19</v>
       </c>
@@ -14683,8 +15826,11 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>19</v>
       </c>
@@ -14722,8 +15868,11 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>19</v>
       </c>
@@ -14761,8 +15910,11 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>19</v>
       </c>
@@ -14800,8 +15952,11 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>20</v>
       </c>
@@ -14839,8 +15994,11 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>20</v>
       </c>
@@ -14878,8 +16036,11 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>20</v>
       </c>
@@ -14917,8 +16078,11 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>20</v>
       </c>
@@ -14956,8 +16120,11 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>21</v>
       </c>
@@ -14995,8 +16162,11 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>21</v>
       </c>
@@ -15034,8 +16204,11 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>21</v>
       </c>
@@ -15073,8 +16246,11 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>21</v>
       </c>
@@ -15112,8 +16288,11 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>22</v>
       </c>
@@ -15151,8 +16330,11 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>22</v>
       </c>
@@ -15190,8 +16372,11 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>22</v>
       </c>
@@ -15229,8 +16414,11 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>22</v>
       </c>
@@ -15268,8 +16456,11 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>23</v>
       </c>
@@ -15307,8 +16498,11 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>23</v>
       </c>
@@ -15346,8 +16540,11 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>23</v>
       </c>
@@ -15385,8 +16582,11 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>23</v>
       </c>
@@ -15424,8 +16624,11 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>24</v>
       </c>
@@ -15463,8 +16666,11 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>24</v>
       </c>
@@ -15502,8 +16708,11 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>24</v>
       </c>
@@ -15541,8 +16750,11 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>24</v>
       </c>
@@ -15580,8 +16792,11 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>25</v>
       </c>
@@ -15619,8 +16834,11 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>25</v>
       </c>
@@ -15658,8 +16876,11 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>25</v>
       </c>
@@ -15697,8 +16918,11 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>25</v>
       </c>
@@ -15736,8 +16960,11 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>26</v>
       </c>
@@ -15775,8 +17002,11 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>26</v>
       </c>
@@ -15814,8 +17044,11 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>26</v>
       </c>
@@ -15853,8 +17086,11 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>26</v>
       </c>
@@ -15889,11 +17125,14 @@
         <v>0</v>
       </c>
       <c r="L130">
-        <f t="shared" ref="L130:L193" si="2">SUM(D130:K130)</f>
+        <f t="shared" ref="L130:L163" si="2">SUM(D130:K130)</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>27</v>
       </c>
@@ -15931,8 +17170,11 @@
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>27</v>
       </c>
@@ -15970,8 +17212,11 @@
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>27</v>
       </c>
@@ -16009,8 +17254,11 @@
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>27</v>
       </c>
@@ -16048,8 +17296,11 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>27</v>
       </c>
@@ -16087,8 +17338,11 @@
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>28</v>
       </c>
@@ -16126,8 +17380,11 @@
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>28</v>
       </c>
@@ -16165,8 +17422,11 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>28</v>
       </c>
@@ -16204,8 +17464,11 @@
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>28</v>
       </c>
@@ -16243,8 +17506,11 @@
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>28</v>
       </c>
@@ -16282,8 +17548,11 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>29</v>
       </c>
@@ -16321,8 +17590,11 @@
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>29</v>
       </c>
@@ -16360,8 +17632,11 @@
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>29</v>
       </c>
@@ -16399,8 +17674,11 @@
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>29</v>
       </c>
@@ -16438,8 +17716,11 @@
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>29</v>
       </c>
@@ -16477,8 +17758,11 @@
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>30</v>
       </c>
@@ -16516,8 +17800,11 @@
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>30</v>
       </c>
@@ -16555,8 +17842,11 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>30</v>
       </c>
@@ -16594,8 +17884,11 @@
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>30</v>
       </c>
@@ -16633,8 +17926,11 @@
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>30</v>
       </c>
@@ -16672,8 +17968,11 @@
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>31</v>
       </c>
@@ -16711,8 +18010,11 @@
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>31</v>
       </c>
@@ -16750,8 +18052,11 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>31</v>
       </c>
@@ -16789,8 +18094,11 @@
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>31</v>
       </c>
@@ -16828,8 +18136,11 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>31</v>
       </c>
@@ -16867,8 +18178,11 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>31</v>
       </c>
@@ -16906,8 +18220,11 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M156">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>31</v>
       </c>
@@ -16945,8 +18262,11 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M157">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>32</v>
       </c>
@@ -16984,8 +18304,11 @@
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>32</v>
       </c>
@@ -17023,8 +18346,11 @@
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>32</v>
       </c>
@@ -17062,8 +18388,11 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M160">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>32</v>
       </c>
@@ -17101,8 +18430,11 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>32</v>
       </c>
@@ -17140,8 +18472,11 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>32</v>
       </c>
@@ -17178,6 +18513,9 @@
       <c r="L163">
         <f t="shared" si="2"/>
         <v>72</v>
+      </c>
+      <c r="M163">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -17193,10 +18531,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D43612-C655-4179-92E5-124253FA72E3}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17204,7 +18542,7 @@
     <col min="1" max="1" width="6.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -17241,8 +18579,11 @@
       <c r="L1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17281,8 +18622,11 @@
         <f>SUM(K2:K3)</f>
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17318,8 +18662,9 @@
         <v>56</v>
       </c>
       <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -17358,8 +18703,11 @@
         <f>SUM(K4:K5)</f>
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -17395,8 +18743,9 @@
         <v>33</v>
       </c>
       <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -17435,8 +18784,11 @@
         <f>SUM(K6:K7)</f>
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -17472,8 +18824,9 @@
         <v>42</v>
       </c>
       <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -17512,8 +18865,11 @@
         <f>SUM(K8:K9)</f>
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -17549,8 +18905,9 @@
         <v>42</v>
       </c>
       <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -17589,8 +18946,11 @@
         <f>SUM(K10:K11)</f>
         <v>92</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -17626,8 +18986,9 @@
         <v>42</v>
       </c>
       <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -17666,8 +19027,11 @@
         <f>SUM(K12:K13)</f>
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -17703,8 +19067,9 @@
         <v>38</v>
       </c>
       <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -17743,8 +19108,11 @@
         <f>SUM(K14:K15)</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -17780,8 +19148,9 @@
         <v>39</v>
       </c>
       <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -17820,8 +19189,11 @@
         <f>SUM(K16:K17)</f>
         <v>103</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -17857,9 +19229,18 @@
         <v>53</v>
       </c>
       <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="16">
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M10:M11"/>
     <mergeCell ref="L14:L15"/>
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="L12:L13"/>
@@ -17869,7 +19250,7 @@
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="L10:L11"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:XFD1000">
+  <conditionalFormatting sqref="A2:XFD2 A4:XFD4 A3:L3 N3:XFD3 A6:XFD6 A5:L5 N5:XFD5 A8:XFD8 A7:L7 N7:XFD7 A10:XFD10 A9:L9 N9:XFD9 A12:XFD12 A11:L11 N11:XFD11 A14:XFD14 A13:L13 N13:XFD13 A16:XFD16 A15:L15 N15:XFD15 A18:XFD1000 A17:L17 N17:XFD17">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>MOD($A2,2)=1</formula>
     </cfRule>

--- a/7wonders/data/7wonders.xlsx
+++ b/7wonders/data/7wonders.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Mota\Documents\VS Code\DataSy\7wonders\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F522BDE3-B37A-4947-B12B-403CB4EB8700}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197C3F0C-DCA2-4B84-9359-399036E06A17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4BEFDDDF-0926-4228-BEFA-2D10815E9504}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4BEFDDDF-0926-4228-BEFA-2D10815E9504}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sem M." sheetId="1" r:id="rId1"/>
-    <sheet name="Com M." sheetId="3" r:id="rId2"/>
+    <sheet name="SemM" sheetId="1" r:id="rId1"/>
+    <sheet name="ComM" sheetId="3" r:id="rId2"/>
     <sheet name="Duplas" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ComM!$B$1:$B$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SemM!$B$1:$B$283</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">ComM!$P:$P</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">SemM!$Q:$Q</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -602,19 +608,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC39C8B6-C2BD-49C0-833C-9ECA8EC96273}">
-  <dimension ref="A1:L283"/>
+  <dimension ref="A1:Q283"/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L283" sqref="L283"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -652,7 +659,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -691,7 +698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -729,8 +736,9 @@
       <c r="L3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -769,7 +777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -808,7 +816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -847,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -886,7 +894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -925,7 +933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -964,7 +972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1003,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1041,8 +1049,9 @@
       <c r="L11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1081,7 +1090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1120,7 +1129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1159,7 +1168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1198,7 +1207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
@@ -11648,6 +11657,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B283" xr:uid="{448BD02E-D988-4F0D-9D41-3CDC59BC4723}"/>
   <conditionalFormatting sqref="A2:XFD393">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD($A2,2)=1</formula>
@@ -11660,11 +11670,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874C2040-D9D2-425D-8341-F45C98E38288}">
-  <dimension ref="A1:M163"/>
+  <dimension ref="A1:P163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M160" sqref="M160"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P11" sqref="P1:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11673,7 +11683,7 @@
     <col min="3" max="3" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -11714,7 +11724,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11755,8 +11765,9 @@
       <c r="M2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11798,7 +11809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -11840,7 +11851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -11882,7 +11893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -11924,7 +11935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -11966,7 +11977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -12008,7 +12019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -12050,7 +12061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -12092,7 +12103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -12134,7 +12145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -12176,7 +12187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -12218,7 +12229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -12260,7 +12271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -12302,7 +12313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -18533,7 +18544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D43612-C655-4179-92E5-124253FA72E3}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>

--- a/7wonders/data/7wonders.xlsx
+++ b/7wonders/data/7wonders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Mota\Documents\VS Code\DataSy\7wonders\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB565F38-9150-4AAE-BB59-236CD4CAC5AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA225029-D174-46C4-82B4-1393AC6C1C6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4BEFDDDF-0926-4228-BEFA-2D10815E9504}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="41">
   <si>
     <t>Jogador</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -596,11 +599,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874C2040-D9D2-425D-8341-F45C98E38288}">
-  <dimension ref="A1:P481"/>
+  <dimension ref="A1:P589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A459" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H484" sqref="H484"/>
+      <pane ySplit="1" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A492" sqref="A492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16646,7 +16649,7 @@
         <v>10</v>
       </c>
       <c r="L382">
-        <f t="shared" ref="L382:L481" si="6">SUM(D382:K382)</f>
+        <f t="shared" ref="L382:L488" si="6">SUM(D382:K382)</f>
         <v>60</v>
       </c>
       <c r="M382">
@@ -20811,8 +20814,986 @@
         <v>7</v>
       </c>
     </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>107</v>
+      </c>
+      <c r="B482" t="s">
+        <v>11</v>
+      </c>
+      <c r="C482" t="s">
+        <v>40</v>
+      </c>
+      <c r="D482">
+        <v>4</v>
+      </c>
+      <c r="E482">
+        <v>2</v>
+      </c>
+      <c r="F482">
+        <v>3</v>
+      </c>
+      <c r="G482">
+        <v>19</v>
+      </c>
+      <c r="H482">
+        <v>0</v>
+      </c>
+      <c r="I482">
+        <v>4</v>
+      </c>
+      <c r="J482">
+        <v>2</v>
+      </c>
+      <c r="L482">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="M482">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>107</v>
+      </c>
+      <c r="B483" t="s">
+        <v>13</v>
+      </c>
+      <c r="C483" t="s">
+        <v>40</v>
+      </c>
+      <c r="D483">
+        <v>1</v>
+      </c>
+      <c r="E483">
+        <v>0</v>
+      </c>
+      <c r="F483">
+        <v>15</v>
+      </c>
+      <c r="G483">
+        <v>10</v>
+      </c>
+      <c r="H483">
+        <v>7</v>
+      </c>
+      <c r="I483">
+        <v>2</v>
+      </c>
+      <c r="J483">
+        <v>7</v>
+      </c>
+      <c r="L483">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="M483">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>107</v>
+      </c>
+      <c r="B484" t="s">
+        <v>14</v>
+      </c>
+      <c r="C484" t="s">
+        <v>40</v>
+      </c>
+      <c r="D484">
+        <v>9</v>
+      </c>
+      <c r="E484">
+        <v>6</v>
+      </c>
+      <c r="F484">
+        <v>10</v>
+      </c>
+      <c r="G484">
+        <v>9</v>
+      </c>
+      <c r="H484">
+        <v>0</v>
+      </c>
+      <c r="I484">
+        <v>1</v>
+      </c>
+      <c r="J484">
+        <v>9</v>
+      </c>
+      <c r="L484">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="M484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>108</v>
+      </c>
+      <c r="B485" t="s">
+        <v>15</v>
+      </c>
+      <c r="C485" t="s">
+        <v>40</v>
+      </c>
+      <c r="D485">
+        <v>6</v>
+      </c>
+      <c r="E485">
+        <v>8</v>
+      </c>
+      <c r="F485">
+        <v>15</v>
+      </c>
+      <c r="G485">
+        <v>10</v>
+      </c>
+      <c r="H485">
+        <v>8</v>
+      </c>
+      <c r="I485">
+        <v>0</v>
+      </c>
+      <c r="J485">
+        <v>0</v>
+      </c>
+      <c r="L485">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="M485">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>108</v>
+      </c>
+      <c r="B486" t="s">
+        <v>13</v>
+      </c>
+      <c r="C486" t="s">
+        <v>40</v>
+      </c>
+      <c r="D486">
+        <v>3</v>
+      </c>
+      <c r="E486">
+        <v>2</v>
+      </c>
+      <c r="F486">
+        <v>10</v>
+      </c>
+      <c r="G486">
+        <v>15</v>
+      </c>
+      <c r="H486">
+        <v>0</v>
+      </c>
+      <c r="I486">
+        <v>25</v>
+      </c>
+      <c r="J486">
+        <v>0</v>
+      </c>
+      <c r="L486">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="M486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>108</v>
+      </c>
+      <c r="B487" t="s">
+        <v>12</v>
+      </c>
+      <c r="C487" t="s">
+        <v>40</v>
+      </c>
+      <c r="D487">
+        <v>3</v>
+      </c>
+      <c r="E487">
+        <v>0</v>
+      </c>
+      <c r="F487">
+        <v>10</v>
+      </c>
+      <c r="G487">
+        <v>10</v>
+      </c>
+      <c r="H487">
+        <v>0</v>
+      </c>
+      <c r="I487">
+        <v>2</v>
+      </c>
+      <c r="J487">
+        <v>21</v>
+      </c>
+      <c r="L487">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="M487">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>109</v>
+      </c>
+      <c r="B488" t="s">
+        <v>15</v>
+      </c>
+      <c r="C488" t="s">
+        <v>40</v>
+      </c>
+      <c r="D488">
+        <v>14</v>
+      </c>
+      <c r="E488">
+        <v>5</v>
+      </c>
+      <c r="F488">
+        <v>7</v>
+      </c>
+      <c r="G488">
+        <v>12</v>
+      </c>
+      <c r="H488">
+        <v>4</v>
+      </c>
+      <c r="I488">
+        <v>0</v>
+      </c>
+      <c r="J488">
+        <v>13</v>
+      </c>
+      <c r="L488">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="M488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>109</v>
+      </c>
+      <c r="B489" t="s">
+        <v>12</v>
+      </c>
+      <c r="C489" t="s">
+        <v>40</v>
+      </c>
+      <c r="D489">
+        <v>-4</v>
+      </c>
+      <c r="E489">
+        <v>1</v>
+      </c>
+      <c r="F489">
+        <v>2</v>
+      </c>
+      <c r="G489">
+        <v>14</v>
+      </c>
+      <c r="H489">
+        <v>0</v>
+      </c>
+      <c r="I489">
+        <v>36</v>
+      </c>
+      <c r="J489">
+        <v>0</v>
+      </c>
+      <c r="L489">
+        <f t="shared" ref="L489:L552" si="7">SUM(D489:K489)</f>
+        <v>49</v>
+      </c>
+      <c r="M489">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>109</v>
+      </c>
+      <c r="B490" t="s">
+        <v>13</v>
+      </c>
+      <c r="C490" t="s">
+        <v>40</v>
+      </c>
+      <c r="D490">
+        <v>13</v>
+      </c>
+      <c r="E490">
+        <v>5</v>
+      </c>
+      <c r="F490">
+        <v>5</v>
+      </c>
+      <c r="G490">
+        <v>0</v>
+      </c>
+      <c r="H490">
+        <v>8</v>
+      </c>
+      <c r="I490">
+        <v>16</v>
+      </c>
+      <c r="J490">
+        <v>0</v>
+      </c>
+      <c r="L490">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
+      <c r="M490">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>109</v>
+      </c>
+      <c r="B491" t="s">
+        <v>14</v>
+      </c>
+      <c r="C491" t="s">
+        <v>40</v>
+      </c>
+      <c r="D491">
+        <v>0</v>
+      </c>
+      <c r="E491">
+        <v>9</v>
+      </c>
+      <c r="F491">
+        <v>10</v>
+      </c>
+      <c r="G491">
+        <v>14</v>
+      </c>
+      <c r="H491">
+        <v>6</v>
+      </c>
+      <c r="I491">
+        <v>0</v>
+      </c>
+      <c r="J491">
+        <v>0</v>
+      </c>
+      <c r="L491">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="M491">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L492">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L493">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L494">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L495">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L496">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L497">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L498">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L499">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L500">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L501">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L502">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L503">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L504">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L505">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L506">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L507">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L508">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L509">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L510">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L511">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L512">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L513">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L514">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L515">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L516">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L517">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L518">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L519">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L520">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L521">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L522">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L523">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L524">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L525">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L526">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L527">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L528">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L529">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L530">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L531">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L532">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L533">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L534">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L535">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L536">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L537">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L538">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L539">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L540">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L541">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L542">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L543">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L544">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L545">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L546">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L547">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L548">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L549">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L550">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L551">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L552">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L553">
+        <f t="shared" ref="L553:L589" si="8">SUM(D553:K553)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L554">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L555">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L556">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L557">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L558">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L559">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L560">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L561">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L562">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L563">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L564">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L565">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L566">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L567">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L568">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L569">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L570">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L571">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L572">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L573">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L574">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L575">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L576">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L577">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L578">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L579">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L580">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L581">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L582">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L583">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L584">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L585">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L586">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L587">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L588">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L589">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:XFD163 A446:XFD1000 N164:XFD445">
+  <conditionalFormatting sqref="A2:XFD163 N164:XFD445 A446:XFD1000">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD($A2,2)=1</formula>
     </cfRule>

--- a/7wonders/data/7wonders.xlsx
+++ b/7wonders/data/7wonders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Mota\Documents\VS Code\DataSy\7wonders\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA225029-D174-46C4-82B4-1393AC6C1C6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0E6123-0607-4BCB-96EC-C9755FECBAFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4BEFDDDF-0926-4228-BEFA-2D10815E9504}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="41">
   <si>
     <t>Jogador</t>
   </si>
@@ -602,8 +602,8 @@
   <dimension ref="A1:P589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A492" sqref="A492"/>
+      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J515" sqref="J515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21205,222 +21205,1014 @@
       </c>
     </row>
     <row r="492" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>110</v>
+      </c>
+      <c r="B492" t="s">
+        <v>13</v>
+      </c>
+      <c r="C492" t="s">
+        <v>35</v>
+      </c>
+      <c r="D492">
+        <v>10</v>
+      </c>
+      <c r="E492">
+        <v>6</v>
+      </c>
+      <c r="F492">
+        <v>20</v>
+      </c>
+      <c r="G492">
+        <v>19</v>
+      </c>
+      <c r="H492">
+        <v>7</v>
+      </c>
+      <c r="I492">
+        <v>0</v>
+      </c>
+      <c r="J492">
+        <v>0</v>
+      </c>
+      <c r="K492">
+        <v>5</v>
+      </c>
       <c r="L492">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="M492">
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>110</v>
+      </c>
+      <c r="B493" t="s">
+        <v>26</v>
+      </c>
+      <c r="C493" t="s">
+        <v>33</v>
+      </c>
+      <c r="D493">
+        <v>-3</v>
+      </c>
+      <c r="E493">
+        <v>2</v>
+      </c>
+      <c r="F493">
+        <v>3</v>
+      </c>
+      <c r="G493">
+        <v>6</v>
+      </c>
+      <c r="H493">
+        <v>4</v>
+      </c>
+      <c r="I493">
+        <v>48</v>
+      </c>
+      <c r="J493">
+        <v>0</v>
+      </c>
+      <c r="K493">
+        <v>0</v>
+      </c>
       <c r="L493">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="M493">
+        <v>3</v>
       </c>
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>110</v>
+      </c>
+      <c r="B494" t="s">
+        <v>14</v>
+      </c>
+      <c r="C494" t="s">
+        <v>30</v>
+      </c>
+      <c r="D494">
+        <v>3</v>
+      </c>
+      <c r="E494">
+        <v>3</v>
+      </c>
+      <c r="F494">
+        <v>7</v>
+      </c>
+      <c r="G494">
+        <v>11</v>
+      </c>
+      <c r="H494">
+        <v>6</v>
+      </c>
+      <c r="I494">
+        <v>18</v>
+      </c>
+      <c r="J494">
+        <v>0</v>
+      </c>
+      <c r="K494">
+        <v>0</v>
+      </c>
       <c r="L494">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="M494">
+        <v>6</v>
       </c>
     </row>
     <row r="495" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>110</v>
+      </c>
+      <c r="B495" t="s">
+        <v>18</v>
+      </c>
+      <c r="C495" t="s">
+        <v>31</v>
+      </c>
+      <c r="D495">
+        <v>17</v>
+      </c>
+      <c r="E495">
+        <v>1</v>
+      </c>
+      <c r="F495">
+        <v>5</v>
+      </c>
+      <c r="G495">
+        <v>15</v>
+      </c>
+      <c r="H495">
+        <v>0</v>
+      </c>
+      <c r="I495">
+        <v>0</v>
+      </c>
+      <c r="J495">
+        <v>19</v>
+      </c>
+      <c r="K495">
+        <v>12</v>
+      </c>
       <c r="L495">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="M495">
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>110</v>
+      </c>
+      <c r="B496" t="s">
+        <v>24</v>
+      </c>
+      <c r="C496" t="s">
+        <v>28</v>
+      </c>
+      <c r="D496">
+        <v>-6</v>
+      </c>
+      <c r="E496">
+        <v>0</v>
+      </c>
+      <c r="F496">
+        <v>7</v>
+      </c>
+      <c r="G496">
+        <v>0</v>
+      </c>
+      <c r="H496">
+        <v>3</v>
+      </c>
+      <c r="I496">
+        <v>36</v>
+      </c>
+      <c r="J496">
+        <v>9</v>
+      </c>
+      <c r="K496">
+        <v>0</v>
+      </c>
       <c r="L496">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497" spans="12:12" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="M496">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>110</v>
+      </c>
+      <c r="B497" t="s">
+        <v>15</v>
+      </c>
+      <c r="C497" t="s">
+        <v>32</v>
+      </c>
+      <c r="D497">
+        <v>13</v>
+      </c>
+      <c r="E497">
+        <v>4</v>
+      </c>
+      <c r="F497">
+        <v>10</v>
+      </c>
+      <c r="G497">
+        <v>20</v>
+      </c>
+      <c r="H497">
+        <v>2</v>
+      </c>
+      <c r="I497">
+        <v>0</v>
+      </c>
+      <c r="J497">
+        <v>0</v>
+      </c>
+      <c r="K497">
+        <v>8</v>
+      </c>
       <c r="L497">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498" spans="12:12" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="M497">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>111</v>
+      </c>
+      <c r="B498" t="s">
+        <v>26</v>
+      </c>
+      <c r="C498" t="s">
+        <v>40</v>
+      </c>
+      <c r="D498">
+        <v>-6</v>
+      </c>
+      <c r="E498">
+        <v>0</v>
+      </c>
+      <c r="F498">
+        <v>5</v>
+      </c>
+      <c r="G498">
+        <v>9</v>
+      </c>
+      <c r="H498">
+        <v>0</v>
+      </c>
+      <c r="I498">
+        <v>33</v>
+      </c>
+      <c r="J498">
+        <v>8</v>
+      </c>
+      <c r="K498">
+        <v>0</v>
+      </c>
       <c r="L498">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499" spans="12:12" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="M498">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>111</v>
+      </c>
+      <c r="B499" t="s">
+        <v>18</v>
+      </c>
+      <c r="C499" t="s">
+        <v>40</v>
+      </c>
+      <c r="D499">
+        <v>15</v>
+      </c>
+      <c r="E499">
+        <v>6</v>
+      </c>
+      <c r="F499">
+        <v>5</v>
+      </c>
+      <c r="G499">
+        <v>11</v>
+      </c>
+      <c r="H499">
+        <v>5</v>
+      </c>
+      <c r="I499">
+        <v>0</v>
+      </c>
+      <c r="J499">
+        <v>16</v>
+      </c>
+      <c r="K499">
+        <v>4</v>
+      </c>
       <c r="L499">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500" spans="12:12" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="M499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>111</v>
+      </c>
+      <c r="B500" t="s">
+        <v>15</v>
+      </c>
+      <c r="C500" t="s">
+        <v>40</v>
+      </c>
+      <c r="D500">
+        <v>8</v>
+      </c>
+      <c r="E500">
+        <v>5</v>
+      </c>
+      <c r="F500">
+        <v>17</v>
+      </c>
+      <c r="G500">
+        <v>12</v>
+      </c>
+      <c r="H500">
+        <v>3</v>
+      </c>
+      <c r="I500">
+        <v>0</v>
+      </c>
+      <c r="J500">
+        <v>13</v>
+      </c>
+      <c r="K500">
+        <v>2</v>
+      </c>
       <c r="L500">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501" spans="12:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="M500">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>111</v>
+      </c>
+      <c r="B501" t="s">
+        <v>37</v>
+      </c>
+      <c r="C501" t="s">
+        <v>40</v>
+      </c>
+      <c r="D501">
+        <v>-1</v>
+      </c>
+      <c r="E501">
+        <v>7</v>
+      </c>
+      <c r="F501">
+        <v>7</v>
+      </c>
+      <c r="G501">
+        <v>31</v>
+      </c>
+      <c r="H501">
+        <v>2</v>
+      </c>
+      <c r="I501">
+        <v>0</v>
+      </c>
+      <c r="J501">
+        <v>14</v>
+      </c>
+      <c r="K501">
+        <v>0</v>
+      </c>
       <c r="L501">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502" spans="12:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="M501">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>112</v>
+      </c>
+      <c r="B502" t="s">
+        <v>15</v>
+      </c>
+      <c r="C502" t="s">
+        <v>40</v>
+      </c>
+      <c r="D502">
+        <v>-4</v>
+      </c>
+      <c r="E502">
+        <v>2</v>
+      </c>
+      <c r="F502">
+        <v>7</v>
+      </c>
+      <c r="G502">
+        <v>25</v>
+      </c>
+      <c r="H502">
+        <v>3</v>
+      </c>
+      <c r="I502">
+        <v>0</v>
+      </c>
+      <c r="J502">
+        <v>19</v>
+      </c>
+      <c r="K502">
+        <v>6</v>
+      </c>
       <c r="L502">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503" spans="12:12" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="M502">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>112</v>
+      </c>
+      <c r="B503" t="s">
+        <v>26</v>
+      </c>
+      <c r="C503" t="s">
+        <v>40</v>
+      </c>
+      <c r="D503">
+        <v>4</v>
+      </c>
+      <c r="E503">
+        <v>0</v>
+      </c>
+      <c r="F503">
+        <v>2</v>
+      </c>
+      <c r="G503">
+        <v>6</v>
+      </c>
+      <c r="H503">
+        <v>4</v>
+      </c>
+      <c r="I503">
+        <v>48</v>
+      </c>
+      <c r="J503">
+        <v>0</v>
+      </c>
+      <c r="K503">
+        <v>0</v>
+      </c>
       <c r="L503">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504" spans="12:12" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="M503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>112</v>
+      </c>
+      <c r="B504" t="s">
+        <v>18</v>
+      </c>
+      <c r="C504" t="s">
+        <v>40</v>
+      </c>
+      <c r="D504">
+        <v>10</v>
+      </c>
+      <c r="E504">
+        <v>3</v>
+      </c>
+      <c r="F504">
+        <v>10</v>
+      </c>
+      <c r="G504">
+        <v>11</v>
+      </c>
+      <c r="H504">
+        <v>0</v>
+      </c>
+      <c r="I504">
+        <v>0</v>
+      </c>
+      <c r="J504">
+        <v>5</v>
+      </c>
+      <c r="K504">
+        <v>11</v>
+      </c>
       <c r="L504">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505" spans="12:12" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="M504">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>112</v>
+      </c>
+      <c r="B505" t="s">
+        <v>37</v>
+      </c>
+      <c r="C505" t="s">
+        <v>40</v>
+      </c>
+      <c r="D505">
+        <v>12</v>
+      </c>
+      <c r="E505">
+        <v>-1</v>
+      </c>
+      <c r="F505">
+        <v>10</v>
+      </c>
+      <c r="G505">
+        <v>22</v>
+      </c>
+      <c r="H505">
+        <v>0</v>
+      </c>
+      <c r="I505">
+        <v>0</v>
+      </c>
+      <c r="J505">
+        <v>0</v>
+      </c>
+      <c r="K505">
+        <v>3</v>
+      </c>
       <c r="L505">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="506" spans="12:12" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="M505">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>113</v>
+      </c>
+      <c r="B506" t="s">
+        <v>15</v>
+      </c>
+      <c r="C506" t="s">
+        <v>40</v>
+      </c>
+      <c r="D506">
+        <v>-4</v>
+      </c>
+      <c r="E506">
+        <v>4</v>
+      </c>
+      <c r="F506">
+        <v>7</v>
+      </c>
+      <c r="G506">
+        <v>11</v>
+      </c>
+      <c r="H506">
+        <v>0</v>
+      </c>
+      <c r="I506">
+        <v>48</v>
+      </c>
+      <c r="J506">
+        <v>0</v>
+      </c>
+      <c r="K506">
+        <v>0</v>
+      </c>
       <c r="L506">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="507" spans="12:12" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="M506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>113</v>
+      </c>
+      <c r="B507" t="s">
+        <v>18</v>
+      </c>
+      <c r="C507" t="s">
+        <v>40</v>
+      </c>
+      <c r="D507">
+        <v>3</v>
+      </c>
+      <c r="E507">
+        <v>6</v>
+      </c>
+      <c r="F507">
+        <v>20</v>
+      </c>
+      <c r="G507">
+        <v>7</v>
+      </c>
+      <c r="H507">
+        <v>4</v>
+      </c>
+      <c r="I507">
+        <v>0</v>
+      </c>
+      <c r="J507">
+        <v>5</v>
+      </c>
+      <c r="K507">
+        <v>10</v>
+      </c>
       <c r="L507">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508" spans="12:12" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="M507">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>113</v>
+      </c>
+      <c r="B508" t="s">
+        <v>26</v>
+      </c>
+      <c r="C508" t="s">
+        <v>40</v>
+      </c>
+      <c r="D508">
+        <v>10</v>
+      </c>
+      <c r="E508">
+        <v>1</v>
+      </c>
+      <c r="F508">
+        <v>3</v>
+      </c>
+      <c r="G508">
+        <v>12</v>
+      </c>
+      <c r="H508">
+        <v>8</v>
+      </c>
+      <c r="I508">
+        <v>0</v>
+      </c>
+      <c r="J508">
+        <v>4</v>
+      </c>
+      <c r="K508">
+        <v>14</v>
+      </c>
       <c r="L508">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509" spans="12:12" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="M508">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>113</v>
+      </c>
+      <c r="B509" t="s">
+        <v>37</v>
+      </c>
+      <c r="C509" t="s">
+        <v>40</v>
+      </c>
+      <c r="D509">
+        <v>14</v>
+      </c>
+      <c r="E509">
+        <v>5</v>
+      </c>
+      <c r="F509">
+        <v>3</v>
+      </c>
+      <c r="G509">
+        <v>30</v>
+      </c>
+      <c r="H509">
+        <v>0</v>
+      </c>
+      <c r="I509">
+        <v>0</v>
+      </c>
+      <c r="J509">
+        <v>4</v>
+      </c>
+      <c r="K509">
+        <v>0</v>
+      </c>
       <c r="L509">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510" spans="12:12" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="M509">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>114</v>
+      </c>
+      <c r="B510" t="s">
+        <v>15</v>
+      </c>
+      <c r="C510" t="s">
+        <v>40</v>
+      </c>
+      <c r="D510">
+        <v>3</v>
+      </c>
+      <c r="E510">
+        <v>7</v>
+      </c>
+      <c r="F510">
+        <v>3</v>
+      </c>
+      <c r="G510">
+        <v>21</v>
+      </c>
+      <c r="H510">
+        <v>4</v>
+      </c>
+      <c r="I510">
+        <v>0</v>
+      </c>
+      <c r="J510">
+        <v>19</v>
+      </c>
+      <c r="K510">
+        <v>0</v>
+      </c>
       <c r="L510">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="511" spans="12:12" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="M510">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>114</v>
+      </c>
+      <c r="B511" t="s">
+        <v>18</v>
+      </c>
+      <c r="C511" t="s">
+        <v>40</v>
+      </c>
+      <c r="D511">
+        <v>11</v>
+      </c>
+      <c r="E511">
+        <v>11</v>
+      </c>
+      <c r="F511">
+        <v>10</v>
+      </c>
+      <c r="G511">
+        <v>15</v>
+      </c>
+      <c r="H511">
+        <v>4</v>
+      </c>
+      <c r="I511">
+        <v>0</v>
+      </c>
+      <c r="J511">
+        <v>0</v>
+      </c>
+      <c r="K511">
+        <v>5</v>
+      </c>
       <c r="L511">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="512" spans="12:12" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="M511">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>114</v>
+      </c>
+      <c r="B512" t="s">
+        <v>26</v>
+      </c>
+      <c r="C512" t="s">
+        <v>40</v>
+      </c>
+      <c r="D512">
+        <v>-5</v>
+      </c>
+      <c r="E512">
+        <v>2</v>
+      </c>
+      <c r="F512">
+        <v>5</v>
+      </c>
+      <c r="G512">
+        <v>0</v>
+      </c>
+      <c r="H512">
+        <v>0</v>
+      </c>
+      <c r="I512">
+        <v>64</v>
+      </c>
+      <c r="J512">
+        <v>0</v>
+      </c>
+      <c r="K512">
+        <v>4</v>
+      </c>
       <c r="L512">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513" spans="12:12" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="M512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>114</v>
+      </c>
+      <c r="B513" t="s">
+        <v>37</v>
+      </c>
+      <c r="C513" t="s">
+        <v>40</v>
+      </c>
+      <c r="D513">
+        <v>13</v>
+      </c>
+      <c r="E513">
+        <v>1</v>
+      </c>
+      <c r="F513">
+        <v>13</v>
+      </c>
+      <c r="G513">
+        <v>18</v>
+      </c>
+      <c r="H513">
+        <v>0</v>
+      </c>
+      <c r="I513">
+        <v>0</v>
+      </c>
+      <c r="J513">
+        <v>0</v>
+      </c>
+      <c r="K513">
+        <v>0</v>
+      </c>
       <c r="L513">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="514" spans="12:12" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="M513">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="514" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L514">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L515">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L516">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L517">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L518">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L519">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L520">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L521">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L522">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L523">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L524">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L525">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L526">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L527">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L528">
         <f t="shared" si="7"/>
         <v>0</v>

--- a/7wonders/data/7wonders.xlsx
+++ b/7wonders/data/7wonders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Mota\Documents\VS Code\DataSy\7wonders\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0E6123-0607-4BCB-96EC-C9755FECBAFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADE11EA-F9C3-4598-8E3F-7A9A1C4A7BD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4BEFDDDF-0926-4228-BEFA-2D10815E9504}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="45">
   <si>
     <t>Jogador</t>
   </si>
@@ -152,6 +152,18 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Agda</t>
+  </si>
+  <si>
+    <t>Pamela</t>
+  </si>
+  <si>
+    <t>Bruninho</t>
+  </si>
+  <si>
+    <t>Biel de Luis</t>
   </si>
 </sst>
 </file>
@@ -599,11 +611,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874C2040-D9D2-425D-8341-F45C98E38288}">
-  <dimension ref="A1:P589"/>
+  <dimension ref="A1:P771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J515" sqref="J515"/>
+      <pane ySplit="1" topLeftCell="A704" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A712" sqref="A712"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22129,458 +22141,8117 @@
       </c>
     </row>
     <row r="514" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>115</v>
+      </c>
+      <c r="B514" t="s">
+        <v>15</v>
+      </c>
+      <c r="C514" t="s">
+        <v>40</v>
+      </c>
+      <c r="D514">
+        <v>5</v>
+      </c>
+      <c r="E514">
+        <v>7</v>
+      </c>
+      <c r="F514">
+        <v>10</v>
+      </c>
+      <c r="G514">
+        <v>11</v>
+      </c>
+      <c r="H514">
+        <v>0</v>
+      </c>
+      <c r="I514">
+        <v>0</v>
+      </c>
+      <c r="J514">
+        <v>16</v>
+      </c>
       <c r="L514">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="M514">
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>115</v>
+      </c>
+      <c r="B515" t="s">
+        <v>12</v>
+      </c>
+      <c r="C515" t="s">
+        <v>40</v>
+      </c>
+      <c r="D515">
+        <v>1</v>
+      </c>
+      <c r="E515">
+        <v>4</v>
+      </c>
+      <c r="F515">
+        <v>10</v>
+      </c>
+      <c r="G515">
+        <v>0</v>
+      </c>
+      <c r="H515">
+        <v>5</v>
+      </c>
+      <c r="I515">
+        <v>16</v>
+      </c>
+      <c r="J515">
+        <v>0</v>
+      </c>
       <c r="L515">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="M515">
+        <v>4</v>
       </c>
     </row>
     <row r="516" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>115</v>
+      </c>
+      <c r="B516" t="s">
+        <v>13</v>
+      </c>
+      <c r="C516" t="s">
+        <v>40</v>
+      </c>
+      <c r="D516">
+        <v>2</v>
+      </c>
+      <c r="E516">
+        <v>3</v>
+      </c>
+      <c r="F516">
+        <v>10</v>
+      </c>
+      <c r="G516">
+        <v>12</v>
+      </c>
+      <c r="H516">
+        <v>0</v>
+      </c>
+      <c r="I516">
+        <v>9</v>
+      </c>
+      <c r="J516">
+        <v>5</v>
+      </c>
       <c r="L516">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="M516">
+        <v>3</v>
       </c>
     </row>
     <row r="517" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>115</v>
+      </c>
+      <c r="B517" t="s">
+        <v>14</v>
+      </c>
+      <c r="C517" t="s">
+        <v>40</v>
+      </c>
+      <c r="D517">
+        <v>7</v>
+      </c>
+      <c r="E517">
+        <v>3</v>
+      </c>
+      <c r="F517">
+        <v>15</v>
+      </c>
+      <c r="G517">
+        <v>11</v>
+      </c>
+      <c r="H517">
+        <v>0</v>
+      </c>
+      <c r="I517">
+        <v>0</v>
+      </c>
+      <c r="J517">
+        <v>8</v>
+      </c>
       <c r="L517">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="M517">
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>116</v>
+      </c>
+      <c r="B518" t="s">
+        <v>15</v>
+      </c>
+      <c r="C518" t="s">
+        <v>40</v>
+      </c>
+      <c r="D518">
+        <v>3</v>
+      </c>
+      <c r="E518">
+        <v>1</v>
+      </c>
+      <c r="F518">
+        <v>20</v>
+      </c>
+      <c r="G518">
+        <v>11</v>
+      </c>
+      <c r="H518">
+        <v>2</v>
+      </c>
+      <c r="I518">
+        <v>0</v>
+      </c>
+      <c r="J518">
+        <v>7</v>
+      </c>
       <c r="L518">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="M518">
+        <v>3</v>
       </c>
     </row>
     <row r="519" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>116</v>
+      </c>
+      <c r="B519" t="s">
+        <v>12</v>
+      </c>
+      <c r="C519" t="s">
+        <v>40</v>
+      </c>
+      <c r="D519">
+        <v>-3</v>
+      </c>
+      <c r="E519">
+        <v>1</v>
+      </c>
+      <c r="F519">
+        <v>3</v>
+      </c>
+      <c r="G519">
+        <v>27</v>
+      </c>
+      <c r="H519">
+        <v>0</v>
+      </c>
+      <c r="I519">
+        <v>26</v>
+      </c>
+      <c r="J519">
+        <v>0</v>
+      </c>
       <c r="L519">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="M519">
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>116</v>
+      </c>
+      <c r="B520" t="s">
+        <v>13</v>
+      </c>
+      <c r="C520" t="s">
+        <v>40</v>
+      </c>
+      <c r="D520">
+        <v>7</v>
+      </c>
+      <c r="E520">
+        <v>1</v>
+      </c>
+      <c r="F520">
+        <v>7</v>
+      </c>
+      <c r="G520">
+        <v>3</v>
+      </c>
+      <c r="H520">
+        <v>0</v>
+      </c>
+      <c r="I520">
+        <v>25</v>
+      </c>
+      <c r="J520">
+        <v>5</v>
+      </c>
       <c r="L520">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="M520">
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>116</v>
+      </c>
+      <c r="B521" t="s">
+        <v>14</v>
+      </c>
+      <c r="C521" t="s">
+        <v>40</v>
+      </c>
+      <c r="D521">
+        <v>13</v>
+      </c>
+      <c r="E521">
+        <v>4</v>
+      </c>
+      <c r="F521">
+        <v>2</v>
+      </c>
+      <c r="G521">
+        <v>3</v>
+      </c>
+      <c r="H521">
+        <v>1</v>
+      </c>
+      <c r="I521">
+        <v>5</v>
+      </c>
+      <c r="J521">
+        <v>7</v>
+      </c>
       <c r="L521">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="M521">
+        <v>4</v>
       </c>
     </row>
     <row r="522" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>117</v>
+      </c>
+      <c r="B522" t="s">
+        <v>15</v>
+      </c>
+      <c r="C522" t="s">
+        <v>40</v>
+      </c>
+      <c r="D522">
+        <v>3</v>
+      </c>
+      <c r="E522">
+        <v>5</v>
+      </c>
+      <c r="F522">
+        <v>10</v>
+      </c>
+      <c r="G522">
+        <v>0</v>
+      </c>
+      <c r="H522">
+        <v>8</v>
+      </c>
+      <c r="I522">
+        <v>4</v>
+      </c>
+      <c r="J522">
+        <v>20</v>
+      </c>
       <c r="L522">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="M522">
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>117</v>
+      </c>
+      <c r="B523" t="s">
+        <v>12</v>
+      </c>
+      <c r="C523" t="s">
+        <v>40</v>
+      </c>
+      <c r="D523">
+        <v>10</v>
+      </c>
+      <c r="E523">
+        <v>2</v>
+      </c>
+      <c r="F523">
+        <v>3</v>
+      </c>
+      <c r="G523">
+        <v>11</v>
+      </c>
+      <c r="H523">
+        <v>3</v>
+      </c>
+      <c r="I523">
+        <v>4</v>
+      </c>
+      <c r="J523">
+        <v>0</v>
+      </c>
       <c r="L523">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="M523">
+        <v>4</v>
       </c>
     </row>
     <row r="524" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>117</v>
+      </c>
+      <c r="B524" t="s">
+        <v>13</v>
+      </c>
+      <c r="C524" t="s">
+        <v>40</v>
+      </c>
+      <c r="D524">
+        <v>8</v>
+      </c>
+      <c r="E524">
+        <v>4</v>
+      </c>
+      <c r="F524">
+        <v>10</v>
+      </c>
+      <c r="G524">
+        <v>26</v>
+      </c>
+      <c r="H524">
+        <v>3</v>
+      </c>
+      <c r="I524">
+        <v>0</v>
+      </c>
+      <c r="J524">
+        <v>0</v>
+      </c>
       <c r="L524">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="M524">
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>117</v>
+      </c>
+      <c r="B525" t="s">
+        <v>14</v>
+      </c>
+      <c r="C525" t="s">
+        <v>40</v>
+      </c>
+      <c r="D525">
+        <v>-5</v>
+      </c>
+      <c r="E525">
+        <v>7</v>
+      </c>
+      <c r="F525">
+        <v>13</v>
+      </c>
+      <c r="G525">
+        <v>11</v>
+      </c>
+      <c r="H525">
+        <v>8</v>
+      </c>
+      <c r="I525">
+        <v>0</v>
+      </c>
+      <c r="J525">
+        <v>0</v>
+      </c>
       <c r="L525">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="M525">
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>118</v>
+      </c>
+      <c r="B526" t="s">
+        <v>15</v>
+      </c>
+      <c r="C526" t="s">
+        <v>40</v>
+      </c>
+      <c r="D526">
+        <v>7</v>
+      </c>
+      <c r="E526">
+        <v>8</v>
+      </c>
+      <c r="F526">
+        <v>13</v>
+      </c>
+      <c r="G526">
+        <v>0</v>
+      </c>
+      <c r="H526">
+        <v>5</v>
+      </c>
+      <c r="I526">
+        <v>0</v>
+      </c>
+      <c r="J526">
+        <v>9</v>
+      </c>
       <c r="L526">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="M526">
+        <v>4</v>
       </c>
     </row>
     <row r="527" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>118</v>
+      </c>
+      <c r="B527" t="s">
+        <v>12</v>
+      </c>
+      <c r="C527" t="s">
+        <v>40</v>
+      </c>
+      <c r="D527">
+        <v>7</v>
+      </c>
+      <c r="E527">
+        <v>3</v>
+      </c>
+      <c r="F527">
+        <v>0</v>
+      </c>
+      <c r="G527">
+        <v>8</v>
+      </c>
+      <c r="H527">
+        <v>2</v>
+      </c>
+      <c r="I527">
+        <v>25</v>
+      </c>
+      <c r="J527">
+        <v>0</v>
+      </c>
       <c r="L527">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="M527">
+        <v>3</v>
       </c>
     </row>
     <row r="528" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>118</v>
+      </c>
+      <c r="B528" t="s">
+        <v>13</v>
+      </c>
+      <c r="C528" t="s">
+        <v>40</v>
+      </c>
+      <c r="D528">
+        <v>-6</v>
+      </c>
+      <c r="E528">
+        <v>0</v>
+      </c>
+      <c r="F528">
+        <v>3</v>
+      </c>
+      <c r="G528">
+        <v>25</v>
+      </c>
+      <c r="H528">
+        <v>2</v>
+      </c>
+      <c r="I528">
+        <v>16</v>
+      </c>
+      <c r="J528">
+        <v>6</v>
+      </c>
       <c r="L528">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="529" spans="12:12" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="M528">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>118</v>
+      </c>
+      <c r="B529" t="s">
+        <v>14</v>
+      </c>
+      <c r="C529" t="s">
+        <v>40</v>
+      </c>
+      <c r="D529">
+        <v>16</v>
+      </c>
+      <c r="E529">
+        <v>6</v>
+      </c>
+      <c r="F529">
+        <v>10</v>
+      </c>
+      <c r="G529">
+        <v>12</v>
+      </c>
+      <c r="H529">
+        <v>3</v>
+      </c>
+      <c r="I529">
+        <v>0</v>
+      </c>
+      <c r="J529">
+        <v>0</v>
+      </c>
       <c r="L529">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="530" spans="12:12" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="M529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>119</v>
+      </c>
+      <c r="B530" t="s">
+        <v>15</v>
+      </c>
+      <c r="C530" t="s">
+        <v>40</v>
+      </c>
+      <c r="D530">
+        <v>16</v>
+      </c>
+      <c r="E530">
+        <v>3</v>
+      </c>
+      <c r="F530">
+        <v>3</v>
+      </c>
+      <c r="G530">
+        <v>0</v>
+      </c>
+      <c r="H530">
+        <v>3</v>
+      </c>
+      <c r="I530">
+        <v>16</v>
+      </c>
+      <c r="J530">
+        <v>16</v>
+      </c>
       <c r="L530">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="531" spans="12:12" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="M530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>119</v>
+      </c>
+      <c r="B531" t="s">
+        <v>13</v>
+      </c>
+      <c r="C531" t="s">
+        <v>40</v>
+      </c>
+      <c r="D531">
+        <v>-3</v>
+      </c>
+      <c r="E531">
+        <v>3</v>
+      </c>
+      <c r="F531">
+        <v>10</v>
+      </c>
+      <c r="G531">
+        <v>18</v>
+      </c>
+      <c r="H531">
+        <v>0</v>
+      </c>
+      <c r="I531">
+        <v>16</v>
+      </c>
+      <c r="J531">
+        <v>10</v>
+      </c>
       <c r="L531">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="532" spans="12:12" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="M531">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>119</v>
+      </c>
+      <c r="B532" t="s">
+        <v>14</v>
+      </c>
+      <c r="C532" t="s">
+        <v>40</v>
+      </c>
+      <c r="D532">
+        <v>3</v>
+      </c>
+      <c r="E532">
+        <v>3</v>
+      </c>
+      <c r="F532">
+        <v>3</v>
+      </c>
+      <c r="G532">
+        <v>14</v>
+      </c>
+      <c r="H532">
+        <v>0</v>
+      </c>
+      <c r="I532">
+        <v>17</v>
+      </c>
+      <c r="J532">
+        <v>0</v>
+      </c>
       <c r="L532">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="533" spans="12:12" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="M532">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>120</v>
+      </c>
+      <c r="B533" t="s">
+        <v>15</v>
+      </c>
+      <c r="C533" t="s">
+        <v>40</v>
+      </c>
+      <c r="D533">
+        <v>7</v>
+      </c>
+      <c r="E533">
+        <v>2</v>
+      </c>
+      <c r="F533">
+        <v>13</v>
+      </c>
+      <c r="G533">
+        <v>0</v>
+      </c>
+      <c r="H533">
+        <v>7</v>
+      </c>
+      <c r="I533">
+        <v>0</v>
+      </c>
+      <c r="J533">
+        <v>16</v>
+      </c>
       <c r="L533">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="534" spans="12:12" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="M533">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>120</v>
+      </c>
+      <c r="B534" t="s">
+        <v>13</v>
+      </c>
+      <c r="C534" t="s">
+        <v>40</v>
+      </c>
+      <c r="D534">
+        <v>1</v>
+      </c>
+      <c r="E534">
+        <v>1</v>
+      </c>
+      <c r="F534">
+        <v>3</v>
+      </c>
+      <c r="G534">
+        <v>12</v>
+      </c>
+      <c r="H534">
+        <v>4</v>
+      </c>
+      <c r="I534">
+        <v>26</v>
+      </c>
+      <c r="J534">
+        <v>0</v>
+      </c>
       <c r="L534">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="535" spans="12:12" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="M534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>120</v>
+      </c>
+      <c r="B535" t="s">
+        <v>14</v>
+      </c>
+      <c r="C535" t="s">
+        <v>40</v>
+      </c>
+      <c r="D535">
+        <v>6</v>
+      </c>
+      <c r="E535">
+        <v>5</v>
+      </c>
+      <c r="F535">
+        <v>3</v>
+      </c>
+      <c r="G535">
+        <v>13</v>
+      </c>
+      <c r="H535">
+        <v>0</v>
+      </c>
+      <c r="I535">
+        <v>10</v>
+      </c>
+      <c r="J535">
+        <v>0</v>
+      </c>
       <c r="L535">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="536" spans="12:12" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="M535">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="536" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>121</v>
+      </c>
+      <c r="B536" t="s">
+        <v>26</v>
+      </c>
+      <c r="C536" t="s">
+        <v>40</v>
+      </c>
+      <c r="D536">
+        <v>6</v>
+      </c>
+      <c r="E536">
+        <v>7</v>
+      </c>
+      <c r="F536">
+        <v>10</v>
+      </c>
+      <c r="G536">
+        <v>2</v>
+      </c>
+      <c r="H536">
+        <v>4</v>
+      </c>
+      <c r="I536">
+        <v>0</v>
+      </c>
+      <c r="J536">
+        <v>18</v>
+      </c>
       <c r="L536">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="537" spans="12:12" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="M536">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>121</v>
+      </c>
+      <c r="B537" t="s">
+        <v>15</v>
+      </c>
+      <c r="C537" t="s">
+        <v>40</v>
+      </c>
+      <c r="D537">
+        <v>10</v>
+      </c>
+      <c r="E537">
+        <v>4</v>
+      </c>
+      <c r="F537">
+        <v>15</v>
+      </c>
+      <c r="G537">
+        <v>0</v>
+      </c>
+      <c r="H537">
+        <v>11</v>
+      </c>
+      <c r="I537">
+        <v>0</v>
+      </c>
+      <c r="J537">
+        <v>9</v>
+      </c>
       <c r="L537">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538" spans="12:12" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="M537">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>121</v>
+      </c>
+      <c r="B538" t="s">
+        <v>27</v>
+      </c>
+      <c r="C538" t="s">
+        <v>40</v>
+      </c>
+      <c r="D538">
+        <v>13</v>
+      </c>
+      <c r="E538">
+        <v>4</v>
+      </c>
+      <c r="F538">
+        <v>10</v>
+      </c>
+      <c r="G538">
+        <v>2</v>
+      </c>
+      <c r="H538">
+        <v>0</v>
+      </c>
+      <c r="I538">
+        <v>0</v>
+      </c>
+      <c r="J538">
+        <v>12</v>
+      </c>
       <c r="L538">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="539" spans="12:12" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="M538">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="539" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>121</v>
+      </c>
+      <c r="B539" t="s">
+        <v>41</v>
+      </c>
+      <c r="C539" t="s">
+        <v>40</v>
+      </c>
+      <c r="D539">
+        <v>-6</v>
+      </c>
+      <c r="E539">
+        <v>2</v>
+      </c>
+      <c r="F539">
+        <v>0</v>
+      </c>
+      <c r="G539">
+        <v>8</v>
+      </c>
+      <c r="H539">
+        <v>0</v>
+      </c>
+      <c r="I539">
+        <v>38</v>
+      </c>
+      <c r="J539">
+        <v>4</v>
+      </c>
       <c r="L539">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="540" spans="12:12" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="M539">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>121</v>
+      </c>
+      <c r="B540" t="s">
+        <v>12</v>
+      </c>
+      <c r="C540" t="s">
+        <v>40</v>
+      </c>
+      <c r="D540">
+        <v>7</v>
+      </c>
+      <c r="E540">
+        <v>2</v>
+      </c>
+      <c r="F540">
+        <v>5</v>
+      </c>
+      <c r="G540">
+        <v>42</v>
+      </c>
+      <c r="H540">
+        <v>0</v>
+      </c>
+      <c r="I540">
+        <v>0</v>
+      </c>
+      <c r="J540">
+        <v>7</v>
+      </c>
       <c r="L540">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="541" spans="12:12" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="M540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>122</v>
+      </c>
+      <c r="B541" t="s">
+        <v>15</v>
+      </c>
+      <c r="C541" t="s">
+        <v>40</v>
+      </c>
+      <c r="D541">
+        <v>18</v>
+      </c>
+      <c r="E541">
+        <v>7</v>
+      </c>
+      <c r="F541">
+        <v>3</v>
+      </c>
+      <c r="G541">
+        <v>0</v>
+      </c>
+      <c r="H541">
+        <v>6</v>
+      </c>
+      <c r="I541">
+        <v>0</v>
+      </c>
+      <c r="J541">
+        <v>16</v>
+      </c>
       <c r="L541">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="542" spans="12:12" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="M541">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="542" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>122</v>
+      </c>
+      <c r="B542" t="s">
+        <v>12</v>
+      </c>
+      <c r="C542" t="s">
+        <v>40</v>
+      </c>
+      <c r="D542">
+        <v>6</v>
+      </c>
+      <c r="E542">
+        <v>1</v>
+      </c>
+      <c r="F542">
+        <v>3</v>
+      </c>
+      <c r="G542">
+        <v>18</v>
+      </c>
+      <c r="H542">
+        <v>4</v>
+      </c>
+      <c r="I542">
+        <v>0</v>
+      </c>
+      <c r="J542">
+        <v>14</v>
+      </c>
       <c r="L542">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="543" spans="12:12" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="M542">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="543" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>122</v>
+      </c>
+      <c r="B543" t="s">
+        <v>13</v>
+      </c>
+      <c r="C543" t="s">
+        <v>40</v>
+      </c>
+      <c r="D543">
+        <v>-6</v>
+      </c>
+      <c r="E543">
+        <v>5</v>
+      </c>
+      <c r="F543">
+        <v>10</v>
+      </c>
+      <c r="G543">
+        <v>23</v>
+      </c>
+      <c r="H543">
+        <v>9</v>
+      </c>
+      <c r="I543">
+        <v>10</v>
+      </c>
+      <c r="J543">
+        <v>0</v>
+      </c>
       <c r="L543">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="544" spans="12:12" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="M543">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>122</v>
+      </c>
+      <c r="B544" t="s">
+        <v>14</v>
+      </c>
+      <c r="C544" t="s">
+        <v>40</v>
+      </c>
+      <c r="D544">
+        <v>6</v>
+      </c>
+      <c r="E544">
+        <v>2</v>
+      </c>
+      <c r="F544">
+        <v>0</v>
+      </c>
+      <c r="G544">
+        <v>14</v>
+      </c>
+      <c r="H544">
+        <v>0</v>
+      </c>
+      <c r="I544">
+        <v>26</v>
+      </c>
+      <c r="J544">
+        <v>8</v>
+      </c>
       <c r="L544">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="545" spans="12:12" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="M544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>123</v>
+      </c>
+      <c r="B545" t="s">
+        <v>15</v>
+      </c>
+      <c r="C545" t="s">
+        <v>40</v>
+      </c>
+      <c r="D545">
+        <v>8</v>
+      </c>
+      <c r="E545">
+        <v>6</v>
+      </c>
+      <c r="F545">
+        <v>10</v>
+      </c>
+      <c r="G545">
+        <v>0</v>
+      </c>
+      <c r="H545">
+        <v>0</v>
+      </c>
+      <c r="I545">
+        <v>16</v>
+      </c>
+      <c r="J545">
+        <v>6</v>
+      </c>
       <c r="L545">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="546" spans="12:12" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="M545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>123</v>
+      </c>
+      <c r="B546" t="s">
+        <v>12</v>
+      </c>
+      <c r="C546" t="s">
+        <v>40</v>
+      </c>
+      <c r="D546">
+        <v>-6</v>
+      </c>
+      <c r="E546">
+        <v>2</v>
+      </c>
+      <c r="F546">
+        <v>15</v>
+      </c>
+      <c r="G546">
+        <v>25</v>
+      </c>
+      <c r="H546">
+        <v>2</v>
+      </c>
+      <c r="I546">
+        <v>0</v>
+      </c>
+      <c r="J546">
+        <v>5</v>
+      </c>
       <c r="L546">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="547" spans="12:12" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="M546">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="547" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>123</v>
+      </c>
+      <c r="B547" t="s">
+        <v>13</v>
+      </c>
+      <c r="C547" t="s">
+        <v>40</v>
+      </c>
+      <c r="D547">
+        <v>9</v>
+      </c>
+      <c r="E547">
+        <v>4</v>
+      </c>
+      <c r="F547">
+        <v>10</v>
+      </c>
+      <c r="G547">
+        <v>14</v>
+      </c>
+      <c r="H547">
+        <v>3</v>
+      </c>
+      <c r="I547">
+        <v>5</v>
+      </c>
+      <c r="J547">
+        <v>0</v>
+      </c>
       <c r="L547">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="548" spans="12:12" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="M547">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <v>123</v>
+      </c>
+      <c r="B548" t="s">
+        <v>14</v>
+      </c>
+      <c r="C548" t="s">
+        <v>40</v>
+      </c>
+      <c r="D548">
+        <v>7</v>
+      </c>
+      <c r="E548">
+        <v>4</v>
+      </c>
+      <c r="F548">
+        <v>0</v>
+      </c>
+      <c r="G548">
+        <v>17</v>
+      </c>
+      <c r="H548">
+        <v>4</v>
+      </c>
+      <c r="I548">
+        <v>4</v>
+      </c>
+      <c r="J548">
+        <v>5</v>
+      </c>
       <c r="L548">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="549" spans="12:12" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="M548">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="549" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>124</v>
+      </c>
+      <c r="B549" t="s">
+        <v>15</v>
+      </c>
+      <c r="C549" t="s">
+        <v>40</v>
+      </c>
+      <c r="D549">
+        <v>9</v>
+      </c>
+      <c r="E549">
+        <v>2</v>
+      </c>
+      <c r="F549">
+        <v>15</v>
+      </c>
+      <c r="G549">
+        <v>0</v>
+      </c>
+      <c r="H549">
+        <v>0</v>
+      </c>
+      <c r="I549">
+        <v>5</v>
+      </c>
+      <c r="J549">
+        <v>7</v>
+      </c>
       <c r="L549">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="550" spans="12:12" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="M549">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="550" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>124</v>
+      </c>
+      <c r="B550" t="s">
+        <v>12</v>
+      </c>
+      <c r="C550" t="s">
+        <v>40</v>
+      </c>
+      <c r="D550">
+        <v>-3</v>
+      </c>
+      <c r="E550">
+        <v>2</v>
+      </c>
+      <c r="F550">
+        <v>3</v>
+      </c>
+      <c r="G550">
+        <v>25</v>
+      </c>
+      <c r="H550">
+        <v>2</v>
+      </c>
+      <c r="I550">
+        <v>9</v>
+      </c>
+      <c r="J550">
+        <v>8</v>
+      </c>
       <c r="L550">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="551" spans="12:12" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="M550">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="551" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>124</v>
+      </c>
+      <c r="B551" t="s">
+        <v>13</v>
+      </c>
+      <c r="C551" t="s">
+        <v>40</v>
+      </c>
+      <c r="D551">
+        <v>16</v>
+      </c>
+      <c r="E551">
+        <v>7</v>
+      </c>
+      <c r="F551">
+        <v>10</v>
+      </c>
+      <c r="G551">
+        <v>11</v>
+      </c>
+      <c r="H551">
+        <v>11</v>
+      </c>
+      <c r="I551">
+        <v>0</v>
+      </c>
+      <c r="J551">
+        <v>0</v>
+      </c>
       <c r="L551">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="552" spans="12:12" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="M551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>124</v>
+      </c>
+      <c r="B552" t="s">
+        <v>14</v>
+      </c>
+      <c r="C552" t="s">
+        <v>40</v>
+      </c>
+      <c r="D552">
+        <v>1</v>
+      </c>
+      <c r="E552">
+        <v>4</v>
+      </c>
+      <c r="F552">
+        <v>10</v>
+      </c>
+      <c r="G552">
+        <v>19</v>
+      </c>
+      <c r="H552">
+        <v>4</v>
+      </c>
+      <c r="I552">
+        <v>0</v>
+      </c>
+      <c r="J552">
+        <v>0</v>
+      </c>
       <c r="L552">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="553" spans="12:12" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="M552">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="553" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>125</v>
+      </c>
+      <c r="B553" t="s">
+        <v>15</v>
+      </c>
+      <c r="C553" t="s">
+        <v>40</v>
+      </c>
+      <c r="D553">
+        <v>14</v>
+      </c>
+      <c r="E553">
+        <v>5</v>
+      </c>
+      <c r="F553">
+        <v>7</v>
+      </c>
+      <c r="G553">
+        <v>10</v>
+      </c>
+      <c r="H553">
+        <v>8</v>
+      </c>
+      <c r="I553">
+        <v>0</v>
+      </c>
+      <c r="J553">
+        <v>4</v>
+      </c>
       <c r="L553">
-        <f t="shared" ref="L553:L589" si="8">SUM(D553:K553)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="554" spans="12:12" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L553:L616" si="8">SUM(D553:K553)</f>
+        <v>48</v>
+      </c>
+      <c r="M553">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>125</v>
+      </c>
+      <c r="B554" t="s">
+        <v>12</v>
+      </c>
+      <c r="C554" t="s">
+        <v>40</v>
+      </c>
+      <c r="D554">
+        <v>-2</v>
+      </c>
+      <c r="E554">
+        <v>1</v>
+      </c>
+      <c r="F554">
+        <v>7</v>
+      </c>
+      <c r="G554">
+        <v>13</v>
+      </c>
+      <c r="H554">
+        <v>0</v>
+      </c>
+      <c r="I554">
+        <v>1</v>
+      </c>
+      <c r="J554">
+        <v>6</v>
+      </c>
       <c r="L554">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="555" spans="12:12" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="M554">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="555" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A555">
+        <v>125</v>
+      </c>
+      <c r="B555" t="s">
+        <v>13</v>
+      </c>
+      <c r="C555" t="s">
+        <v>40</v>
+      </c>
+      <c r="D555">
+        <v>13</v>
+      </c>
+      <c r="E555">
+        <v>5</v>
+      </c>
+      <c r="F555">
+        <v>10</v>
+      </c>
+      <c r="G555">
+        <v>17</v>
+      </c>
+      <c r="H555">
+        <v>0</v>
+      </c>
+      <c r="I555">
+        <v>0</v>
+      </c>
+      <c r="J555">
+        <v>13</v>
+      </c>
       <c r="L555">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="556" spans="12:12" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="M555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A556">
+        <v>125</v>
+      </c>
+      <c r="B556" t="s">
+        <v>14</v>
+      </c>
+      <c r="C556" t="s">
+        <v>40</v>
+      </c>
+      <c r="D556">
+        <v>-3</v>
+      </c>
+      <c r="E556">
+        <v>1</v>
+      </c>
+      <c r="F556">
+        <v>3</v>
+      </c>
+      <c r="G556">
+        <v>7</v>
+      </c>
+      <c r="H556">
+        <v>0</v>
+      </c>
+      <c r="I556">
+        <v>38</v>
+      </c>
+      <c r="J556">
+        <v>0</v>
+      </c>
       <c r="L556">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="557" spans="12:12" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="M556">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="557" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A557">
+        <v>126</v>
+      </c>
+      <c r="B557" t="s">
+        <v>15</v>
+      </c>
+      <c r="C557" t="s">
+        <v>40</v>
+      </c>
+      <c r="D557">
+        <v>11</v>
+      </c>
+      <c r="E557">
+        <v>10</v>
+      </c>
+      <c r="F557">
+        <v>7</v>
+      </c>
+      <c r="G557">
+        <v>6</v>
+      </c>
+      <c r="H557">
+        <v>5</v>
+      </c>
+      <c r="I557">
+        <v>10</v>
+      </c>
+      <c r="J557">
+        <v>0</v>
+      </c>
       <c r="L557">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="558" spans="12:12" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="M557">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="558" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A558">
+        <v>126</v>
+      </c>
+      <c r="B558" t="s">
+        <v>12</v>
+      </c>
+      <c r="C558" t="s">
+        <v>40</v>
+      </c>
+      <c r="D558">
+        <v>-6</v>
+      </c>
+      <c r="E558">
+        <v>6</v>
+      </c>
+      <c r="F558">
+        <v>3</v>
+      </c>
+      <c r="G558">
+        <v>14</v>
+      </c>
+      <c r="H558">
+        <v>6</v>
+      </c>
+      <c r="I558">
+        <v>29</v>
+      </c>
+      <c r="J558">
+        <v>7</v>
+      </c>
       <c r="L558">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="559" spans="12:12" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="M558">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A559">
+        <v>126</v>
+      </c>
+      <c r="B559" t="s">
+        <v>13</v>
+      </c>
+      <c r="C559" t="s">
+        <v>40</v>
+      </c>
+      <c r="D559">
+        <v>11</v>
+      </c>
+      <c r="E559">
+        <v>3</v>
+      </c>
+      <c r="F559">
+        <v>10</v>
+      </c>
+      <c r="G559">
+        <v>10</v>
+      </c>
+      <c r="H559">
+        <v>5</v>
+      </c>
+      <c r="I559">
+        <v>1</v>
+      </c>
+      <c r="J559">
+        <v>21</v>
+      </c>
       <c r="L559">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="560" spans="12:12" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="M559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A560">
+        <v>126</v>
+      </c>
+      <c r="B560" t="s">
+        <v>14</v>
+      </c>
+      <c r="C560" t="s">
+        <v>40</v>
+      </c>
+      <c r="D560">
+        <v>3</v>
+      </c>
+      <c r="E560">
+        <v>3</v>
+      </c>
+      <c r="F560">
+        <v>3</v>
+      </c>
+      <c r="G560">
+        <v>5</v>
+      </c>
+      <c r="H560">
+        <v>0</v>
+      </c>
+      <c r="I560">
+        <v>21</v>
+      </c>
+      <c r="J560">
+        <v>0</v>
+      </c>
       <c r="L560">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="561" spans="12:12" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="M560">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="561" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A561">
+        <v>126</v>
+      </c>
+      <c r="B561" t="s">
+        <v>26</v>
+      </c>
+      <c r="C561" t="s">
+        <v>40</v>
+      </c>
+      <c r="D561">
+        <v>9</v>
+      </c>
+      <c r="E561">
+        <v>4</v>
+      </c>
+      <c r="F561">
+        <v>3</v>
+      </c>
+      <c r="G561">
+        <v>13</v>
+      </c>
+      <c r="H561">
+        <v>4</v>
+      </c>
+      <c r="I561">
+        <v>0</v>
+      </c>
+      <c r="J561">
+        <v>10</v>
+      </c>
       <c r="L561">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="562" spans="12:12" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="M561">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="562" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A562">
+        <v>127</v>
+      </c>
+      <c r="B562" t="s">
+        <v>13</v>
+      </c>
+      <c r="C562" t="s">
+        <v>40</v>
+      </c>
+      <c r="D562">
+        <v>18</v>
+      </c>
+      <c r="E562">
+        <v>3</v>
+      </c>
+      <c r="F562">
+        <v>10</v>
+      </c>
+      <c r="G562">
+        <v>21</v>
+      </c>
+      <c r="H562">
+        <v>3</v>
+      </c>
+      <c r="I562">
+        <v>0</v>
+      </c>
+      <c r="J562">
+        <v>4</v>
+      </c>
       <c r="L562">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="563" spans="12:12" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="M562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A563">
+        <v>127</v>
+      </c>
+      <c r="B563" t="s">
+        <v>14</v>
+      </c>
+      <c r="C563" t="s">
+        <v>40</v>
+      </c>
+      <c r="D563">
+        <v>0</v>
+      </c>
+      <c r="E563">
+        <v>4</v>
+      </c>
+      <c r="F563">
+        <v>0</v>
+      </c>
+      <c r="G563">
+        <v>24</v>
+      </c>
+      <c r="H563">
+        <v>0</v>
+      </c>
+      <c r="I563">
+        <v>10</v>
+      </c>
+      <c r="J563">
+        <v>0</v>
+      </c>
       <c r="L563">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="564" spans="12:12" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="M563">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="564" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A564">
+        <v>127</v>
+      </c>
+      <c r="B564" t="s">
+        <v>22</v>
+      </c>
+      <c r="C564" t="s">
+        <v>40</v>
+      </c>
+      <c r="D564">
+        <v>3</v>
+      </c>
+      <c r="E564">
+        <v>4</v>
+      </c>
+      <c r="F564">
+        <v>8</v>
+      </c>
+      <c r="G564">
+        <v>15</v>
+      </c>
+      <c r="H564">
+        <v>6</v>
+      </c>
+      <c r="I564">
+        <v>0</v>
+      </c>
+      <c r="J564">
+        <v>6</v>
+      </c>
       <c r="L564">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="565" spans="12:12" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="M564">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="565" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A565">
+        <v>127</v>
+      </c>
+      <c r="B565" t="s">
+        <v>11</v>
+      </c>
+      <c r="C565" t="s">
+        <v>40</v>
+      </c>
+      <c r="D565">
+        <v>9</v>
+      </c>
+      <c r="E565">
+        <v>3</v>
+      </c>
+      <c r="F565">
+        <v>10</v>
+      </c>
+      <c r="G565">
+        <v>0</v>
+      </c>
+      <c r="H565">
+        <v>3</v>
+      </c>
+      <c r="I565">
+        <v>26</v>
+      </c>
+      <c r="J565">
+        <v>5</v>
+      </c>
       <c r="L565">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="566" spans="12:12" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="M565">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A566">
+        <v>127</v>
+      </c>
+      <c r="B566" t="s">
+        <v>41</v>
+      </c>
+      <c r="C566" t="s">
+        <v>40</v>
+      </c>
+      <c r="D566">
+        <v>-2</v>
+      </c>
+      <c r="E566">
+        <v>2</v>
+      </c>
+      <c r="F566">
+        <v>3</v>
+      </c>
+      <c r="G566">
+        <v>15</v>
+      </c>
+      <c r="H566">
+        <v>5</v>
+      </c>
+      <c r="I566">
+        <v>20</v>
+      </c>
+      <c r="J566">
+        <v>0</v>
+      </c>
       <c r="L566">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="567" spans="12:12" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="M566">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="567" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A567">
+        <v>127</v>
+      </c>
+      <c r="B567" t="s">
+        <v>26</v>
+      </c>
+      <c r="C567" t="s">
+        <v>40</v>
+      </c>
+      <c r="D567">
+        <v>4</v>
+      </c>
+      <c r="E567">
+        <v>6</v>
+      </c>
+      <c r="F567">
+        <v>10</v>
+      </c>
+      <c r="G567">
+        <v>4</v>
+      </c>
+      <c r="H567">
+        <v>5</v>
+      </c>
+      <c r="I567">
+        <v>1</v>
+      </c>
+      <c r="J567">
+        <v>0</v>
+      </c>
       <c r="L567">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="568" spans="12:12" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="M567">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="568" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A568">
+        <v>128</v>
+      </c>
+      <c r="B568" t="s">
+        <v>42</v>
+      </c>
+      <c r="C568" t="s">
+        <v>40</v>
+      </c>
+      <c r="D568">
+        <v>1</v>
+      </c>
+      <c r="E568">
+        <v>0</v>
+      </c>
+      <c r="F568">
+        <v>10</v>
+      </c>
+      <c r="G568">
+        <v>22</v>
+      </c>
+      <c r="H568">
+        <v>0</v>
+      </c>
+      <c r="I568">
+        <v>9</v>
+      </c>
+      <c r="J568">
+        <v>7</v>
+      </c>
       <c r="L568">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="569" spans="12:12" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="M568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A569">
+        <v>128</v>
+      </c>
+      <c r="B569" t="s">
+        <v>12</v>
+      </c>
+      <c r="C569" t="s">
+        <v>40</v>
+      </c>
+      <c r="D569">
+        <v>6</v>
+      </c>
+      <c r="E569">
+        <v>12</v>
+      </c>
+      <c r="F569">
+        <v>3</v>
+      </c>
+      <c r="G569">
+        <v>14</v>
+      </c>
+      <c r="H569">
+        <v>5</v>
+      </c>
+      <c r="I569">
+        <v>0</v>
+      </c>
+      <c r="J569">
+        <v>4</v>
+      </c>
       <c r="L569">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="570" spans="12:12" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="M569">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="570" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A570">
+        <v>128</v>
+      </c>
+      <c r="B570" t="s">
+        <v>13</v>
+      </c>
+      <c r="C570" t="s">
+        <v>40</v>
+      </c>
+      <c r="D570">
+        <v>3</v>
+      </c>
+      <c r="E570">
+        <v>2</v>
+      </c>
+      <c r="F570">
+        <v>7</v>
+      </c>
+      <c r="G570">
+        <v>23</v>
+      </c>
+      <c r="H570">
+        <v>0</v>
+      </c>
+      <c r="I570">
+        <v>0</v>
+      </c>
+      <c r="J570">
+        <v>6</v>
+      </c>
       <c r="L570">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="571" spans="12:12" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="M570">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="571" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A571">
+        <v>128</v>
+      </c>
+      <c r="B571" t="s">
+        <v>14</v>
+      </c>
+      <c r="C571" t="s">
+        <v>40</v>
+      </c>
+      <c r="D571">
+        <v>14</v>
+      </c>
+      <c r="E571">
+        <v>3</v>
+      </c>
+      <c r="F571">
+        <v>15</v>
+      </c>
+      <c r="G571">
+        <v>4</v>
+      </c>
+      <c r="H571">
+        <v>0</v>
+      </c>
+      <c r="I571">
+        <v>10</v>
+      </c>
+      <c r="J571">
+        <v>0</v>
+      </c>
       <c r="L571">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="572" spans="12:12" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="M571">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A572">
+        <v>129</v>
+      </c>
+      <c r="B572" t="s">
+        <v>42</v>
+      </c>
+      <c r="C572" t="s">
+        <v>40</v>
+      </c>
+      <c r="D572">
+        <v>7</v>
+      </c>
+      <c r="E572">
+        <v>1</v>
+      </c>
+      <c r="F572">
+        <v>5</v>
+      </c>
+      <c r="G572">
+        <v>23</v>
+      </c>
+      <c r="H572">
+        <v>0</v>
+      </c>
+      <c r="I572">
+        <v>14</v>
+      </c>
+      <c r="J572">
+        <v>1</v>
+      </c>
       <c r="L572">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="573" spans="12:12" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="M572">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A573">
+        <v>129</v>
+      </c>
+      <c r="B573" t="s">
+        <v>12</v>
+      </c>
+      <c r="C573" t="s">
+        <v>40</v>
+      </c>
+      <c r="D573">
+        <v>-4</v>
+      </c>
+      <c r="E573">
+        <v>2</v>
+      </c>
+      <c r="F573">
+        <v>3</v>
+      </c>
+      <c r="G573">
+        <v>7</v>
+      </c>
+      <c r="H573">
+        <v>3</v>
+      </c>
+      <c r="I573">
+        <v>5</v>
+      </c>
+      <c r="J573">
+        <v>21</v>
+      </c>
       <c r="L573">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="574" spans="12:12" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="M573">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="574" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A574">
+        <v>129</v>
+      </c>
+      <c r="B574" t="s">
+        <v>13</v>
+      </c>
+      <c r="C574" t="s">
+        <v>40</v>
+      </c>
+      <c r="D574">
+        <v>13</v>
+      </c>
+      <c r="E574">
+        <v>3</v>
+      </c>
+      <c r="F574">
+        <v>10</v>
+      </c>
+      <c r="G574">
+        <v>6</v>
+      </c>
+      <c r="H574">
+        <v>3</v>
+      </c>
+      <c r="I574">
+        <v>0</v>
+      </c>
+      <c r="J574">
+        <v>13</v>
+      </c>
       <c r="L574">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="575" spans="12:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="M574">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="575" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A575">
+        <v>129</v>
+      </c>
+      <c r="B575" t="s">
+        <v>14</v>
+      </c>
+      <c r="C575" t="s">
+        <v>40</v>
+      </c>
+      <c r="D575">
+        <v>8</v>
+      </c>
+      <c r="E575">
+        <v>7</v>
+      </c>
+      <c r="F575">
+        <v>3</v>
+      </c>
+      <c r="G575">
+        <v>7</v>
+      </c>
+      <c r="H575">
+        <v>4</v>
+      </c>
+      <c r="I575">
+        <v>25</v>
+      </c>
+      <c r="J575">
+        <v>1</v>
+      </c>
       <c r="L575">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="576" spans="12:12" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="M575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A576">
+        <v>130</v>
+      </c>
+      <c r="B576" t="s">
+        <v>12</v>
+      </c>
+      <c r="C576" t="s">
+        <v>40</v>
+      </c>
+      <c r="D576">
+        <v>-4</v>
+      </c>
+      <c r="E576">
+        <v>0</v>
+      </c>
+      <c r="F576">
+        <v>10</v>
+      </c>
+      <c r="G576">
+        <v>21</v>
+      </c>
+      <c r="H576">
+        <v>0</v>
+      </c>
+      <c r="I576">
+        <v>25</v>
+      </c>
+      <c r="J576">
+        <v>4</v>
+      </c>
       <c r="L576">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="577" spans="12:12" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="M576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A577">
+        <v>130</v>
+      </c>
+      <c r="B577" t="s">
+        <v>13</v>
+      </c>
+      <c r="C577" t="s">
+        <v>40</v>
+      </c>
+      <c r="D577">
+        <v>16</v>
+      </c>
+      <c r="E577">
+        <v>6</v>
+      </c>
+      <c r="F577">
+        <v>7</v>
+      </c>
+      <c r="G577">
+        <v>18</v>
+      </c>
+      <c r="H577">
+        <v>4</v>
+      </c>
+      <c r="I577">
+        <v>0</v>
+      </c>
+      <c r="J577">
+        <v>0</v>
+      </c>
       <c r="L577">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="578" spans="12:12" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="M577">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="578" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A578">
+        <v>130</v>
+      </c>
+      <c r="B578" t="s">
+        <v>14</v>
+      </c>
+      <c r="C578" t="s">
+        <v>40</v>
+      </c>
+      <c r="D578">
+        <v>6</v>
+      </c>
+      <c r="E578">
+        <v>3</v>
+      </c>
+      <c r="F578">
+        <v>8</v>
+      </c>
+      <c r="G578">
+        <v>10</v>
+      </c>
+      <c r="H578">
+        <v>0</v>
+      </c>
+      <c r="I578">
+        <v>25</v>
+      </c>
+      <c r="J578">
+        <v>0</v>
+      </c>
       <c r="L578">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="579" spans="12:12" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="M578">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="579" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A579">
+        <v>131</v>
+      </c>
+      <c r="B579" t="s">
+        <v>12</v>
+      </c>
+      <c r="C579" t="s">
+        <v>40</v>
+      </c>
+      <c r="D579">
+        <v>8</v>
+      </c>
+      <c r="E579">
+        <v>0</v>
+      </c>
+      <c r="F579">
+        <v>10</v>
+      </c>
+      <c r="G579">
+        <v>21</v>
+      </c>
+      <c r="H579">
+        <v>3</v>
+      </c>
+      <c r="I579">
+        <v>9</v>
+      </c>
+      <c r="J579">
+        <v>0</v>
+      </c>
       <c r="L579">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="580" spans="12:12" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="M579">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="580" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A580">
+        <v>131</v>
+      </c>
+      <c r="B580" t="s">
+        <v>13</v>
+      </c>
+      <c r="C580" t="s">
+        <v>40</v>
+      </c>
+      <c r="D580">
+        <v>8</v>
+      </c>
+      <c r="E580">
+        <v>2</v>
+      </c>
+      <c r="F580">
+        <v>10</v>
+      </c>
+      <c r="G580">
+        <v>0</v>
+      </c>
+      <c r="H580">
+        <v>0</v>
+      </c>
+      <c r="I580">
+        <v>38</v>
+      </c>
+      <c r="J580">
+        <v>0</v>
+      </c>
       <c r="L580">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="581" spans="12:12" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="M580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A581">
+        <v>131</v>
+      </c>
+      <c r="B581" t="s">
+        <v>14</v>
+      </c>
+      <c r="C581" t="s">
+        <v>40</v>
+      </c>
+      <c r="D581">
+        <v>-4</v>
+      </c>
+      <c r="E581">
+        <v>4</v>
+      </c>
+      <c r="F581">
+        <v>3</v>
+      </c>
+      <c r="G581">
+        <v>24</v>
+      </c>
+      <c r="H581">
+        <v>0</v>
+      </c>
+      <c r="I581">
+        <v>0</v>
+      </c>
+      <c r="J581">
+        <v>6</v>
+      </c>
       <c r="L581">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="582" spans="12:12" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="M581">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="582" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A582">
+        <v>132</v>
+      </c>
+      <c r="B582" t="s">
+        <v>15</v>
+      </c>
+      <c r="C582" t="s">
+        <v>40</v>
+      </c>
+      <c r="D582">
+        <v>8</v>
+      </c>
+      <c r="E582">
+        <v>4</v>
+      </c>
+      <c r="F582">
+        <v>3</v>
+      </c>
+      <c r="G582">
+        <v>3</v>
+      </c>
+      <c r="H582">
+        <v>3</v>
+      </c>
+      <c r="I582">
+        <v>10</v>
+      </c>
+      <c r="J582">
+        <v>15</v>
+      </c>
       <c r="L582">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="583" spans="12:12" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="M582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A583">
+        <v>132</v>
+      </c>
+      <c r="B583" t="s">
+        <v>13</v>
+      </c>
+      <c r="C583" t="s">
+        <v>40</v>
+      </c>
+      <c r="D583">
+        <v>8</v>
+      </c>
+      <c r="E583">
+        <v>2</v>
+      </c>
+      <c r="F583">
+        <v>10</v>
+      </c>
+      <c r="G583">
+        <v>7</v>
+      </c>
+      <c r="H583">
+        <v>3</v>
+      </c>
+      <c r="I583">
+        <v>16</v>
+      </c>
+      <c r="J583">
+        <v>0</v>
+      </c>
       <c r="L583">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="584" spans="12:12" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="M583">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="584" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A584">
+        <v>132</v>
+      </c>
+      <c r="B584" t="s">
+        <v>14</v>
+      </c>
+      <c r="C584" t="s">
+        <v>40</v>
+      </c>
+      <c r="D584">
+        <v>-4</v>
+      </c>
+      <c r="E584">
+        <v>1</v>
+      </c>
+      <c r="F584">
+        <v>3</v>
+      </c>
+      <c r="G584">
+        <v>17</v>
+      </c>
+      <c r="H584">
+        <v>0</v>
+      </c>
+      <c r="I584">
+        <v>18</v>
+      </c>
+      <c r="J584">
+        <v>0</v>
+      </c>
       <c r="L584">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="585" spans="12:12" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="M584">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="585" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A585">
+        <v>133</v>
+      </c>
+      <c r="B585" t="s">
+        <v>15</v>
+      </c>
+      <c r="C585" t="s">
+        <v>40</v>
+      </c>
+      <c r="D585">
+        <v>11</v>
+      </c>
+      <c r="E585">
+        <v>5</v>
+      </c>
+      <c r="F585">
+        <v>7</v>
+      </c>
+      <c r="G585">
+        <v>0</v>
+      </c>
+      <c r="H585">
+        <v>3</v>
+      </c>
+      <c r="I585">
+        <v>0</v>
+      </c>
+      <c r="J585">
+        <v>19</v>
+      </c>
       <c r="L585">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="586" spans="12:12" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="M585">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="586" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A586">
+        <v>133</v>
+      </c>
+      <c r="B586" t="s">
+        <v>12</v>
+      </c>
+      <c r="C586" t="s">
+        <v>40</v>
+      </c>
+      <c r="D586">
+        <v>18</v>
+      </c>
+      <c r="E586">
+        <v>5</v>
+      </c>
+      <c r="F586">
+        <v>3</v>
+      </c>
+      <c r="G586">
+        <v>25</v>
+      </c>
+      <c r="H586">
+        <v>4</v>
+      </c>
+      <c r="I586">
+        <v>0</v>
+      </c>
+      <c r="J586">
+        <v>0</v>
+      </c>
       <c r="L586">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="587" spans="12:12" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="M586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A587">
+        <v>133</v>
+      </c>
+      <c r="B587" t="s">
+        <v>13</v>
+      </c>
+      <c r="C587" t="s">
+        <v>40</v>
+      </c>
+      <c r="D587">
+        <v>-4</v>
+      </c>
+      <c r="E587">
+        <v>3</v>
+      </c>
+      <c r="F587">
+        <v>3</v>
+      </c>
+      <c r="G587">
+        <v>0</v>
+      </c>
+      <c r="H587">
+        <v>8</v>
+      </c>
+      <c r="I587">
+        <v>37</v>
+      </c>
+      <c r="J587">
+        <v>0</v>
+      </c>
       <c r="L587">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="588" spans="12:12" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="M587">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A588">
+        <v>133</v>
+      </c>
+      <c r="B588" t="s">
+        <v>14</v>
+      </c>
+      <c r="C588" t="s">
+        <v>40</v>
+      </c>
+      <c r="D588">
+        <v>10</v>
+      </c>
+      <c r="E588">
+        <v>0</v>
+      </c>
+      <c r="F588">
+        <v>10</v>
+      </c>
+      <c r="G588">
+        <v>27</v>
+      </c>
+      <c r="H588">
+        <v>0</v>
+      </c>
+      <c r="I588">
+        <v>0</v>
+      </c>
+      <c r="J588">
+        <v>0</v>
+      </c>
       <c r="L588">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="589" spans="12:12" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="M588">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="589" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A589">
+        <v>133</v>
+      </c>
+      <c r="B589" t="s">
+        <v>42</v>
+      </c>
+      <c r="C589" t="s">
+        <v>40</v>
+      </c>
+      <c r="D589">
+        <v>-5</v>
+      </c>
+      <c r="E589">
+        <v>4</v>
+      </c>
+      <c r="F589">
+        <v>3</v>
+      </c>
+      <c r="G589">
+        <v>4</v>
+      </c>
+      <c r="H589">
+        <v>0</v>
+      </c>
+      <c r="I589">
+        <v>26</v>
+      </c>
+      <c r="J589">
+        <v>0</v>
+      </c>
       <c r="L589">
         <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="M589">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="590" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A590">
+        <v>134</v>
+      </c>
+      <c r="B590" t="s">
+        <v>15</v>
+      </c>
+      <c r="C590" t="s">
+        <v>40</v>
+      </c>
+      <c r="D590">
+        <v>-6</v>
+      </c>
+      <c r="E590">
+        <v>3</v>
+      </c>
+      <c r="F590">
+        <v>10</v>
+      </c>
+      <c r="G590">
+        <v>0</v>
+      </c>
+      <c r="H590">
+        <v>0</v>
+      </c>
+      <c r="I590">
+        <v>33</v>
+      </c>
+      <c r="J590">
+        <v>0</v>
+      </c>
+      <c r="L590">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="M590">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="591" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A591">
+        <v>134</v>
+      </c>
+      <c r="B591" t="s">
+        <v>24</v>
+      </c>
+      <c r="C591" t="s">
+        <v>40</v>
+      </c>
+      <c r="D591">
+        <v>17</v>
+      </c>
+      <c r="E591">
+        <v>0</v>
+      </c>
+      <c r="F591">
+        <v>0</v>
+      </c>
+      <c r="G591">
+        <v>18</v>
+      </c>
+      <c r="H591">
+        <v>0</v>
+      </c>
+      <c r="I591">
+        <v>1</v>
+      </c>
+      <c r="J591">
+        <v>5</v>
+      </c>
+      <c r="L591">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="M591">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A592">
+        <v>134</v>
+      </c>
+      <c r="B592" t="s">
+        <v>13</v>
+      </c>
+      <c r="C592" t="s">
+        <v>40</v>
+      </c>
+      <c r="D592">
+        <v>18</v>
+      </c>
+      <c r="E592">
+        <v>4</v>
+      </c>
+      <c r="F592">
+        <v>7</v>
+      </c>
+      <c r="G592">
+        <v>15</v>
+      </c>
+      <c r="H592">
+        <v>8</v>
+      </c>
+      <c r="I592">
+        <v>1</v>
+      </c>
+      <c r="J592">
+        <v>0</v>
+      </c>
+      <c r="L592">
+        <f t="shared" si="8"/>
+        <v>53</v>
+      </c>
+      <c r="M592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <v>134</v>
+      </c>
+      <c r="B593" t="s">
+        <v>14</v>
+      </c>
+      <c r="C593" t="s">
+        <v>40</v>
+      </c>
+      <c r="D593">
+        <v>-5</v>
+      </c>
+      <c r="E593">
+        <v>7</v>
+      </c>
+      <c r="F593">
+        <v>10</v>
+      </c>
+      <c r="G593">
+        <v>21</v>
+      </c>
+      <c r="H593">
+        <v>4</v>
+      </c>
+      <c r="I593">
+        <v>0</v>
+      </c>
+      <c r="J593">
+        <v>0</v>
+      </c>
+      <c r="L593">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="M593">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="594" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A594">
+        <v>135</v>
+      </c>
+      <c r="B594" t="s">
+        <v>15</v>
+      </c>
+      <c r="C594" t="s">
+        <v>40</v>
+      </c>
+      <c r="D594">
+        <v>18</v>
+      </c>
+      <c r="E594">
+        <v>7</v>
+      </c>
+      <c r="F594">
+        <v>20</v>
+      </c>
+      <c r="G594">
+        <v>0</v>
+      </c>
+      <c r="H594">
+        <v>4</v>
+      </c>
+      <c r="I594">
+        <v>0</v>
+      </c>
+      <c r="J594">
+        <v>12</v>
+      </c>
+      <c r="L594">
+        <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
+      <c r="M594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A595">
+        <v>135</v>
+      </c>
+      <c r="B595" t="s">
+        <v>13</v>
+      </c>
+      <c r="C595" t="s">
+        <v>40</v>
+      </c>
+      <c r="D595">
+        <v>0</v>
+      </c>
+      <c r="E595">
+        <v>4</v>
+      </c>
+      <c r="F595">
+        <v>10</v>
+      </c>
+      <c r="G595">
+        <v>14</v>
+      </c>
+      <c r="H595">
+        <v>0</v>
+      </c>
+      <c r="I595">
+        <v>25</v>
+      </c>
+      <c r="J595">
+        <v>0</v>
+      </c>
+      <c r="L595">
+        <f t="shared" si="8"/>
+        <v>53</v>
+      </c>
+      <c r="M595">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <v>135</v>
+      </c>
+      <c r="B596" t="s">
+        <v>14</v>
+      </c>
+      <c r="C596" t="s">
+        <v>40</v>
+      </c>
+      <c r="D596">
+        <v>8</v>
+      </c>
+      <c r="E596">
+        <v>1</v>
+      </c>
+      <c r="F596">
+        <v>3</v>
+      </c>
+      <c r="G596">
+        <v>25</v>
+      </c>
+      <c r="H596">
+        <v>0</v>
+      </c>
+      <c r="I596">
+        <v>9</v>
+      </c>
+      <c r="J596">
+        <v>0</v>
+      </c>
+      <c r="L596">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="M596">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="597" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <v>135</v>
+      </c>
+      <c r="B597" t="s">
+        <v>11</v>
+      </c>
+      <c r="C597" t="s">
+        <v>40</v>
+      </c>
+      <c r="D597">
+        <v>-4</v>
+      </c>
+      <c r="E597">
+        <v>2</v>
+      </c>
+      <c r="F597">
+        <v>10</v>
+      </c>
+      <c r="G597">
+        <v>5</v>
+      </c>
+      <c r="H597">
+        <v>8</v>
+      </c>
+      <c r="I597">
+        <v>16</v>
+      </c>
+      <c r="J597">
+        <v>5</v>
+      </c>
+      <c r="L597">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="M597">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="598" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <v>135</v>
+      </c>
+      <c r="B598" t="s">
+        <v>22</v>
+      </c>
+      <c r="C598" t="s">
+        <v>40</v>
+      </c>
+      <c r="D598">
+        <v>6</v>
+      </c>
+      <c r="E598">
+        <v>3</v>
+      </c>
+      <c r="F598">
+        <v>0</v>
+      </c>
+      <c r="G598">
+        <v>6</v>
+      </c>
+      <c r="H598">
+        <v>4</v>
+      </c>
+      <c r="I598">
+        <v>5</v>
+      </c>
+      <c r="J598">
+        <v>0</v>
+      </c>
+      <c r="L598">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="M598">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="599" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <v>136</v>
+      </c>
+      <c r="B599" t="s">
+        <v>15</v>
+      </c>
+      <c r="C599" t="s">
+        <v>40</v>
+      </c>
+      <c r="D599">
+        <v>14</v>
+      </c>
+      <c r="E599">
+        <v>2</v>
+      </c>
+      <c r="F599">
+        <v>15</v>
+      </c>
+      <c r="G599">
+        <v>3</v>
+      </c>
+      <c r="H599">
+        <v>0</v>
+      </c>
+      <c r="I599">
+        <v>0</v>
+      </c>
+      <c r="J599">
+        <v>27</v>
+      </c>
+      <c r="L599">
+        <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
+      <c r="M599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>136</v>
+      </c>
+      <c r="B600" t="s">
+        <v>12</v>
+      </c>
+      <c r="C600" t="s">
+        <v>40</v>
+      </c>
+      <c r="D600">
+        <v>-6</v>
+      </c>
+      <c r="E600">
+        <v>2</v>
+      </c>
+      <c r="F600">
+        <v>3</v>
+      </c>
+      <c r="G600">
+        <v>19</v>
+      </c>
+      <c r="H600">
+        <v>3</v>
+      </c>
+      <c r="I600">
+        <v>5</v>
+      </c>
+      <c r="J600">
+        <v>6</v>
+      </c>
+      <c r="L600">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="M600">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="601" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>136</v>
+      </c>
+      <c r="B601" t="s">
+        <v>13</v>
+      </c>
+      <c r="C601" t="s">
+        <v>40</v>
+      </c>
+      <c r="D601">
+        <v>-2</v>
+      </c>
+      <c r="E601">
+        <v>7</v>
+      </c>
+      <c r="F601">
+        <v>10</v>
+      </c>
+      <c r="G601">
+        <v>15</v>
+      </c>
+      <c r="H601">
+        <v>3</v>
+      </c>
+      <c r="I601">
+        <v>9</v>
+      </c>
+      <c r="J601">
+        <v>9</v>
+      </c>
+      <c r="L601">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="M601">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="602" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A602">
+        <v>136</v>
+      </c>
+      <c r="B602" t="s">
+        <v>14</v>
+      </c>
+      <c r="C602" t="s">
+        <v>40</v>
+      </c>
+      <c r="D602">
+        <v>18</v>
+      </c>
+      <c r="E602">
+        <v>4</v>
+      </c>
+      <c r="F602">
+        <v>10</v>
+      </c>
+      <c r="G602">
+        <v>0</v>
+      </c>
+      <c r="H602">
+        <v>0</v>
+      </c>
+      <c r="I602">
+        <v>21</v>
+      </c>
+      <c r="J602">
+        <v>6</v>
+      </c>
+      <c r="L602">
+        <f t="shared" si="8"/>
+        <v>59</v>
+      </c>
+      <c r="M602">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A603">
+        <v>137</v>
+      </c>
+      <c r="B603" t="s">
+        <v>15</v>
+      </c>
+      <c r="C603" t="s">
+        <v>40</v>
+      </c>
+      <c r="D603">
+        <v>13</v>
+      </c>
+      <c r="E603">
+        <v>5</v>
+      </c>
+      <c r="F603">
+        <v>10</v>
+      </c>
+      <c r="G603">
+        <v>0</v>
+      </c>
+      <c r="H603">
+        <v>3</v>
+      </c>
+      <c r="I603">
+        <v>25</v>
+      </c>
+      <c r="J603">
+        <v>8</v>
+      </c>
+      <c r="L603">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="M603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A604">
+        <v>137</v>
+      </c>
+      <c r="B604" t="s">
+        <v>13</v>
+      </c>
+      <c r="C604" t="s">
+        <v>40</v>
+      </c>
+      <c r="D604">
+        <v>3</v>
+      </c>
+      <c r="E604">
+        <v>0</v>
+      </c>
+      <c r="F604">
+        <v>5</v>
+      </c>
+      <c r="G604">
+        <v>10</v>
+      </c>
+      <c r="H604">
+        <v>0</v>
+      </c>
+      <c r="I604">
+        <v>43</v>
+      </c>
+      <c r="J604">
+        <v>0</v>
+      </c>
+      <c r="L604">
+        <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
+      <c r="M604">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="605" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A605">
+        <v>137</v>
+      </c>
+      <c r="B605" t="s">
+        <v>14</v>
+      </c>
+      <c r="C605" t="s">
+        <v>40</v>
+      </c>
+      <c r="D605">
+        <v>-2</v>
+      </c>
+      <c r="E605">
+        <v>2</v>
+      </c>
+      <c r="F605">
+        <v>8</v>
+      </c>
+      <c r="G605">
+        <v>35</v>
+      </c>
+      <c r="H605">
+        <v>0</v>
+      </c>
+      <c r="I605">
+        <v>1</v>
+      </c>
+      <c r="J605">
+        <v>0</v>
+      </c>
+      <c r="L605">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="M605">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="606" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A606">
+        <v>137</v>
+      </c>
+      <c r="B606" t="s">
+        <v>27</v>
+      </c>
+      <c r="C606" t="s">
+        <v>40</v>
+      </c>
+      <c r="D606">
+        <v>14</v>
+      </c>
+      <c r="E606">
+        <v>5</v>
+      </c>
+      <c r="F606">
+        <v>5</v>
+      </c>
+      <c r="G606">
+        <v>6</v>
+      </c>
+      <c r="H606">
+        <v>8</v>
+      </c>
+      <c r="I606">
+        <v>0</v>
+      </c>
+      <c r="J606">
+        <v>11</v>
+      </c>
+      <c r="L606">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="M606">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="607" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A607">
+        <v>137</v>
+      </c>
+      <c r="B607" t="s">
+        <v>26</v>
+      </c>
+      <c r="C607" t="s">
+        <v>40</v>
+      </c>
+      <c r="D607">
+        <v>-2</v>
+      </c>
+      <c r="E607">
+        <v>7</v>
+      </c>
+      <c r="F607">
+        <v>7</v>
+      </c>
+      <c r="G607">
+        <v>15</v>
+      </c>
+      <c r="H607">
+        <v>0</v>
+      </c>
+      <c r="I607">
+        <v>1</v>
+      </c>
+      <c r="J607">
+        <v>0</v>
+      </c>
+      <c r="L607">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="M607">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="608" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A608">
+        <v>138</v>
+      </c>
+      <c r="B608" t="s">
+        <v>15</v>
+      </c>
+      <c r="C608" t="s">
+        <v>40</v>
+      </c>
+      <c r="D608">
+        <v>3</v>
+      </c>
+      <c r="E608">
+        <v>1</v>
+      </c>
+      <c r="F608">
+        <v>10</v>
+      </c>
+      <c r="G608">
+        <v>8</v>
+      </c>
+      <c r="H608">
+        <v>0</v>
+      </c>
+      <c r="I608">
+        <v>0</v>
+      </c>
+      <c r="J608">
+        <v>21</v>
+      </c>
+      <c r="L608">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="M608">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A609">
+        <v>138</v>
+      </c>
+      <c r="B609" t="s">
+        <v>13</v>
+      </c>
+      <c r="C609" t="s">
+        <v>40</v>
+      </c>
+      <c r="D609">
+        <v>16</v>
+      </c>
+      <c r="E609">
+        <v>2</v>
+      </c>
+      <c r="F609">
+        <v>10</v>
+      </c>
+      <c r="G609">
+        <v>8</v>
+      </c>
+      <c r="H609">
+        <v>3</v>
+      </c>
+      <c r="I609">
+        <v>0</v>
+      </c>
+      <c r="J609">
+        <v>6</v>
+      </c>
+      <c r="L609">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="M609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A610">
+        <v>138</v>
+      </c>
+      <c r="B610" t="s">
+        <v>14</v>
+      </c>
+      <c r="C610" t="s">
+        <v>40</v>
+      </c>
+      <c r="D610">
+        <v>-1</v>
+      </c>
+      <c r="E610">
+        <v>2</v>
+      </c>
+      <c r="F610">
+        <v>3</v>
+      </c>
+      <c r="G610">
+        <v>19</v>
+      </c>
+      <c r="H610">
+        <v>4</v>
+      </c>
+      <c r="I610">
+        <v>0</v>
+      </c>
+      <c r="J610">
+        <v>10</v>
+      </c>
+      <c r="L610">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="M610">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="611" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A611">
+        <v>138</v>
+      </c>
+      <c r="B611" t="s">
+        <v>27</v>
+      </c>
+      <c r="C611" t="s">
+        <v>40</v>
+      </c>
+      <c r="D611">
+        <v>-1</v>
+      </c>
+      <c r="E611">
+        <v>1</v>
+      </c>
+      <c r="F611">
+        <v>3</v>
+      </c>
+      <c r="G611">
+        <v>6</v>
+      </c>
+      <c r="H611">
+        <v>0</v>
+      </c>
+      <c r="I611">
+        <v>36</v>
+      </c>
+      <c r="J611">
+        <v>0</v>
+      </c>
+      <c r="L611">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="M611">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A612">
+        <v>138</v>
+      </c>
+      <c r="B612" t="s">
+        <v>26</v>
+      </c>
+      <c r="C612" t="s">
+        <v>40</v>
+      </c>
+      <c r="D612">
+        <v>5</v>
+      </c>
+      <c r="E612">
+        <v>11</v>
+      </c>
+      <c r="F612">
+        <v>5</v>
+      </c>
+      <c r="G612">
+        <v>2</v>
+      </c>
+      <c r="H612">
+        <v>2</v>
+      </c>
+      <c r="I612">
+        <v>0</v>
+      </c>
+      <c r="J612">
+        <v>0</v>
+      </c>
+      <c r="L612">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="M612">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="613" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A613">
+        <v>139</v>
+      </c>
+      <c r="B613" t="s">
+        <v>15</v>
+      </c>
+      <c r="C613" t="s">
+        <v>40</v>
+      </c>
+      <c r="D613">
+        <v>-4</v>
+      </c>
+      <c r="E613">
+        <v>1</v>
+      </c>
+      <c r="F613">
+        <v>3</v>
+      </c>
+      <c r="G613">
+        <v>9</v>
+      </c>
+      <c r="H613">
+        <v>0</v>
+      </c>
+      <c r="I613">
+        <v>0</v>
+      </c>
+      <c r="J613">
+        <v>23</v>
+      </c>
+      <c r="L613">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="M613">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="614" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A614">
+        <v>139</v>
+      </c>
+      <c r="B614" t="s">
+        <v>13</v>
+      </c>
+      <c r="C614" t="s">
+        <v>40</v>
+      </c>
+      <c r="D614">
+        <v>8</v>
+      </c>
+      <c r="E614">
+        <v>1</v>
+      </c>
+      <c r="F614">
+        <v>15</v>
+      </c>
+      <c r="G614">
+        <v>7</v>
+      </c>
+      <c r="H614">
+        <v>5</v>
+      </c>
+      <c r="I614">
+        <v>0</v>
+      </c>
+      <c r="J614">
+        <v>6</v>
+      </c>
+      <c r="L614">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="M614">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="615" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A615">
+        <v>139</v>
+      </c>
+      <c r="B615" t="s">
+        <v>14</v>
+      </c>
+      <c r="C615" t="s">
+        <v>40</v>
+      </c>
+      <c r="D615">
+        <v>14</v>
+      </c>
+      <c r="E615">
+        <v>6</v>
+      </c>
+      <c r="F615">
+        <v>10</v>
+      </c>
+      <c r="G615">
+        <v>15</v>
+      </c>
+      <c r="H615">
+        <v>0</v>
+      </c>
+      <c r="I615">
+        <v>0</v>
+      </c>
+      <c r="J615">
+        <v>0</v>
+      </c>
+      <c r="L615">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="M615">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="616" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A616">
+        <v>139</v>
+      </c>
+      <c r="B616" t="s">
+        <v>27</v>
+      </c>
+      <c r="C616" t="s">
+        <v>40</v>
+      </c>
+      <c r="D616">
+        <v>3</v>
+      </c>
+      <c r="E616">
+        <v>1</v>
+      </c>
+      <c r="F616">
+        <v>5</v>
+      </c>
+      <c r="G616">
+        <v>0</v>
+      </c>
+      <c r="H616">
+        <v>4</v>
+      </c>
+      <c r="I616">
+        <v>25</v>
+      </c>
+      <c r="J616">
+        <v>0</v>
+      </c>
+      <c r="L616">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="M616">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="617" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A617">
+        <v>139</v>
+      </c>
+      <c r="B617" t="s">
+        <v>26</v>
+      </c>
+      <c r="C617" t="s">
+        <v>40</v>
+      </c>
+      <c r="D617">
+        <v>10</v>
+      </c>
+      <c r="E617">
+        <v>11</v>
+      </c>
+      <c r="F617">
+        <v>7</v>
+      </c>
+      <c r="G617">
+        <v>10</v>
+      </c>
+      <c r="H617">
+        <v>4</v>
+      </c>
+      <c r="I617">
+        <v>4</v>
+      </c>
+      <c r="J617">
+        <v>0</v>
+      </c>
+      <c r="L617">
+        <f t="shared" ref="L617:L680" si="9">SUM(D617:K617)</f>
+        <v>46</v>
+      </c>
+      <c r="M617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A618">
+        <v>140</v>
+      </c>
+      <c r="B618" t="s">
+        <v>15</v>
+      </c>
+      <c r="C618" t="s">
+        <v>40</v>
+      </c>
+      <c r="D618">
+        <v>12</v>
+      </c>
+      <c r="E618">
+        <v>4</v>
+      </c>
+      <c r="F618">
+        <v>5</v>
+      </c>
+      <c r="G618">
+        <v>8</v>
+      </c>
+      <c r="H618">
+        <v>3</v>
+      </c>
+      <c r="I618">
+        <v>0</v>
+      </c>
+      <c r="J618">
+        <v>31</v>
+      </c>
+      <c r="L618">
+        <f t="shared" si="9"/>
+        <v>63</v>
+      </c>
+      <c r="M618">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A619">
+        <v>140</v>
+      </c>
+      <c r="B619" t="s">
+        <v>13</v>
+      </c>
+      <c r="C619" t="s">
+        <v>40</v>
+      </c>
+      <c r="D619">
+        <v>-5</v>
+      </c>
+      <c r="E619">
+        <v>1</v>
+      </c>
+      <c r="F619">
+        <v>3</v>
+      </c>
+      <c r="G619">
+        <v>6</v>
+      </c>
+      <c r="H619">
+        <v>0</v>
+      </c>
+      <c r="I619">
+        <v>62</v>
+      </c>
+      <c r="J619">
+        <v>0</v>
+      </c>
+      <c r="L619">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="M619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A620">
+        <v>140</v>
+      </c>
+      <c r="B620" t="s">
+        <v>14</v>
+      </c>
+      <c r="C620" t="s">
+        <v>40</v>
+      </c>
+      <c r="D620">
+        <v>9</v>
+      </c>
+      <c r="E620">
+        <v>2</v>
+      </c>
+      <c r="F620">
+        <v>3</v>
+      </c>
+      <c r="G620">
+        <v>26</v>
+      </c>
+      <c r="H620">
+        <v>4</v>
+      </c>
+      <c r="I620">
+        <v>0</v>
+      </c>
+      <c r="J620">
+        <v>10</v>
+      </c>
+      <c r="L620">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="M620">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="621" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A621">
+        <v>141</v>
+      </c>
+      <c r="B621" t="s">
+        <v>15</v>
+      </c>
+      <c r="C621" t="s">
+        <v>40</v>
+      </c>
+      <c r="D621">
+        <v>7</v>
+      </c>
+      <c r="E621">
+        <v>10</v>
+      </c>
+      <c r="F621">
+        <v>3</v>
+      </c>
+      <c r="G621">
+        <v>20</v>
+      </c>
+      <c r="H621">
+        <v>5</v>
+      </c>
+      <c r="I621">
+        <v>0</v>
+      </c>
+      <c r="J621">
+        <v>8</v>
+      </c>
+      <c r="L621">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="M621">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A622">
+        <v>141</v>
+      </c>
+      <c r="B622" t="s">
+        <v>13</v>
+      </c>
+      <c r="C622" t="s">
+        <v>40</v>
+      </c>
+      <c r="D622">
+        <v>17</v>
+      </c>
+      <c r="E622">
+        <v>2</v>
+      </c>
+      <c r="F622">
+        <v>10</v>
+      </c>
+      <c r="G622">
+        <v>13</v>
+      </c>
+      <c r="H622">
+        <v>3</v>
+      </c>
+      <c r="I622">
+        <v>0</v>
+      </c>
+      <c r="J622">
+        <v>13</v>
+      </c>
+      <c r="L622">
+        <f t="shared" si="9"/>
+        <v>58</v>
+      </c>
+      <c r="M622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A623">
+        <v>141</v>
+      </c>
+      <c r="B623" t="s">
+        <v>14</v>
+      </c>
+      <c r="C623" t="s">
+        <v>40</v>
+      </c>
+      <c r="D623">
+        <v>-6</v>
+      </c>
+      <c r="E623">
+        <v>1</v>
+      </c>
+      <c r="F623">
+        <v>3</v>
+      </c>
+      <c r="G623">
+        <v>0</v>
+      </c>
+      <c r="H623">
+        <v>0</v>
+      </c>
+      <c r="I623">
+        <v>43</v>
+      </c>
+      <c r="J623">
+        <v>0</v>
+      </c>
+      <c r="L623">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="M623">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="624" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A624">
+        <v>142</v>
+      </c>
+      <c r="B624" t="s">
+        <v>15</v>
+      </c>
+      <c r="C624" t="s">
+        <v>40</v>
+      </c>
+      <c r="D624">
+        <v>18</v>
+      </c>
+      <c r="E624">
+        <v>2</v>
+      </c>
+      <c r="F624">
+        <v>10</v>
+      </c>
+      <c r="G624">
+        <v>0</v>
+      </c>
+      <c r="H624">
+        <v>6</v>
+      </c>
+      <c r="I624">
+        <v>0</v>
+      </c>
+      <c r="J624">
+        <v>23</v>
+      </c>
+      <c r="L624">
+        <f t="shared" si="9"/>
+        <v>59</v>
+      </c>
+      <c r="M624">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="625" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A625">
+        <v>142</v>
+      </c>
+      <c r="B625" t="s">
+        <v>12</v>
+      </c>
+      <c r="C625" t="s">
+        <v>40</v>
+      </c>
+      <c r="D625">
+        <v>-6</v>
+      </c>
+      <c r="E625">
+        <v>4</v>
+      </c>
+      <c r="F625">
+        <v>10</v>
+      </c>
+      <c r="G625">
+        <v>0</v>
+      </c>
+      <c r="H625">
+        <v>0</v>
+      </c>
+      <c r="I625">
+        <v>33</v>
+      </c>
+      <c r="J625">
+        <v>7</v>
+      </c>
+      <c r="L625">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="M625">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="626" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A626">
+        <v>142</v>
+      </c>
+      <c r="B626" t="s">
+        <v>13</v>
+      </c>
+      <c r="C626" t="s">
+        <v>40</v>
+      </c>
+      <c r="D626">
+        <v>18</v>
+      </c>
+      <c r="E626">
+        <v>2</v>
+      </c>
+      <c r="F626">
+        <v>10</v>
+      </c>
+      <c r="G626">
+        <v>16</v>
+      </c>
+      <c r="H626">
+        <v>0</v>
+      </c>
+      <c r="I626">
+        <v>0</v>
+      </c>
+      <c r="J626">
+        <v>21</v>
+      </c>
+      <c r="L626">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="M626">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A627">
+        <v>142</v>
+      </c>
+      <c r="B627" t="s">
+        <v>14</v>
+      </c>
+      <c r="C627" t="s">
+        <v>40</v>
+      </c>
+      <c r="D627">
+        <v>-6</v>
+      </c>
+      <c r="E627">
+        <v>5</v>
+      </c>
+      <c r="F627">
+        <v>3</v>
+      </c>
+      <c r="G627">
+        <v>18</v>
+      </c>
+      <c r="H627">
+        <v>0</v>
+      </c>
+      <c r="I627">
+        <v>31</v>
+      </c>
+      <c r="J627">
+        <v>0</v>
+      </c>
+      <c r="L627">
+        <f t="shared" si="9"/>
+        <v>51</v>
+      </c>
+      <c r="M627">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="628" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A628">
+        <v>143</v>
+      </c>
+      <c r="B628" t="s">
+        <v>15</v>
+      </c>
+      <c r="C628" t="s">
+        <v>40</v>
+      </c>
+      <c r="D628">
+        <v>4</v>
+      </c>
+      <c r="E628">
+        <v>5</v>
+      </c>
+      <c r="F628">
+        <v>15</v>
+      </c>
+      <c r="G628">
+        <v>0</v>
+      </c>
+      <c r="H628">
+        <v>3</v>
+      </c>
+      <c r="I628">
+        <v>0</v>
+      </c>
+      <c r="J628">
+        <v>21</v>
+      </c>
+      <c r="L628">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="M628">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A629">
+        <v>143</v>
+      </c>
+      <c r="B629" t="s">
+        <v>12</v>
+      </c>
+      <c r="C629" t="s">
+        <v>40</v>
+      </c>
+      <c r="D629">
+        <v>10</v>
+      </c>
+      <c r="E629">
+        <v>8</v>
+      </c>
+      <c r="F629">
+        <v>5</v>
+      </c>
+      <c r="G629">
+        <v>23</v>
+      </c>
+      <c r="H629">
+        <v>2</v>
+      </c>
+      <c r="I629">
+        <v>0</v>
+      </c>
+      <c r="J629">
+        <v>7</v>
+      </c>
+      <c r="L629">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="M629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A630">
+        <v>143</v>
+      </c>
+      <c r="B630" t="s">
+        <v>13</v>
+      </c>
+      <c r="C630" t="s">
+        <v>40</v>
+      </c>
+      <c r="D630">
+        <v>14</v>
+      </c>
+      <c r="E630">
+        <v>2</v>
+      </c>
+      <c r="F630">
+        <v>7</v>
+      </c>
+      <c r="G630">
+        <v>15</v>
+      </c>
+      <c r="H630">
+        <v>3</v>
+      </c>
+      <c r="I630">
+        <v>2</v>
+      </c>
+      <c r="J630">
+        <v>0</v>
+      </c>
+      <c r="L630">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+      <c r="M630">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="631" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A631">
+        <v>143</v>
+      </c>
+      <c r="B631" t="s">
+        <v>14</v>
+      </c>
+      <c r="C631" t="s">
+        <v>40</v>
+      </c>
+      <c r="D631">
+        <v>-6</v>
+      </c>
+      <c r="E631">
+        <v>4</v>
+      </c>
+      <c r="F631">
+        <v>10</v>
+      </c>
+      <c r="G631">
+        <v>6</v>
+      </c>
+      <c r="H631">
+        <v>0</v>
+      </c>
+      <c r="I631">
+        <v>25</v>
+      </c>
+      <c r="J631">
+        <v>0</v>
+      </c>
+      <c r="L631">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="M631">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="632" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A632">
+        <v>143</v>
+      </c>
+      <c r="B632" t="s">
+        <v>26</v>
+      </c>
+      <c r="C632" t="s">
+        <v>40</v>
+      </c>
+      <c r="D632">
+        <v>8</v>
+      </c>
+      <c r="E632">
+        <v>4</v>
+      </c>
+      <c r="F632">
+        <v>3</v>
+      </c>
+      <c r="G632">
+        <v>6</v>
+      </c>
+      <c r="H632">
+        <v>0</v>
+      </c>
+      <c r="I632">
+        <v>1</v>
+      </c>
+      <c r="J632">
+        <v>7</v>
+      </c>
+      <c r="L632">
+        <f t="shared" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="M632">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="633" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A633">
+        <v>144</v>
+      </c>
+      <c r="B633" t="s">
+        <v>15</v>
+      </c>
+      <c r="C633" t="s">
+        <v>40</v>
+      </c>
+      <c r="D633">
+        <v>-5</v>
+      </c>
+      <c r="E633">
+        <v>2</v>
+      </c>
+      <c r="F633">
+        <v>3</v>
+      </c>
+      <c r="G633">
+        <v>2</v>
+      </c>
+      <c r="H633">
+        <v>0</v>
+      </c>
+      <c r="I633">
+        <v>48</v>
+      </c>
+      <c r="J633">
+        <v>0</v>
+      </c>
+      <c r="L633">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="M633">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="634" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A634">
+        <v>144</v>
+      </c>
+      <c r="B634" t="s">
+        <v>12</v>
+      </c>
+      <c r="C634" t="s">
+        <v>40</v>
+      </c>
+      <c r="D634">
+        <v>17</v>
+      </c>
+      <c r="E634">
+        <v>8</v>
+      </c>
+      <c r="F634">
+        <v>3</v>
+      </c>
+      <c r="G634">
+        <v>11</v>
+      </c>
+      <c r="H634">
+        <v>4</v>
+      </c>
+      <c r="I634">
+        <v>0</v>
+      </c>
+      <c r="J634">
+        <v>8</v>
+      </c>
+      <c r="L634">
+        <f t="shared" si="9"/>
+        <v>51</v>
+      </c>
+      <c r="M634">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="635" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A635">
+        <v>144</v>
+      </c>
+      <c r="B635" t="s">
+        <v>13</v>
+      </c>
+      <c r="C635" t="s">
+        <v>40</v>
+      </c>
+      <c r="D635">
+        <v>18</v>
+      </c>
+      <c r="E635">
+        <v>9</v>
+      </c>
+      <c r="F635">
+        <v>10</v>
+      </c>
+      <c r="G635">
+        <v>14</v>
+      </c>
+      <c r="H635">
+        <v>9</v>
+      </c>
+      <c r="I635">
+        <v>0</v>
+      </c>
+      <c r="J635">
+        <v>0</v>
+      </c>
+      <c r="L635">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="M635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A636">
+        <v>144</v>
+      </c>
+      <c r="B636" t="s">
+        <v>26</v>
+      </c>
+      <c r="C636" t="s">
+        <v>40</v>
+      </c>
+      <c r="D636">
+        <v>5</v>
+      </c>
+      <c r="E636">
+        <v>4</v>
+      </c>
+      <c r="F636">
+        <v>7</v>
+      </c>
+      <c r="G636">
+        <v>12</v>
+      </c>
+      <c r="H636">
+        <v>0</v>
+      </c>
+      <c r="I636">
+        <v>0</v>
+      </c>
+      <c r="J636">
+        <v>8</v>
+      </c>
+      <c r="L636">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="M636">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="637" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A637">
+        <v>144</v>
+      </c>
+      <c r="B637" t="s">
+        <v>37</v>
+      </c>
+      <c r="C637" t="s">
+        <v>40</v>
+      </c>
+      <c r="D637">
+        <v>6</v>
+      </c>
+      <c r="E637">
+        <v>8</v>
+      </c>
+      <c r="F637">
+        <v>0</v>
+      </c>
+      <c r="G637">
+        <v>16</v>
+      </c>
+      <c r="H637">
+        <v>3</v>
+      </c>
+      <c r="I637">
+        <v>2</v>
+      </c>
+      <c r="J637">
+        <v>0</v>
+      </c>
+      <c r="L637">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="M637">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="638" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A638">
+        <v>144</v>
+      </c>
+      <c r="B638" t="s">
+        <v>43</v>
+      </c>
+      <c r="C638" t="s">
+        <v>40</v>
+      </c>
+      <c r="D638">
+        <v>-5</v>
+      </c>
+      <c r="E638">
+        <v>3</v>
+      </c>
+      <c r="F638">
+        <v>3</v>
+      </c>
+      <c r="G638">
+        <v>6</v>
+      </c>
+      <c r="H638">
+        <v>4</v>
+      </c>
+      <c r="I638">
+        <v>10</v>
+      </c>
+      <c r="J638">
+        <v>0</v>
+      </c>
+      <c r="L638">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="M638">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="639" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A639">
+        <v>145</v>
+      </c>
+      <c r="B639" t="s">
+        <v>15</v>
+      </c>
+      <c r="C639" t="s">
+        <v>40</v>
+      </c>
+      <c r="D639">
+        <v>3</v>
+      </c>
+      <c r="E639">
+        <v>1</v>
+      </c>
+      <c r="F639">
+        <v>3</v>
+      </c>
+      <c r="G639">
+        <v>18</v>
+      </c>
+      <c r="H639">
+        <v>4</v>
+      </c>
+      <c r="I639">
+        <v>0</v>
+      </c>
+      <c r="J639">
+        <v>13</v>
+      </c>
+      <c r="L639">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="M639">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="640" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A640">
+        <v>145</v>
+      </c>
+      <c r="B640" t="s">
+        <v>12</v>
+      </c>
+      <c r="C640" t="s">
+        <v>40</v>
+      </c>
+      <c r="D640">
+        <v>3</v>
+      </c>
+      <c r="E640">
+        <v>5</v>
+      </c>
+      <c r="F640">
+        <v>10</v>
+      </c>
+      <c r="G640">
+        <v>13</v>
+      </c>
+      <c r="H640">
+        <v>3</v>
+      </c>
+      <c r="I640">
+        <v>0</v>
+      </c>
+      <c r="J640">
+        <v>5</v>
+      </c>
+      <c r="L640">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="M640">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="641" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A641">
+        <v>145</v>
+      </c>
+      <c r="B641" t="s">
+        <v>13</v>
+      </c>
+      <c r="C641" t="s">
+        <v>40</v>
+      </c>
+      <c r="D641">
+        <v>18</v>
+      </c>
+      <c r="E641">
+        <v>4</v>
+      </c>
+      <c r="F641">
+        <v>10</v>
+      </c>
+      <c r="G641">
+        <v>8</v>
+      </c>
+      <c r="H641">
+        <v>7</v>
+      </c>
+      <c r="I641">
+        <v>10</v>
+      </c>
+      <c r="J641">
+        <v>8</v>
+      </c>
+      <c r="L641">
+        <f t="shared" si="9"/>
+        <v>65</v>
+      </c>
+      <c r="M641">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A642">
+        <v>145</v>
+      </c>
+      <c r="B642" t="s">
+        <v>14</v>
+      </c>
+      <c r="C642" t="s">
+        <v>40</v>
+      </c>
+      <c r="D642">
+        <v>4</v>
+      </c>
+      <c r="E642">
+        <v>4</v>
+      </c>
+      <c r="F642">
+        <v>3</v>
+      </c>
+      <c r="G642">
+        <v>6</v>
+      </c>
+      <c r="H642">
+        <v>0</v>
+      </c>
+      <c r="I642">
+        <v>25</v>
+      </c>
+      <c r="J642">
+        <v>6</v>
+      </c>
+      <c r="L642">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="M642">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="643" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A643">
+        <v>145</v>
+      </c>
+      <c r="B643" t="s">
+        <v>26</v>
+      </c>
+      <c r="C643" t="s">
+        <v>40</v>
+      </c>
+      <c r="D643">
+        <v>-3</v>
+      </c>
+      <c r="E643">
+        <v>7</v>
+      </c>
+      <c r="F643">
+        <v>20</v>
+      </c>
+      <c r="G643">
+        <v>7</v>
+      </c>
+      <c r="H643">
+        <v>0</v>
+      </c>
+      <c r="I643">
+        <v>0</v>
+      </c>
+      <c r="J643">
+        <v>0</v>
+      </c>
+      <c r="L643">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="M643">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="644" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A644">
+        <v>146</v>
+      </c>
+      <c r="B644" t="s">
+        <v>15</v>
+      </c>
+      <c r="C644" t="s">
+        <v>40</v>
+      </c>
+      <c r="D644">
+        <v>-5</v>
+      </c>
+      <c r="E644">
+        <v>5</v>
+      </c>
+      <c r="F644">
+        <v>10</v>
+      </c>
+      <c r="G644">
+        <v>12</v>
+      </c>
+      <c r="H644">
+        <v>4</v>
+      </c>
+      <c r="I644">
+        <v>0</v>
+      </c>
+      <c r="J644">
+        <v>12</v>
+      </c>
+      <c r="L644">
+        <f t="shared" si="9"/>
+        <v>38</v>
+      </c>
+      <c r="M644">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="645" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A645">
+        <v>146</v>
+      </c>
+      <c r="B645" t="s">
+        <v>14</v>
+      </c>
+      <c r="C645" t="s">
+        <v>40</v>
+      </c>
+      <c r="D645">
+        <v>5</v>
+      </c>
+      <c r="E645">
+        <v>0</v>
+      </c>
+      <c r="F645">
+        <v>7</v>
+      </c>
+      <c r="G645">
+        <v>0</v>
+      </c>
+      <c r="H645">
+        <v>0</v>
+      </c>
+      <c r="I645">
+        <v>21</v>
+      </c>
+      <c r="J645">
+        <v>0</v>
+      </c>
+      <c r="L645">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="M645">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="646" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A646">
+        <v>146</v>
+      </c>
+      <c r="B646" t="s">
+        <v>13</v>
+      </c>
+      <c r="C646" t="s">
+        <v>40</v>
+      </c>
+      <c r="D646">
+        <v>17</v>
+      </c>
+      <c r="E646">
+        <v>5</v>
+      </c>
+      <c r="F646">
+        <v>10</v>
+      </c>
+      <c r="G646">
+        <v>6</v>
+      </c>
+      <c r="H646">
+        <v>8</v>
+      </c>
+      <c r="I646">
+        <v>0</v>
+      </c>
+      <c r="J646">
+        <v>0</v>
+      </c>
+      <c r="L646">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="M646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A647">
+        <v>146</v>
+      </c>
+      <c r="B647" t="s">
+        <v>27</v>
+      </c>
+      <c r="C647" t="s">
+        <v>40</v>
+      </c>
+      <c r="D647">
+        <v>16</v>
+      </c>
+      <c r="E647">
+        <v>9</v>
+      </c>
+      <c r="F647">
+        <v>3</v>
+      </c>
+      <c r="G647">
+        <v>13</v>
+      </c>
+      <c r="H647">
+        <v>2</v>
+      </c>
+      <c r="I647">
+        <v>0</v>
+      </c>
+      <c r="J647">
+        <v>1</v>
+      </c>
+      <c r="L647">
+        <f t="shared" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="M647">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="648" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A648">
+        <v>146</v>
+      </c>
+      <c r="B648" t="s">
+        <v>26</v>
+      </c>
+      <c r="C648" t="s">
+        <v>40</v>
+      </c>
+      <c r="D648">
+        <v>-3</v>
+      </c>
+      <c r="E648">
+        <v>9</v>
+      </c>
+      <c r="F648">
+        <v>20</v>
+      </c>
+      <c r="G648">
+        <v>10</v>
+      </c>
+      <c r="H648">
+        <v>0</v>
+      </c>
+      <c r="I648">
+        <v>0</v>
+      </c>
+      <c r="J648">
+        <v>0</v>
+      </c>
+      <c r="L648">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="M648">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="649" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A649">
+        <v>147</v>
+      </c>
+      <c r="B649" t="s">
+        <v>15</v>
+      </c>
+      <c r="C649" t="s">
+        <v>40</v>
+      </c>
+      <c r="D649">
+        <v>3</v>
+      </c>
+      <c r="E649">
+        <v>7</v>
+      </c>
+      <c r="F649">
+        <v>5</v>
+      </c>
+      <c r="G649">
+        <v>14</v>
+      </c>
+      <c r="H649">
+        <v>3</v>
+      </c>
+      <c r="I649">
+        <v>0</v>
+      </c>
+      <c r="J649">
+        <v>6</v>
+      </c>
+      <c r="L649">
+        <f t="shared" si="9"/>
+        <v>38</v>
+      </c>
+      <c r="M649">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="650" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A650">
+        <v>147</v>
+      </c>
+      <c r="B650" t="s">
+        <v>14</v>
+      </c>
+      <c r="C650" t="s">
+        <v>40</v>
+      </c>
+      <c r="D650">
+        <v>9</v>
+      </c>
+      <c r="E650">
+        <v>7</v>
+      </c>
+      <c r="F650">
+        <v>3</v>
+      </c>
+      <c r="G650">
+        <v>17</v>
+      </c>
+      <c r="H650">
+        <v>3</v>
+      </c>
+      <c r="I650">
+        <v>0</v>
+      </c>
+      <c r="J650">
+        <v>0</v>
+      </c>
+      <c r="L650">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="M650">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="651" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A651">
+        <v>147</v>
+      </c>
+      <c r="B651" t="s">
+        <v>13</v>
+      </c>
+      <c r="C651" t="s">
+        <v>40</v>
+      </c>
+      <c r="D651">
+        <v>-6</v>
+      </c>
+      <c r="E651">
+        <v>5</v>
+      </c>
+      <c r="F651">
+        <v>10</v>
+      </c>
+      <c r="G651">
+        <v>10</v>
+      </c>
+      <c r="H651">
+        <v>0</v>
+      </c>
+      <c r="I651">
+        <v>43</v>
+      </c>
+      <c r="J651">
+        <v>0</v>
+      </c>
+      <c r="L651">
+        <f t="shared" si="9"/>
+        <v>62</v>
+      </c>
+      <c r="M651">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A652">
+        <v>147</v>
+      </c>
+      <c r="B652" t="s">
+        <v>27</v>
+      </c>
+      <c r="C652" t="s">
+        <v>40</v>
+      </c>
+      <c r="D652">
+        <v>6</v>
+      </c>
+      <c r="E652">
+        <v>2</v>
+      </c>
+      <c r="F652">
+        <v>7</v>
+      </c>
+      <c r="G652">
+        <v>8</v>
+      </c>
+      <c r="H652">
+        <v>0</v>
+      </c>
+      <c r="I652">
+        <v>16</v>
+      </c>
+      <c r="J652">
+        <v>0</v>
+      </c>
+      <c r="L652">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="M652">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="653" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A653">
+        <v>147</v>
+      </c>
+      <c r="B653" t="s">
+        <v>26</v>
+      </c>
+      <c r="C653" t="s">
+        <v>40</v>
+      </c>
+      <c r="D653">
+        <v>9</v>
+      </c>
+      <c r="E653">
+        <v>4</v>
+      </c>
+      <c r="F653">
+        <v>20</v>
+      </c>
+      <c r="G653">
+        <v>8</v>
+      </c>
+      <c r="H653">
+        <v>4</v>
+      </c>
+      <c r="I653">
+        <v>0</v>
+      </c>
+      <c r="J653">
+        <v>0</v>
+      </c>
+      <c r="L653">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="M653">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="654" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A654">
+        <v>148</v>
+      </c>
+      <c r="B654" t="s">
+        <v>15</v>
+      </c>
+      <c r="C654" t="s">
+        <v>40</v>
+      </c>
+      <c r="D654">
+        <v>-5</v>
+      </c>
+      <c r="E654">
+        <v>7</v>
+      </c>
+      <c r="F654">
+        <v>3</v>
+      </c>
+      <c r="G654">
+        <v>10</v>
+      </c>
+      <c r="H654">
+        <v>0</v>
+      </c>
+      <c r="I654">
+        <v>0</v>
+      </c>
+      <c r="J654">
+        <v>23</v>
+      </c>
+      <c r="L654">
+        <f t="shared" si="9"/>
+        <v>38</v>
+      </c>
+      <c r="M654">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="655" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A655">
+        <v>148</v>
+      </c>
+      <c r="B655" t="s">
+        <v>14</v>
+      </c>
+      <c r="C655" t="s">
+        <v>40</v>
+      </c>
+      <c r="D655">
+        <v>0</v>
+      </c>
+      <c r="E655">
+        <v>6</v>
+      </c>
+      <c r="F655">
+        <v>3</v>
+      </c>
+      <c r="G655">
+        <v>6</v>
+      </c>
+      <c r="H655">
+        <v>3</v>
+      </c>
+      <c r="I655">
+        <v>0</v>
+      </c>
+      <c r="J655">
+        <v>0</v>
+      </c>
+      <c r="L655">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="M655">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="656" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A656">
+        <v>148</v>
+      </c>
+      <c r="B656" t="s">
+        <v>13</v>
+      </c>
+      <c r="C656" t="s">
+        <v>40</v>
+      </c>
+      <c r="D656">
+        <v>17</v>
+      </c>
+      <c r="E656">
+        <v>6</v>
+      </c>
+      <c r="F656">
+        <v>10</v>
+      </c>
+      <c r="G656">
+        <v>11</v>
+      </c>
+      <c r="H656">
+        <v>7</v>
+      </c>
+      <c r="I656">
+        <v>0</v>
+      </c>
+      <c r="J656">
+        <v>0</v>
+      </c>
+      <c r="L656">
+        <f t="shared" si="9"/>
+        <v>51</v>
+      </c>
+      <c r="M656">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A657">
+        <v>148</v>
+      </c>
+      <c r="B657" t="s">
+        <v>27</v>
+      </c>
+      <c r="C657" t="s">
+        <v>40</v>
+      </c>
+      <c r="D657">
+        <v>8</v>
+      </c>
+      <c r="E657">
+        <v>3</v>
+      </c>
+      <c r="F657">
+        <v>5</v>
+      </c>
+      <c r="G657">
+        <v>6</v>
+      </c>
+      <c r="H657">
+        <v>0</v>
+      </c>
+      <c r="I657">
+        <v>16</v>
+      </c>
+      <c r="J657">
+        <v>4</v>
+      </c>
+      <c r="L657">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="M657">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="658" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A658">
+        <v>148</v>
+      </c>
+      <c r="B658" t="s">
+        <v>26</v>
+      </c>
+      <c r="C658" t="s">
+        <v>40</v>
+      </c>
+      <c r="D658">
+        <v>8</v>
+      </c>
+      <c r="E658">
+        <v>6</v>
+      </c>
+      <c r="F658">
+        <v>10</v>
+      </c>
+      <c r="G658">
+        <v>17</v>
+      </c>
+      <c r="H658">
+        <v>0</v>
+      </c>
+      <c r="I658">
+        <v>0</v>
+      </c>
+      <c r="J658">
+        <v>0</v>
+      </c>
+      <c r="L658">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="M658">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="659" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A659">
+        <v>149</v>
+      </c>
+      <c r="B659" t="s">
+        <v>15</v>
+      </c>
+      <c r="C659" t="s">
+        <v>40</v>
+      </c>
+      <c r="D659">
+        <v>1</v>
+      </c>
+      <c r="E659">
+        <v>14</v>
+      </c>
+      <c r="F659">
+        <v>3</v>
+      </c>
+      <c r="G659">
+        <v>0</v>
+      </c>
+      <c r="H659">
+        <v>8</v>
+      </c>
+      <c r="I659">
+        <v>0</v>
+      </c>
+      <c r="J659">
+        <v>7</v>
+      </c>
+      <c r="L659">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="M659">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="660" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A660">
+        <v>149</v>
+      </c>
+      <c r="B660" t="s">
+        <v>12</v>
+      </c>
+      <c r="C660" t="s">
+        <v>40</v>
+      </c>
+      <c r="D660">
+        <v>18</v>
+      </c>
+      <c r="E660">
+        <v>5</v>
+      </c>
+      <c r="F660">
+        <v>5</v>
+      </c>
+      <c r="G660">
+        <v>10</v>
+      </c>
+      <c r="H660">
+        <v>6</v>
+      </c>
+      <c r="I660">
+        <v>0</v>
+      </c>
+      <c r="J660">
+        <v>10</v>
+      </c>
+      <c r="L660">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="M660">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A661">
+        <v>149</v>
+      </c>
+      <c r="B661" t="s">
+        <v>13</v>
+      </c>
+      <c r="C661" t="s">
+        <v>40</v>
+      </c>
+      <c r="D661">
+        <v>3</v>
+      </c>
+      <c r="E661">
+        <v>1</v>
+      </c>
+      <c r="F661">
+        <v>0</v>
+      </c>
+      <c r="G661">
+        <v>20</v>
+      </c>
+      <c r="H661">
+        <v>0</v>
+      </c>
+      <c r="I661">
+        <v>16</v>
+      </c>
+      <c r="J661">
+        <v>0</v>
+      </c>
+      <c r="L661">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="M661">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="662" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A662">
+        <v>149</v>
+      </c>
+      <c r="B662" t="s">
+        <v>14</v>
+      </c>
+      <c r="C662" t="s">
+        <v>40</v>
+      </c>
+      <c r="D662">
+        <v>-2</v>
+      </c>
+      <c r="E662">
+        <v>2</v>
+      </c>
+      <c r="F662">
+        <v>3</v>
+      </c>
+      <c r="G662">
+        <v>13</v>
+      </c>
+      <c r="H662">
+        <v>0</v>
+      </c>
+      <c r="I662">
+        <v>21</v>
+      </c>
+      <c r="J662">
+        <v>5</v>
+      </c>
+      <c r="L662">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="M662">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="663" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A663">
+        <v>149</v>
+      </c>
+      <c r="B663" t="s">
+        <v>26</v>
+      </c>
+      <c r="C663" t="s">
+        <v>40</v>
+      </c>
+      <c r="D663">
+        <v>5</v>
+      </c>
+      <c r="E663">
+        <v>10</v>
+      </c>
+      <c r="F663">
+        <v>10</v>
+      </c>
+      <c r="G663">
+        <v>15</v>
+      </c>
+      <c r="H663">
+        <v>3</v>
+      </c>
+      <c r="I663">
+        <v>0</v>
+      </c>
+      <c r="J663">
+        <v>0</v>
+      </c>
+      <c r="L663">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+      <c r="M663">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="664" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A664">
+        <v>150</v>
+      </c>
+      <c r="B664" t="s">
+        <v>15</v>
+      </c>
+      <c r="C664" t="s">
+        <v>40</v>
+      </c>
+      <c r="D664">
+        <v>1</v>
+      </c>
+      <c r="E664">
+        <v>3</v>
+      </c>
+      <c r="F664">
+        <v>15</v>
+      </c>
+      <c r="G664">
+        <v>8</v>
+      </c>
+      <c r="H664">
+        <v>0</v>
+      </c>
+      <c r="I664">
+        <v>0</v>
+      </c>
+      <c r="J664">
+        <v>11</v>
+      </c>
+      <c r="L664">
+        <f t="shared" si="9"/>
+        <v>38</v>
+      </c>
+      <c r="M664">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="665" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A665">
+        <v>150</v>
+      </c>
+      <c r="B665" t="s">
+        <v>12</v>
+      </c>
+      <c r="C665" t="s">
+        <v>40</v>
+      </c>
+      <c r="D665">
+        <v>13</v>
+      </c>
+      <c r="E665">
+        <v>1</v>
+      </c>
+      <c r="F665">
+        <v>3</v>
+      </c>
+      <c r="G665">
+        <v>0</v>
+      </c>
+      <c r="H665">
+        <v>4</v>
+      </c>
+      <c r="I665">
+        <v>31</v>
+      </c>
+      <c r="J665">
+        <v>0</v>
+      </c>
+      <c r="L665">
+        <f t="shared" si="9"/>
+        <v>52</v>
+      </c>
+      <c r="M665">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A666">
+        <v>150</v>
+      </c>
+      <c r="B666" t="s">
+        <v>13</v>
+      </c>
+      <c r="C666" t="s">
+        <v>40</v>
+      </c>
+      <c r="D666">
+        <v>0</v>
+      </c>
+      <c r="E666">
+        <v>4</v>
+      </c>
+      <c r="F666">
+        <v>10</v>
+      </c>
+      <c r="G666">
+        <v>26</v>
+      </c>
+      <c r="H666">
+        <v>5</v>
+      </c>
+      <c r="I666">
+        <v>0</v>
+      </c>
+      <c r="J666">
+        <v>0</v>
+      </c>
+      <c r="L666">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="M666">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="667" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A667">
+        <v>150</v>
+      </c>
+      <c r="B667" t="s">
+        <v>14</v>
+      </c>
+      <c r="C667" t="s">
+        <v>40</v>
+      </c>
+      <c r="D667">
+        <v>18</v>
+      </c>
+      <c r="E667">
+        <v>5</v>
+      </c>
+      <c r="F667">
+        <v>10</v>
+      </c>
+      <c r="G667">
+        <v>15</v>
+      </c>
+      <c r="H667">
+        <v>0</v>
+      </c>
+      <c r="I667">
+        <v>0</v>
+      </c>
+      <c r="J667">
+        <v>0</v>
+      </c>
+      <c r="L667">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="M667">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="668" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A668">
+        <v>150</v>
+      </c>
+      <c r="B668" t="s">
+        <v>26</v>
+      </c>
+      <c r="C668" t="s">
+        <v>40</v>
+      </c>
+      <c r="D668">
+        <v>-6</v>
+      </c>
+      <c r="E668">
+        <v>11</v>
+      </c>
+      <c r="F668">
+        <v>7</v>
+      </c>
+      <c r="G668">
+        <v>10</v>
+      </c>
+      <c r="H668">
+        <v>3</v>
+      </c>
+      <c r="I668">
+        <v>0</v>
+      </c>
+      <c r="J668">
+        <v>9</v>
+      </c>
+      <c r="L668">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
+      <c r="M668">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="669" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A669">
+        <v>151</v>
+      </c>
+      <c r="B669" t="s">
+        <v>15</v>
+      </c>
+      <c r="C669" t="s">
+        <v>40</v>
+      </c>
+      <c r="D669">
+        <v>12</v>
+      </c>
+      <c r="E669">
+        <v>6</v>
+      </c>
+      <c r="F669">
+        <v>15</v>
+      </c>
+      <c r="G669">
+        <v>0</v>
+      </c>
+      <c r="H669">
+        <v>4</v>
+      </c>
+      <c r="I669">
+        <v>0</v>
+      </c>
+      <c r="J669">
+        <v>8</v>
+      </c>
+      <c r="L669">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="M669">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="670" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A670">
+        <v>151</v>
+      </c>
+      <c r="B670" t="s">
+        <v>12</v>
+      </c>
+      <c r="C670" t="s">
+        <v>40</v>
+      </c>
+      <c r="D670">
+        <v>-1</v>
+      </c>
+      <c r="E670">
+        <v>5</v>
+      </c>
+      <c r="F670">
+        <v>3</v>
+      </c>
+      <c r="G670">
+        <v>20</v>
+      </c>
+      <c r="H670">
+        <v>0</v>
+      </c>
+      <c r="I670">
+        <v>0</v>
+      </c>
+      <c r="J670">
+        <v>15</v>
+      </c>
+      <c r="L670">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="M670">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="671" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A671">
+        <v>151</v>
+      </c>
+      <c r="B671" t="s">
+        <v>13</v>
+      </c>
+      <c r="C671" t="s">
+        <v>40</v>
+      </c>
+      <c r="D671">
+        <v>-5</v>
+      </c>
+      <c r="E671">
+        <v>8</v>
+      </c>
+      <c r="F671">
+        <v>10</v>
+      </c>
+      <c r="G671">
+        <v>22</v>
+      </c>
+      <c r="H671">
+        <v>3</v>
+      </c>
+      <c r="I671">
+        <v>16</v>
+      </c>
+      <c r="J671">
+        <v>0</v>
+      </c>
+      <c r="L671">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="M671">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="672" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A672">
+        <v>151</v>
+      </c>
+      <c r="B672" t="s">
+        <v>14</v>
+      </c>
+      <c r="C672" t="s">
+        <v>40</v>
+      </c>
+      <c r="D672">
+        <v>7</v>
+      </c>
+      <c r="E672">
+        <v>0</v>
+      </c>
+      <c r="F672">
+        <v>0</v>
+      </c>
+      <c r="G672">
+        <v>4</v>
+      </c>
+      <c r="H672">
+        <v>0</v>
+      </c>
+      <c r="I672">
+        <v>38</v>
+      </c>
+      <c r="J672">
+        <v>6</v>
+      </c>
+      <c r="L672">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="M672">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="673" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A673">
+        <v>151</v>
+      </c>
+      <c r="B673" t="s">
+        <v>11</v>
+      </c>
+      <c r="C673" t="s">
+        <v>40</v>
+      </c>
+      <c r="D673">
+        <v>17</v>
+      </c>
+      <c r="E673">
+        <v>5</v>
+      </c>
+      <c r="F673">
+        <v>10</v>
+      </c>
+      <c r="G673">
+        <v>14</v>
+      </c>
+      <c r="H673">
+        <v>3</v>
+      </c>
+      <c r="I673">
+        <v>0</v>
+      </c>
+      <c r="J673">
+        <v>6</v>
+      </c>
+      <c r="L673">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="M673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A674">
+        <v>152</v>
+      </c>
+      <c r="B674" t="s">
+        <v>15</v>
+      </c>
+      <c r="C674" t="s">
+        <v>40</v>
+      </c>
+      <c r="D674">
+        <v>17</v>
+      </c>
+      <c r="E674">
+        <v>7</v>
+      </c>
+      <c r="F674">
+        <v>8</v>
+      </c>
+      <c r="G674">
+        <v>8</v>
+      </c>
+      <c r="H674">
+        <v>4</v>
+      </c>
+      <c r="I674">
+        <v>0</v>
+      </c>
+      <c r="J674">
+        <v>0</v>
+      </c>
+      <c r="L674">
+        <f t="shared" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="M674">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="675" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A675">
+        <v>152</v>
+      </c>
+      <c r="B675" t="s">
+        <v>12</v>
+      </c>
+      <c r="C675" t="s">
+        <v>40</v>
+      </c>
+      <c r="D675">
+        <v>-5</v>
+      </c>
+      <c r="E675">
+        <v>5</v>
+      </c>
+      <c r="F675">
+        <v>10</v>
+      </c>
+      <c r="G675">
+        <v>14</v>
+      </c>
+      <c r="H675">
+        <v>3</v>
+      </c>
+      <c r="I675">
+        <v>13</v>
+      </c>
+      <c r="J675">
+        <v>15</v>
+      </c>
+      <c r="L675">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="M675">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="676" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A676">
+        <v>152</v>
+      </c>
+      <c r="B676" t="s">
+        <v>13</v>
+      </c>
+      <c r="C676" t="s">
+        <v>40</v>
+      </c>
+      <c r="D676">
+        <v>-1</v>
+      </c>
+      <c r="E676">
+        <v>3</v>
+      </c>
+      <c r="F676">
+        <v>5</v>
+      </c>
+      <c r="G676">
+        <v>12</v>
+      </c>
+      <c r="H676">
+        <v>4</v>
+      </c>
+      <c r="I676">
+        <v>26</v>
+      </c>
+      <c r="J676">
+        <v>0</v>
+      </c>
+      <c r="L676">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="M676">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="677" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A677">
+        <v>152</v>
+      </c>
+      <c r="B677" t="s">
+        <v>14</v>
+      </c>
+      <c r="C677" t="s">
+        <v>40</v>
+      </c>
+      <c r="D677">
+        <v>1</v>
+      </c>
+      <c r="E677">
+        <v>2</v>
+      </c>
+      <c r="F677">
+        <v>0</v>
+      </c>
+      <c r="G677">
+        <v>11</v>
+      </c>
+      <c r="H677">
+        <v>2</v>
+      </c>
+      <c r="I677">
+        <v>16</v>
+      </c>
+      <c r="J677">
+        <v>0</v>
+      </c>
+      <c r="L677">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="M677">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="678" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A678">
+        <v>152</v>
+      </c>
+      <c r="B678" t="s">
+        <v>11</v>
+      </c>
+      <c r="C678" t="s">
+        <v>40</v>
+      </c>
+      <c r="D678">
+        <v>18</v>
+      </c>
+      <c r="E678">
+        <v>5</v>
+      </c>
+      <c r="F678">
+        <v>5</v>
+      </c>
+      <c r="G678">
+        <v>25</v>
+      </c>
+      <c r="H678">
+        <v>3</v>
+      </c>
+      <c r="I678">
+        <v>0</v>
+      </c>
+      <c r="J678">
+        <v>17</v>
+      </c>
+      <c r="L678">
+        <f t="shared" si="9"/>
+        <v>73</v>
+      </c>
+      <c r="M678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A679">
+        <v>153</v>
+      </c>
+      <c r="B679" t="s">
+        <v>15</v>
+      </c>
+      <c r="C679" t="s">
+        <v>40</v>
+      </c>
+      <c r="D679">
+        <v>13</v>
+      </c>
+      <c r="E679">
+        <v>7</v>
+      </c>
+      <c r="F679">
+        <v>3</v>
+      </c>
+      <c r="G679">
+        <v>4</v>
+      </c>
+      <c r="H679">
+        <v>6</v>
+      </c>
+      <c r="I679">
+        <v>0</v>
+      </c>
+      <c r="J679">
+        <v>7</v>
+      </c>
+      <c r="L679">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="M679">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="680" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A680">
+        <v>153</v>
+      </c>
+      <c r="B680" t="s">
+        <v>12</v>
+      </c>
+      <c r="C680" t="s">
+        <v>40</v>
+      </c>
+      <c r="D680">
+        <v>12</v>
+      </c>
+      <c r="E680">
+        <v>6</v>
+      </c>
+      <c r="F680">
+        <v>8</v>
+      </c>
+      <c r="G680">
+        <v>24</v>
+      </c>
+      <c r="H680">
+        <v>0</v>
+      </c>
+      <c r="I680">
+        <v>0</v>
+      </c>
+      <c r="J680">
+        <v>14</v>
+      </c>
+      <c r="L680">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="M680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A681">
+        <v>153</v>
+      </c>
+      <c r="B681" t="s">
+        <v>13</v>
+      </c>
+      <c r="C681" t="s">
+        <v>40</v>
+      </c>
+      <c r="D681">
+        <v>9</v>
+      </c>
+      <c r="E681">
+        <v>5</v>
+      </c>
+      <c r="F681">
+        <v>10</v>
+      </c>
+      <c r="G681">
+        <v>13</v>
+      </c>
+      <c r="H681">
+        <v>3</v>
+      </c>
+      <c r="I681">
+        <v>0</v>
+      </c>
+      <c r="J681">
+        <v>0</v>
+      </c>
+      <c r="L681">
+        <f t="shared" ref="L681:L744" si="10">SUM(D681:K681)</f>
+        <v>40</v>
+      </c>
+      <c r="M681">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="682" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A682">
+        <v>153</v>
+      </c>
+      <c r="B682" t="s">
+        <v>14</v>
+      </c>
+      <c r="C682" t="s">
+        <v>40</v>
+      </c>
+      <c r="D682">
+        <v>1</v>
+      </c>
+      <c r="E682">
+        <v>4</v>
+      </c>
+      <c r="F682">
+        <v>7</v>
+      </c>
+      <c r="G682">
+        <v>8</v>
+      </c>
+      <c r="H682">
+        <v>0</v>
+      </c>
+      <c r="I682">
+        <v>21</v>
+      </c>
+      <c r="J682">
+        <v>0</v>
+      </c>
+      <c r="L682">
+        <f t="shared" si="10"/>
+        <v>41</v>
+      </c>
+      <c r="M682">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="683" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A683">
+        <v>153</v>
+      </c>
+      <c r="B683" t="s">
+        <v>11</v>
+      </c>
+      <c r="C683" t="s">
+        <v>40</v>
+      </c>
+      <c r="D683">
+        <v>-1</v>
+      </c>
+      <c r="E683">
+        <v>3</v>
+      </c>
+      <c r="F683">
+        <v>3</v>
+      </c>
+      <c r="G683">
+        <v>13</v>
+      </c>
+      <c r="H683">
+        <v>3</v>
+      </c>
+      <c r="I683">
+        <v>31</v>
+      </c>
+      <c r="J683">
+        <v>0</v>
+      </c>
+      <c r="L683">
+        <f t="shared" si="10"/>
+        <v>52</v>
+      </c>
+      <c r="M683">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="684" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A684">
+        <v>153</v>
+      </c>
+      <c r="B684" t="s">
+        <v>26</v>
+      </c>
+      <c r="C684" t="s">
+        <v>40</v>
+      </c>
+      <c r="D684">
+        <v>3</v>
+      </c>
+      <c r="E684">
+        <v>4</v>
+      </c>
+      <c r="F684">
+        <v>10</v>
+      </c>
+      <c r="G684">
+        <v>24</v>
+      </c>
+      <c r="H684">
+        <v>0</v>
+      </c>
+      <c r="I684">
+        <v>0</v>
+      </c>
+      <c r="J684">
+        <v>0</v>
+      </c>
+      <c r="L684">
+        <f t="shared" si="10"/>
+        <v>41</v>
+      </c>
+      <c r="M684">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="685" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A685">
+        <v>153</v>
+      </c>
+      <c r="B685" t="s">
+        <v>44</v>
+      </c>
+      <c r="C685" t="s">
+        <v>40</v>
+      </c>
+      <c r="D685">
+        <v>0</v>
+      </c>
+      <c r="E685">
+        <v>5</v>
+      </c>
+      <c r="F685">
+        <v>3</v>
+      </c>
+      <c r="G685">
+        <v>8</v>
+      </c>
+      <c r="H685">
+        <v>3</v>
+      </c>
+      <c r="I685">
+        <v>0</v>
+      </c>
+      <c r="J685">
+        <v>15</v>
+      </c>
+      <c r="L685">
+        <f t="shared" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="M685">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="686" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A686">
+        <v>154</v>
+      </c>
+      <c r="B686" t="s">
+        <v>26</v>
+      </c>
+      <c r="C686" t="s">
+        <v>40</v>
+      </c>
+      <c r="D686">
+        <v>4</v>
+      </c>
+      <c r="E686">
+        <v>4</v>
+      </c>
+      <c r="F686">
+        <v>10</v>
+      </c>
+      <c r="G686">
+        <v>15</v>
+      </c>
+      <c r="H686">
+        <v>3</v>
+      </c>
+      <c r="I686">
+        <v>0</v>
+      </c>
+      <c r="J686">
+        <v>0</v>
+      </c>
+      <c r="L686">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="M686">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="687" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A687">
+        <v>154</v>
+      </c>
+      <c r="B687" t="s">
+        <v>11</v>
+      </c>
+      <c r="C687" t="s">
+        <v>40</v>
+      </c>
+      <c r="D687">
+        <v>-1</v>
+      </c>
+      <c r="E687">
+        <v>6</v>
+      </c>
+      <c r="F687">
+        <v>20</v>
+      </c>
+      <c r="G687">
+        <v>7</v>
+      </c>
+      <c r="H687">
+        <v>2</v>
+      </c>
+      <c r="I687">
+        <v>0</v>
+      </c>
+      <c r="J687">
+        <v>0</v>
+      </c>
+      <c r="L687">
+        <f t="shared" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="M687">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="688" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A688">
+        <v>154</v>
+      </c>
+      <c r="B688" t="s">
+        <v>13</v>
+      </c>
+      <c r="C688" t="s">
+        <v>40</v>
+      </c>
+      <c r="D688">
+        <v>14</v>
+      </c>
+      <c r="E688">
+        <v>5</v>
+      </c>
+      <c r="F688">
+        <v>10</v>
+      </c>
+      <c r="G688">
+        <v>15</v>
+      </c>
+      <c r="H688">
+        <v>9</v>
+      </c>
+      <c r="I688">
+        <v>0</v>
+      </c>
+      <c r="J688">
+        <v>4</v>
+      </c>
+      <c r="L688">
+        <f t="shared" si="10"/>
+        <v>57</v>
+      </c>
+      <c r="M688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A689">
+        <v>154</v>
+      </c>
+      <c r="B689" t="s">
+        <v>14</v>
+      </c>
+      <c r="C689" t="s">
+        <v>40</v>
+      </c>
+      <c r="D689">
+        <v>3</v>
+      </c>
+      <c r="E689">
+        <v>4</v>
+      </c>
+      <c r="F689">
+        <v>5</v>
+      </c>
+      <c r="G689">
+        <v>6</v>
+      </c>
+      <c r="H689">
+        <v>0</v>
+      </c>
+      <c r="I689">
+        <v>26</v>
+      </c>
+      <c r="J689">
+        <v>0</v>
+      </c>
+      <c r="L689">
+        <f t="shared" si="10"/>
+        <v>44</v>
+      </c>
+      <c r="M689">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="690" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A690">
+        <v>155</v>
+      </c>
+      <c r="B690" t="s">
+        <v>15</v>
+      </c>
+      <c r="C690" t="s">
+        <v>40</v>
+      </c>
+      <c r="D690">
+        <v>-6</v>
+      </c>
+      <c r="E690">
+        <v>2</v>
+      </c>
+      <c r="F690">
+        <v>10</v>
+      </c>
+      <c r="G690">
+        <v>0</v>
+      </c>
+      <c r="H690">
+        <v>0</v>
+      </c>
+      <c r="I690">
+        <v>31</v>
+      </c>
+      <c r="J690">
+        <v>7</v>
+      </c>
+      <c r="L690">
+        <f t="shared" si="10"/>
+        <v>44</v>
+      </c>
+      <c r="M690">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="691" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A691">
+        <v>155</v>
+      </c>
+      <c r="B691" t="s">
+        <v>26</v>
+      </c>
+      <c r="C691" t="s">
+        <v>40</v>
+      </c>
+      <c r="D691">
+        <v>-3</v>
+      </c>
+      <c r="E691">
+        <v>9</v>
+      </c>
+      <c r="F691">
+        <v>15</v>
+      </c>
+      <c r="G691">
+        <v>13</v>
+      </c>
+      <c r="H691">
+        <v>3</v>
+      </c>
+      <c r="I691">
+        <v>0</v>
+      </c>
+      <c r="J691">
+        <v>0</v>
+      </c>
+      <c r="L691">
+        <f t="shared" si="10"/>
+        <v>37</v>
+      </c>
+      <c r="M691">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="692" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A692">
+        <v>155</v>
+      </c>
+      <c r="B692" t="s">
+        <v>13</v>
+      </c>
+      <c r="C692" t="s">
+        <v>40</v>
+      </c>
+      <c r="D692">
+        <v>17</v>
+      </c>
+      <c r="E692">
+        <v>3</v>
+      </c>
+      <c r="F692">
+        <v>5</v>
+      </c>
+      <c r="G692">
+        <v>21</v>
+      </c>
+      <c r="H692">
+        <v>0</v>
+      </c>
+      <c r="I692">
+        <v>0</v>
+      </c>
+      <c r="J692">
+        <v>10</v>
+      </c>
+      <c r="L692">
+        <f t="shared" si="10"/>
+        <v>56</v>
+      </c>
+      <c r="M692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A693">
+        <v>155</v>
+      </c>
+      <c r="B693" t="s">
+        <v>11</v>
+      </c>
+      <c r="C693" t="s">
+        <v>40</v>
+      </c>
+      <c r="D693">
+        <v>14</v>
+      </c>
+      <c r="E693">
+        <v>3</v>
+      </c>
+      <c r="F693">
+        <v>10</v>
+      </c>
+      <c r="G693">
+        <v>11</v>
+      </c>
+      <c r="H693">
+        <v>0</v>
+      </c>
+      <c r="I693">
+        <v>10</v>
+      </c>
+      <c r="J693">
+        <v>7</v>
+      </c>
+      <c r="L693">
+        <f t="shared" si="10"/>
+        <v>55</v>
+      </c>
+      <c r="M693">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="694" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A694">
+        <v>156</v>
+      </c>
+      <c r="B694" t="s">
+        <v>11</v>
+      </c>
+      <c r="C694" t="s">
+        <v>40</v>
+      </c>
+      <c r="D694">
+        <v>-5</v>
+      </c>
+      <c r="E694">
+        <v>4</v>
+      </c>
+      <c r="F694">
+        <v>3</v>
+      </c>
+      <c r="G694">
+        <v>5</v>
+      </c>
+      <c r="H694">
+        <v>3</v>
+      </c>
+      <c r="I694">
+        <v>25</v>
+      </c>
+      <c r="J694">
+        <v>14</v>
+      </c>
+      <c r="L694">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="M694">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="695" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A695">
+        <v>156</v>
+      </c>
+      <c r="B695" t="s">
+        <v>12</v>
+      </c>
+      <c r="C695" t="s">
+        <v>40</v>
+      </c>
+      <c r="D695">
+        <v>14</v>
+      </c>
+      <c r="E695">
+        <v>5</v>
+      </c>
+      <c r="F695">
+        <v>5</v>
+      </c>
+      <c r="G695">
+        <v>15</v>
+      </c>
+      <c r="H695">
+        <v>3</v>
+      </c>
+      <c r="I695">
+        <v>0</v>
+      </c>
+      <c r="J695">
+        <v>21</v>
+      </c>
+      <c r="L695">
+        <f t="shared" si="10"/>
+        <v>63</v>
+      </c>
+      <c r="M695">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A696">
+        <v>156</v>
+      </c>
+      <c r="B696" t="s">
+        <v>13</v>
+      </c>
+      <c r="C696" t="s">
+        <v>40</v>
+      </c>
+      <c r="D696">
+        <v>9</v>
+      </c>
+      <c r="E696">
+        <v>0</v>
+      </c>
+      <c r="F696">
+        <v>3</v>
+      </c>
+      <c r="G696">
+        <v>9</v>
+      </c>
+      <c r="H696">
+        <v>4</v>
+      </c>
+      <c r="I696">
+        <v>25</v>
+      </c>
+      <c r="J696">
+        <v>0</v>
+      </c>
+      <c r="L696">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="M696">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="697" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A697">
+        <v>157</v>
+      </c>
+      <c r="B697" t="s">
+        <v>12</v>
+      </c>
+      <c r="C697" t="s">
+        <v>40</v>
+      </c>
+      <c r="D697">
+        <v>10</v>
+      </c>
+      <c r="E697">
+        <v>2</v>
+      </c>
+      <c r="F697">
+        <v>10</v>
+      </c>
+      <c r="G697">
+        <v>5</v>
+      </c>
+      <c r="H697">
+        <v>6</v>
+      </c>
+      <c r="I697">
+        <v>16</v>
+      </c>
+      <c r="J697">
+        <v>12</v>
+      </c>
+      <c r="L697">
+        <f t="shared" si="10"/>
+        <v>61</v>
+      </c>
+      <c r="M697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A698">
+        <v>157</v>
+      </c>
+      <c r="B698" t="s">
+        <v>11</v>
+      </c>
+      <c r="C698" t="s">
+        <v>40</v>
+      </c>
+      <c r="D698">
+        <v>-5</v>
+      </c>
+      <c r="E698">
+        <v>2</v>
+      </c>
+      <c r="F698">
+        <v>5</v>
+      </c>
+      <c r="G698">
+        <v>10</v>
+      </c>
+      <c r="H698">
+        <v>4</v>
+      </c>
+      <c r="I698">
+        <v>25</v>
+      </c>
+      <c r="J698">
+        <v>6</v>
+      </c>
+      <c r="L698">
+        <f t="shared" si="10"/>
+        <v>47</v>
+      </c>
+      <c r="M698">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="699" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A699">
+        <v>157</v>
+      </c>
+      <c r="B699" t="s">
+        <v>13</v>
+      </c>
+      <c r="C699" t="s">
+        <v>40</v>
+      </c>
+      <c r="D699">
+        <v>14</v>
+      </c>
+      <c r="E699">
+        <v>4</v>
+      </c>
+      <c r="F699">
+        <v>5</v>
+      </c>
+      <c r="G699">
+        <v>16</v>
+      </c>
+      <c r="H699">
+        <v>3</v>
+      </c>
+      <c r="I699">
+        <v>0</v>
+      </c>
+      <c r="J699">
+        <v>13</v>
+      </c>
+      <c r="L699">
+        <f t="shared" si="10"/>
+        <v>55</v>
+      </c>
+      <c r="M699">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="700" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A700">
+        <v>157</v>
+      </c>
+      <c r="B700" t="s">
+        <v>14</v>
+      </c>
+      <c r="C700" t="s">
+        <v>40</v>
+      </c>
+      <c r="D700">
+        <v>7</v>
+      </c>
+      <c r="E700">
+        <v>1</v>
+      </c>
+      <c r="F700">
+        <v>3</v>
+      </c>
+      <c r="G700">
+        <v>3</v>
+      </c>
+      <c r="H700">
+        <v>0</v>
+      </c>
+      <c r="I700">
+        <v>21</v>
+      </c>
+      <c r="J700">
+        <v>0</v>
+      </c>
+      <c r="L700">
+        <f t="shared" si="10"/>
+        <v>35</v>
+      </c>
+      <c r="M700">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="701" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A701">
+        <v>157</v>
+      </c>
+      <c r="B701" t="s">
+        <v>22</v>
+      </c>
+      <c r="C701" t="s">
+        <v>40</v>
+      </c>
+      <c r="D701">
+        <v>4</v>
+      </c>
+      <c r="E701">
+        <v>6</v>
+      </c>
+      <c r="F701">
+        <v>3</v>
+      </c>
+      <c r="G701">
+        <v>9</v>
+      </c>
+      <c r="H701">
+        <v>11</v>
+      </c>
+      <c r="I701">
+        <v>1</v>
+      </c>
+      <c r="J701">
+        <v>5</v>
+      </c>
+      <c r="L701">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="M701">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="702" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A702">
+        <v>158</v>
+      </c>
+      <c r="B702" t="s">
+        <v>12</v>
+      </c>
+      <c r="C702" t="s">
+        <v>40</v>
+      </c>
+      <c r="D702">
+        <v>11</v>
+      </c>
+      <c r="E702">
+        <v>6</v>
+      </c>
+      <c r="F702">
+        <v>20</v>
+      </c>
+      <c r="G702">
+        <v>5</v>
+      </c>
+      <c r="H702">
+        <v>8</v>
+      </c>
+      <c r="I702">
+        <v>0</v>
+      </c>
+      <c r="J702">
+        <v>6</v>
+      </c>
+      <c r="L702">
+        <f t="shared" si="10"/>
+        <v>56</v>
+      </c>
+      <c r="M702">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="703" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A703">
+        <v>158</v>
+      </c>
+      <c r="B703" t="s">
+        <v>11</v>
+      </c>
+      <c r="C703" t="s">
+        <v>40</v>
+      </c>
+      <c r="D703">
+        <v>11</v>
+      </c>
+      <c r="E703">
+        <v>6</v>
+      </c>
+      <c r="F703">
+        <v>10</v>
+      </c>
+      <c r="G703">
+        <v>25</v>
+      </c>
+      <c r="H703">
+        <v>0</v>
+      </c>
+      <c r="I703">
+        <v>0</v>
+      </c>
+      <c r="J703">
+        <v>17</v>
+      </c>
+      <c r="L703">
+        <f t="shared" si="10"/>
+        <v>69</v>
+      </c>
+      <c r="M703">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A704">
+        <v>158</v>
+      </c>
+      <c r="B704" t="s">
+        <v>13</v>
+      </c>
+      <c r="C704" t="s">
+        <v>40</v>
+      </c>
+      <c r="D704">
+        <v>-6</v>
+      </c>
+      <c r="E704">
+        <v>3</v>
+      </c>
+      <c r="F704">
+        <v>3</v>
+      </c>
+      <c r="G704">
+        <v>21</v>
+      </c>
+      <c r="H704">
+        <v>4</v>
+      </c>
+      <c r="I704">
+        <v>26</v>
+      </c>
+      <c r="J704">
+        <v>6</v>
+      </c>
+      <c r="L704">
+        <f t="shared" si="10"/>
+        <v>57</v>
+      </c>
+      <c r="M704">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="705" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A705">
+        <v>158</v>
+      </c>
+      <c r="B705" t="s">
+        <v>14</v>
+      </c>
+      <c r="C705" t="s">
+        <v>40</v>
+      </c>
+      <c r="D705">
+        <v>-6</v>
+      </c>
+      <c r="E705">
+        <v>3</v>
+      </c>
+      <c r="F705">
+        <v>10</v>
+      </c>
+      <c r="G705">
+        <v>6</v>
+      </c>
+      <c r="H705">
+        <v>0</v>
+      </c>
+      <c r="I705">
+        <v>31</v>
+      </c>
+      <c r="J705">
+        <v>15</v>
+      </c>
+      <c r="L705">
+        <f t="shared" si="10"/>
+        <v>59</v>
+      </c>
+      <c r="M705">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="706" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A706">
+        <v>158</v>
+      </c>
+      <c r="B706" t="s">
+        <v>22</v>
+      </c>
+      <c r="C706" t="s">
+        <v>40</v>
+      </c>
+      <c r="D706">
+        <v>18</v>
+      </c>
+      <c r="E706">
+        <v>8</v>
+      </c>
+      <c r="F706">
+        <v>0</v>
+      </c>
+      <c r="G706">
+        <v>3</v>
+      </c>
+      <c r="H706">
+        <v>8</v>
+      </c>
+      <c r="I706">
+        <v>0</v>
+      </c>
+      <c r="J706">
+        <v>0</v>
+      </c>
+      <c r="L706">
+        <f t="shared" si="10"/>
+        <v>37</v>
+      </c>
+      <c r="M706">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="707" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A707">
+        <v>159</v>
+      </c>
+      <c r="B707" t="s">
+        <v>12</v>
+      </c>
+      <c r="C707" t="s">
+        <v>40</v>
+      </c>
+      <c r="D707">
+        <v>13</v>
+      </c>
+      <c r="E707">
+        <v>6</v>
+      </c>
+      <c r="F707">
+        <v>10</v>
+      </c>
+      <c r="G707">
+        <v>19</v>
+      </c>
+      <c r="H707">
+        <v>0</v>
+      </c>
+      <c r="I707">
+        <v>1</v>
+      </c>
+      <c r="J707">
+        <v>0</v>
+      </c>
+      <c r="L707">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="M707">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="708" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A708">
+        <v>159</v>
+      </c>
+      <c r="B708" t="s">
+        <v>11</v>
+      </c>
+      <c r="C708" t="s">
+        <v>40</v>
+      </c>
+      <c r="D708">
+        <v>1</v>
+      </c>
+      <c r="E708">
+        <v>1</v>
+      </c>
+      <c r="F708">
+        <v>3</v>
+      </c>
+      <c r="G708">
+        <v>10</v>
+      </c>
+      <c r="H708">
+        <v>6</v>
+      </c>
+      <c r="I708">
+        <v>13</v>
+      </c>
+      <c r="J708">
+        <v>20</v>
+      </c>
+      <c r="L708">
+        <f t="shared" si="10"/>
+        <v>54</v>
+      </c>
+      <c r="M708">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A709">
+        <v>159</v>
+      </c>
+      <c r="B709" t="s">
+        <v>13</v>
+      </c>
+      <c r="C709" t="s">
+        <v>40</v>
+      </c>
+      <c r="D709">
+        <v>4</v>
+      </c>
+      <c r="E709">
+        <v>4</v>
+      </c>
+      <c r="F709">
+        <v>10</v>
+      </c>
+      <c r="G709">
+        <v>9</v>
+      </c>
+      <c r="H709">
+        <v>8</v>
+      </c>
+      <c r="I709">
+        <v>2</v>
+      </c>
+      <c r="J709">
+        <v>4</v>
+      </c>
+      <c r="L709">
+        <f t="shared" si="10"/>
+        <v>41</v>
+      </c>
+      <c r="M709">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="710" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A710">
+        <v>159</v>
+      </c>
+      <c r="B710" t="s">
+        <v>14</v>
+      </c>
+      <c r="C710" t="s">
+        <v>40</v>
+      </c>
+      <c r="D710">
+        <v>-3</v>
+      </c>
+      <c r="E710">
+        <v>3</v>
+      </c>
+      <c r="F710">
+        <v>5</v>
+      </c>
+      <c r="G710">
+        <v>0</v>
+      </c>
+      <c r="H710">
+        <v>0</v>
+      </c>
+      <c r="I710">
+        <v>38</v>
+      </c>
+      <c r="J710">
+        <v>7</v>
+      </c>
+      <c r="L710">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="M710">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="711" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A711">
+        <v>159</v>
+      </c>
+      <c r="B711" t="s">
+        <v>22</v>
+      </c>
+      <c r="C711" t="s">
+        <v>40</v>
+      </c>
+      <c r="D711">
+        <v>9</v>
+      </c>
+      <c r="E711">
+        <v>9</v>
+      </c>
+      <c r="F711">
+        <v>10</v>
+      </c>
+      <c r="G711">
+        <v>11</v>
+      </c>
+      <c r="H711">
+        <v>6</v>
+      </c>
+      <c r="I711">
+        <v>0</v>
+      </c>
+      <c r="J711">
+        <v>6</v>
+      </c>
+      <c r="L711">
+        <f t="shared" si="10"/>
+        <v>51</v>
+      </c>
+      <c r="M711">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="712" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C712" t="s">
+        <v>40</v>
+      </c>
+      <c r="L712">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C713" t="s">
+        <v>40</v>
+      </c>
+      <c r="L713">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C714" t="s">
+        <v>40</v>
+      </c>
+      <c r="L714">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C715" t="s">
+        <v>40</v>
+      </c>
+      <c r="L715">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C716" t="s">
+        <v>40</v>
+      </c>
+      <c r="L716">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C717" t="s">
+        <v>40</v>
+      </c>
+      <c r="L717">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C718" t="s">
+        <v>40</v>
+      </c>
+      <c r="L718">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C719" t="s">
+        <v>40</v>
+      </c>
+      <c r="L719">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C720" t="s">
+        <v>40</v>
+      </c>
+      <c r="L720">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C721" t="s">
+        <v>40</v>
+      </c>
+      <c r="L721">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C722" t="s">
+        <v>40</v>
+      </c>
+      <c r="L722">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L723">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L724">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L725">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L726">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L727">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L728">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L729">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L730">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L731">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L732">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L733">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L734">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L735">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L736">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L737">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L738">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L739">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L740">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L741">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L742">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L743">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L744">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L745">
+        <f t="shared" ref="L745:L771" si="11">SUM(D745:K745)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L746">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L747">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L748">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L749">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L750">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L751">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L752">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L753">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L754">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L755">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L756">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L757">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L758">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L759">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L760">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L761">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L762">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L763">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L764">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L765">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L766">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L767">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L768">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L769">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L770">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L771">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>

--- a/7wonders/data/7wonders.xlsx
+++ b/7wonders/data/7wonders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Mota\Documents\VS Code\DataSy\7wonders\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADE11EA-F9C3-4598-8E3F-7A9A1C4A7BD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20C0DB6-64AA-45D1-B7D7-CDF5941CE257}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4BEFDDDF-0926-4228-BEFA-2D10815E9504}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="47">
   <si>
     <t>Jogador</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>Biel de Luis</t>
+  </si>
+  <si>
+    <t>Lucas de Luis</t>
+  </si>
+  <si>
+    <t>Robsão</t>
   </si>
 </sst>
 </file>
@@ -611,11 +617,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874C2040-D9D2-425D-8341-F45C98E38288}">
-  <dimension ref="A1:P771"/>
+  <dimension ref="A1:P827"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A704" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A712" sqref="A712"/>
+      <pane ySplit="1" topLeftCell="A818" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O838" sqref="O838"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29863,396 +29869,4875 @@
       </c>
     </row>
     <row r="712" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A712">
+        <v>160</v>
+      </c>
+      <c r="B712" t="s">
+        <v>15</v>
+      </c>
       <c r="C712" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="D712">
+        <v>14</v>
+      </c>
+      <c r="E712">
+        <v>1</v>
+      </c>
+      <c r="F712">
+        <v>20</v>
+      </c>
+      <c r="G712">
+        <v>11</v>
+      </c>
+      <c r="H712">
+        <v>0</v>
+      </c>
+      <c r="I712">
+        <v>0</v>
+      </c>
+      <c r="J712">
+        <v>3</v>
+      </c>
+      <c r="K712">
+        <v>5</v>
       </c>
       <c r="L712">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="M712">
+        <v>4</v>
       </c>
     </row>
     <row r="713" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A713">
+        <v>160</v>
+      </c>
+      <c r="B713" t="s">
+        <v>37</v>
+      </c>
       <c r="C713" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="D713">
+        <v>-5</v>
+      </c>
+      <c r="E713">
+        <v>3</v>
+      </c>
+      <c r="F713">
+        <v>17</v>
+      </c>
+      <c r="G713">
+        <v>23</v>
+      </c>
+      <c r="H713">
+        <v>13</v>
+      </c>
+      <c r="I713">
+        <v>0</v>
+      </c>
+      <c r="J713">
+        <v>7</v>
+      </c>
+      <c r="K713">
+        <v>0</v>
       </c>
       <c r="L713">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="M713">
+        <v>3</v>
       </c>
     </row>
     <row r="714" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A714">
+        <v>160</v>
+      </c>
+      <c r="B714" t="s">
+        <v>26</v>
+      </c>
       <c r="C714" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="D714">
+        <v>7</v>
+      </c>
+      <c r="E714">
+        <v>5</v>
+      </c>
+      <c r="F714">
+        <v>2</v>
+      </c>
+      <c r="G714">
+        <v>8</v>
+      </c>
+      <c r="H714">
+        <v>4</v>
+      </c>
+      <c r="I714">
+        <v>32</v>
+      </c>
+      <c r="J714">
+        <v>5</v>
+      </c>
+      <c r="K714">
+        <v>0</v>
       </c>
       <c r="L714">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="M714">
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A715">
+        <v>160</v>
+      </c>
+      <c r="B715" t="s">
+        <v>18</v>
+      </c>
       <c r="C715" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="D715">
+        <v>8</v>
+      </c>
+      <c r="E715">
+        <v>1</v>
+      </c>
+      <c r="F715">
+        <v>5</v>
+      </c>
+      <c r="G715">
+        <v>13</v>
+      </c>
+      <c r="H715">
+        <v>0</v>
+      </c>
+      <c r="I715">
+        <v>0</v>
+      </c>
+      <c r="J715">
+        <v>24</v>
+      </c>
+      <c r="K715">
+        <v>16</v>
       </c>
       <c r="L715">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="M715">
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A716">
+        <v>161</v>
+      </c>
+      <c r="B716" t="s">
+        <v>15</v>
+      </c>
       <c r="C716" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="D716">
+        <v>-1</v>
+      </c>
+      <c r="E716">
+        <v>0</v>
+      </c>
+      <c r="F716">
+        <v>3</v>
+      </c>
+      <c r="G716">
+        <v>21</v>
+      </c>
+      <c r="H716">
+        <v>4</v>
+      </c>
+      <c r="I716">
+        <v>16</v>
+      </c>
+      <c r="J716">
+        <v>0</v>
+      </c>
+      <c r="K716">
+        <v>0</v>
       </c>
       <c r="L716">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="M716">
+        <v>6</v>
       </c>
     </row>
     <row r="717" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A717">
+        <v>161</v>
+      </c>
+      <c r="B717" t="s">
+        <v>13</v>
+      </c>
       <c r="C717" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="D717">
+        <v>-4</v>
+      </c>
+      <c r="E717">
+        <v>2</v>
+      </c>
+      <c r="F717">
+        <v>10</v>
+      </c>
+      <c r="G717">
+        <v>20</v>
+      </c>
+      <c r="H717">
+        <v>0</v>
+      </c>
+      <c r="I717">
+        <v>43</v>
+      </c>
+      <c r="J717">
+        <v>0</v>
+      </c>
+      <c r="K717">
+        <v>2</v>
       </c>
       <c r="L717">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="M717">
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A718">
+        <v>161</v>
+      </c>
+      <c r="B718" t="s">
+        <v>26</v>
+      </c>
       <c r="C718" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="D718">
+        <v>17</v>
+      </c>
+      <c r="E718">
+        <v>11</v>
+      </c>
+      <c r="F718">
+        <v>7</v>
+      </c>
+      <c r="G718">
+        <v>12</v>
+      </c>
+      <c r="H718">
+        <v>7</v>
+      </c>
+      <c r="I718">
+        <v>0</v>
+      </c>
+      <c r="J718">
+        <v>13</v>
+      </c>
+      <c r="K718">
+        <v>4</v>
       </c>
       <c r="L718">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="M718">
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A719">
+        <v>161</v>
+      </c>
+      <c r="B719" t="s">
+        <v>18</v>
+      </c>
       <c r="C719" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="D719">
+        <v>-3</v>
+      </c>
+      <c r="E719">
+        <v>4</v>
+      </c>
+      <c r="F719">
+        <v>5</v>
+      </c>
+      <c r="G719">
+        <v>10</v>
+      </c>
+      <c r="H719">
+        <v>7</v>
+      </c>
+      <c r="I719">
+        <v>0</v>
+      </c>
+      <c r="J719">
+        <v>14</v>
+      </c>
+      <c r="K719">
+        <v>10</v>
       </c>
       <c r="L719">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="M719">
+        <v>5</v>
       </c>
     </row>
     <row r="720" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A720">
+        <v>161</v>
+      </c>
+      <c r="B720" t="s">
+        <v>14</v>
+      </c>
       <c r="C720" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="D720">
+        <v>14</v>
+      </c>
+      <c r="E720">
+        <v>1</v>
+      </c>
+      <c r="F720">
+        <v>3</v>
+      </c>
+      <c r="G720">
+        <v>6</v>
+      </c>
+      <c r="H720">
+        <v>3</v>
+      </c>
+      <c r="I720">
+        <v>26</v>
+      </c>
+      <c r="J720">
+        <v>0</v>
+      </c>
+      <c r="K720">
+        <v>0</v>
       </c>
       <c r="L720">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="721" spans="3:12" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="M720">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="721" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A721">
+        <v>161</v>
+      </c>
+      <c r="B721" t="s">
+        <v>37</v>
+      </c>
       <c r="C721" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="D721">
+        <v>6</v>
+      </c>
+      <c r="E721">
+        <v>8</v>
+      </c>
+      <c r="F721">
+        <v>3</v>
+      </c>
+      <c r="G721">
+        <v>13</v>
+      </c>
+      <c r="H721">
+        <v>0</v>
+      </c>
+      <c r="I721">
+        <v>0</v>
+      </c>
+      <c r="J721">
+        <v>20</v>
+      </c>
+      <c r="K721">
+        <v>10</v>
       </c>
       <c r="L721">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="722" spans="3:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="M721">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="722" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A722">
+        <v>162</v>
+      </c>
+      <c r="B722" t="s">
+        <v>13</v>
+      </c>
       <c r="C722" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="D722">
+        <v>10</v>
+      </c>
+      <c r="E722">
+        <v>3</v>
+      </c>
+      <c r="F722">
+        <v>7</v>
+      </c>
+      <c r="G722">
+        <v>20</v>
+      </c>
+      <c r="H722">
+        <v>0</v>
+      </c>
+      <c r="I722">
+        <v>0</v>
+      </c>
+      <c r="J722">
+        <v>14</v>
+      </c>
+      <c r="K722">
+        <v>8</v>
       </c>
       <c r="L722">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="723" spans="3:12" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="M722">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="723" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A723">
+        <v>162</v>
+      </c>
+      <c r="B723" t="s">
+        <v>15</v>
+      </c>
+      <c r="C723" t="s">
+        <v>32</v>
+      </c>
+      <c r="D723">
+        <v>4</v>
+      </c>
+      <c r="E723">
+        <v>5</v>
+      </c>
+      <c r="F723">
+        <v>10</v>
+      </c>
+      <c r="G723">
+        <v>11</v>
+      </c>
+      <c r="H723">
+        <v>3</v>
+      </c>
+      <c r="I723">
+        <v>4</v>
+      </c>
+      <c r="J723">
+        <v>15</v>
+      </c>
+      <c r="K723">
+        <v>3</v>
+      </c>
       <c r="L723">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="724" spans="3:12" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="M723">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="724" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A724">
+        <v>162</v>
+      </c>
+      <c r="B724" t="s">
+        <v>14</v>
+      </c>
+      <c r="C724" t="s">
+        <v>35</v>
+      </c>
+      <c r="D724">
+        <v>6</v>
+      </c>
+      <c r="E724">
+        <v>7</v>
+      </c>
+      <c r="F724">
+        <v>20</v>
+      </c>
+      <c r="G724">
+        <v>0</v>
+      </c>
+      <c r="H724">
+        <v>8</v>
+      </c>
+      <c r="I724">
+        <v>0</v>
+      </c>
+      <c r="J724">
+        <v>5</v>
+      </c>
+      <c r="K724">
+        <v>6</v>
+      </c>
       <c r="L724">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="725" spans="3:12" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="M724">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="725" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A725">
+        <v>162</v>
+      </c>
+      <c r="B725" t="s">
+        <v>37</v>
+      </c>
+      <c r="C725" t="s">
+        <v>28</v>
+      </c>
+      <c r="D725">
+        <v>8</v>
+      </c>
+      <c r="E725">
+        <v>3</v>
+      </c>
+      <c r="F725">
+        <v>7</v>
+      </c>
+      <c r="G725">
+        <v>25</v>
+      </c>
+      <c r="H725">
+        <v>3</v>
+      </c>
+      <c r="I725">
+        <v>0</v>
+      </c>
+      <c r="J725">
+        <v>8</v>
+      </c>
+      <c r="K725">
+        <v>9</v>
+      </c>
       <c r="L725">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="726" spans="3:12" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="M725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A726">
+        <v>162</v>
+      </c>
+      <c r="B726" t="s">
+        <v>26</v>
+      </c>
+      <c r="C726" t="s">
+        <v>29</v>
+      </c>
+      <c r="D726">
+        <v>-4</v>
+      </c>
+      <c r="E726">
+        <v>1</v>
+      </c>
+      <c r="F726">
+        <v>3</v>
+      </c>
+      <c r="G726">
+        <v>0</v>
+      </c>
+      <c r="H726">
+        <v>0</v>
+      </c>
+      <c r="I726">
+        <v>55</v>
+      </c>
+      <c r="J726">
+        <v>0</v>
+      </c>
+      <c r="K726">
+        <v>2</v>
+      </c>
       <c r="L726">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="727" spans="3:12" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="M726">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="727" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A727">
+        <v>163</v>
+      </c>
+      <c r="B727" t="s">
+        <v>13</v>
+      </c>
+      <c r="C727" t="s">
+        <v>30</v>
+      </c>
+      <c r="D727">
+        <v>2</v>
+      </c>
+      <c r="E727">
+        <v>2</v>
+      </c>
+      <c r="F727">
+        <v>7</v>
+      </c>
+      <c r="G727">
+        <v>16</v>
+      </c>
+      <c r="H727">
+        <v>0</v>
+      </c>
+      <c r="I727">
+        <v>1</v>
+      </c>
+      <c r="J727">
+        <v>7</v>
+      </c>
+      <c r="K727">
+        <v>8</v>
+      </c>
       <c r="L727">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="728" spans="3:12" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="M727">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="728" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A728">
+        <v>163</v>
+      </c>
+      <c r="B728" t="s">
+        <v>26</v>
+      </c>
+      <c r="C728" t="s">
+        <v>31</v>
+      </c>
+      <c r="D728">
+        <v>15</v>
+      </c>
+      <c r="E728">
+        <v>1</v>
+      </c>
+      <c r="F728">
+        <v>10</v>
+      </c>
+      <c r="G728">
+        <v>17</v>
+      </c>
+      <c r="H728">
+        <v>0</v>
+      </c>
+      <c r="I728">
+        <v>4</v>
+      </c>
+      <c r="J728">
+        <v>0</v>
+      </c>
+      <c r="K728">
+        <v>0</v>
+      </c>
       <c r="L728">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="729" spans="3:12" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="M728">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="729" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A729">
+        <v>163</v>
+      </c>
+      <c r="B729" t="s">
+        <v>15</v>
+      </c>
+      <c r="C729" t="s">
+        <v>32</v>
+      </c>
+      <c r="D729">
+        <v>7</v>
+      </c>
+      <c r="E729">
+        <v>5</v>
+      </c>
+      <c r="F729">
+        <v>5</v>
+      </c>
+      <c r="G729">
+        <v>21</v>
+      </c>
+      <c r="H729">
+        <v>3</v>
+      </c>
+      <c r="I729">
+        <v>1</v>
+      </c>
+      <c r="J729">
+        <v>7</v>
+      </c>
+      <c r="K729">
+        <v>12</v>
+      </c>
       <c r="L729">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="730" spans="3:12" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="M729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A730">
+        <v>163</v>
+      </c>
+      <c r="B730" t="s">
+        <v>45</v>
+      </c>
+      <c r="C730" t="s">
+        <v>35</v>
+      </c>
+      <c r="D730">
+        <v>-6</v>
+      </c>
+      <c r="E730">
+        <v>6</v>
+      </c>
+      <c r="F730">
+        <v>20</v>
+      </c>
+      <c r="G730">
+        <v>13</v>
+      </c>
+      <c r="H730">
+        <v>6</v>
+      </c>
+      <c r="I730">
+        <v>9</v>
+      </c>
+      <c r="J730">
+        <v>0</v>
+      </c>
+      <c r="K730">
+        <v>0</v>
+      </c>
       <c r="L730">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="731" spans="3:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="M730">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="731" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A731">
+        <v>163</v>
+      </c>
+      <c r="B731" t="s">
+        <v>14</v>
+      </c>
+      <c r="C731" t="s">
+        <v>36</v>
+      </c>
+      <c r="D731">
+        <v>7</v>
+      </c>
+      <c r="E731">
+        <v>3</v>
+      </c>
+      <c r="F731">
+        <v>17</v>
+      </c>
+      <c r="G731">
+        <v>0</v>
+      </c>
+      <c r="H731">
+        <v>9</v>
+      </c>
+      <c r="I731">
+        <v>0</v>
+      </c>
+      <c r="J731">
+        <v>9</v>
+      </c>
+      <c r="K731">
+        <v>0</v>
+      </c>
       <c r="L731">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="732" spans="3:12" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="M731">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="732" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A732">
+        <v>163</v>
+      </c>
+      <c r="B732" t="s">
+        <v>18</v>
+      </c>
+      <c r="C732" t="s">
+        <v>28</v>
+      </c>
+      <c r="D732">
+        <v>12</v>
+      </c>
+      <c r="E732">
+        <v>7</v>
+      </c>
+      <c r="F732">
+        <v>7</v>
+      </c>
+      <c r="G732">
+        <v>15</v>
+      </c>
+      <c r="H732">
+        <v>3</v>
+      </c>
+      <c r="I732">
+        <v>0</v>
+      </c>
+      <c r="J732">
+        <v>10</v>
+      </c>
+      <c r="K732">
+        <v>5</v>
+      </c>
       <c r="L732">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="733" spans="3:12" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="M732">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="733" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A733">
+        <v>163</v>
+      </c>
+      <c r="B733" t="s">
+        <v>37</v>
+      </c>
+      <c r="C733" t="s">
+        <v>34</v>
+      </c>
+      <c r="D733">
+        <v>0</v>
+      </c>
+      <c r="E733">
+        <v>2</v>
+      </c>
+      <c r="F733">
+        <v>7</v>
+      </c>
+      <c r="G733">
+        <v>24</v>
+      </c>
+      <c r="H733">
+        <v>6</v>
+      </c>
+      <c r="I733">
+        <v>0</v>
+      </c>
+      <c r="J733">
+        <v>14</v>
+      </c>
+      <c r="K733">
+        <v>7</v>
+      </c>
       <c r="L733">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="734" spans="3:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="M733">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="734" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A734">
+        <v>164</v>
+      </c>
+      <c r="B734" t="s">
+        <v>13</v>
+      </c>
+      <c r="C734" t="s">
+        <v>29</v>
+      </c>
+      <c r="D734">
+        <v>6</v>
+      </c>
+      <c r="E734">
+        <v>0</v>
+      </c>
+      <c r="F734">
+        <v>10</v>
+      </c>
+      <c r="G734">
+        <v>27</v>
+      </c>
+      <c r="H734">
+        <v>0</v>
+      </c>
+      <c r="I734">
+        <v>10</v>
+      </c>
+      <c r="J734">
+        <v>0</v>
+      </c>
+      <c r="K734">
+        <v>5</v>
+      </c>
       <c r="L734">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="735" spans="3:12" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="M734">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="735" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A735">
+        <v>164</v>
+      </c>
+      <c r="B735" t="s">
+        <v>14</v>
+      </c>
+      <c r="C735" t="s">
+        <v>28</v>
+      </c>
+      <c r="D735">
+        <v>10</v>
+      </c>
+      <c r="E735">
+        <v>2</v>
+      </c>
+      <c r="F735">
+        <v>0</v>
+      </c>
+      <c r="G735">
+        <v>8</v>
+      </c>
+      <c r="H735">
+        <v>0</v>
+      </c>
+      <c r="I735">
+        <v>16</v>
+      </c>
+      <c r="J735">
+        <v>8</v>
+      </c>
+      <c r="K735">
+        <v>0</v>
+      </c>
       <c r="L735">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="736" spans="3:12" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="M735">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="736" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A736">
+        <v>164</v>
+      </c>
+      <c r="B736" t="s">
+        <v>26</v>
+      </c>
+      <c r="C736" t="s">
+        <v>30</v>
+      </c>
+      <c r="D736">
+        <v>10</v>
+      </c>
+      <c r="E736">
+        <v>0</v>
+      </c>
+      <c r="F736">
+        <v>7</v>
+      </c>
+      <c r="G736">
+        <v>3</v>
+      </c>
+      <c r="H736">
+        <v>6</v>
+      </c>
+      <c r="I736">
+        <v>0</v>
+      </c>
+      <c r="J736">
+        <v>10</v>
+      </c>
+      <c r="K736">
+        <v>6</v>
+      </c>
       <c r="L736">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="737" spans="12:12" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="M736">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="737" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A737">
+        <v>164</v>
+      </c>
+      <c r="B737" t="s">
+        <v>15</v>
+      </c>
+      <c r="C737" t="s">
+        <v>33</v>
+      </c>
+      <c r="D737">
+        <v>1</v>
+      </c>
+      <c r="E737">
+        <v>5</v>
+      </c>
+      <c r="F737">
+        <v>2</v>
+      </c>
+      <c r="G737">
+        <v>6</v>
+      </c>
+      <c r="H737">
+        <v>0</v>
+      </c>
+      <c r="I737">
+        <v>36</v>
+      </c>
+      <c r="J737">
+        <v>9</v>
+      </c>
+      <c r="K737">
+        <v>12</v>
+      </c>
       <c r="L737">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="738" spans="12:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="M737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A738">
+        <v>164</v>
+      </c>
+      <c r="B738" t="s">
+        <v>37</v>
+      </c>
+      <c r="C738" t="s">
+        <v>32</v>
+      </c>
+      <c r="D738">
+        <v>-3</v>
+      </c>
+      <c r="E738">
+        <v>15</v>
+      </c>
+      <c r="F738">
+        <v>10</v>
+      </c>
+      <c r="G738">
+        <v>18</v>
+      </c>
+      <c r="H738">
+        <v>6</v>
+      </c>
+      <c r="I738">
+        <v>0</v>
+      </c>
+      <c r="J738">
+        <v>22</v>
+      </c>
+      <c r="K738">
+        <v>2</v>
+      </c>
       <c r="L738">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="739" spans="12:12" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="M738">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="739" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A739">
+        <v>165</v>
+      </c>
+      <c r="B739" t="s">
+        <v>13</v>
+      </c>
+      <c r="C739" t="s">
+        <v>29</v>
+      </c>
+      <c r="D739">
+        <v>18</v>
+      </c>
+      <c r="E739">
+        <v>-1</v>
+      </c>
+      <c r="F739">
+        <v>3</v>
+      </c>
+      <c r="G739">
+        <v>6</v>
+      </c>
+      <c r="H739">
+        <v>0</v>
+      </c>
+      <c r="I739">
+        <v>48</v>
+      </c>
+      <c r="J739">
+        <v>8</v>
+      </c>
+      <c r="K739">
+        <v>2</v>
+      </c>
       <c r="L739">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="740" spans="12:12" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="M739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A740">
+        <v>165</v>
+      </c>
+      <c r="B740" t="s">
+        <v>14</v>
+      </c>
+      <c r="C740" t="s">
+        <v>36</v>
+      </c>
+      <c r="D740">
+        <v>-5</v>
+      </c>
+      <c r="E740">
+        <v>1</v>
+      </c>
+      <c r="F740">
+        <v>17</v>
+      </c>
+      <c r="G740">
+        <v>5</v>
+      </c>
+      <c r="H740">
+        <v>10</v>
+      </c>
+      <c r="I740">
+        <v>1</v>
+      </c>
+      <c r="J740">
+        <v>0</v>
+      </c>
+      <c r="K740">
+        <v>5</v>
+      </c>
       <c r="L740">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="741" spans="12:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="M740">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="741" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A741">
+        <v>165</v>
+      </c>
+      <c r="B741" t="s">
+        <v>26</v>
+      </c>
+      <c r="C741" t="s">
+        <v>30</v>
+      </c>
+      <c r="D741">
+        <v>17</v>
+      </c>
+      <c r="E741">
+        <v>-3</v>
+      </c>
+      <c r="F741">
+        <v>3</v>
+      </c>
+      <c r="G741">
+        <v>5</v>
+      </c>
+      <c r="H741">
+        <v>0</v>
+      </c>
+      <c r="I741">
+        <v>10</v>
+      </c>
+      <c r="J741">
+        <v>10</v>
+      </c>
+      <c r="K741">
+        <v>7</v>
+      </c>
       <c r="L741">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="742" spans="12:12" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="M741">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="742" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A742">
+        <v>165</v>
+      </c>
+      <c r="B742" t="s">
+        <v>15</v>
+      </c>
+      <c r="C742" t="s">
+        <v>28</v>
+      </c>
+      <c r="D742">
+        <v>0</v>
+      </c>
+      <c r="E742">
+        <v>6</v>
+      </c>
+      <c r="F742">
+        <v>7</v>
+      </c>
+      <c r="G742">
+        <v>20</v>
+      </c>
+      <c r="H742">
+        <v>3</v>
+      </c>
+      <c r="I742">
+        <v>0</v>
+      </c>
+      <c r="J742">
+        <v>6</v>
+      </c>
+      <c r="K742">
+        <v>12</v>
+      </c>
       <c r="L742">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="743" spans="12:12" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="M742">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="743" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A743">
+        <v>165</v>
+      </c>
+      <c r="B743" t="s">
+        <v>37</v>
+      </c>
+      <c r="C743" t="s">
+        <v>34</v>
+      </c>
+      <c r="D743">
+        <v>-2</v>
+      </c>
+      <c r="E743">
+        <v>4</v>
+      </c>
+      <c r="F743">
+        <v>3</v>
+      </c>
+      <c r="G743">
+        <v>33</v>
+      </c>
+      <c r="H743">
+        <v>1</v>
+      </c>
+      <c r="I743">
+        <v>0</v>
+      </c>
+      <c r="J743">
+        <v>8</v>
+      </c>
+      <c r="K743">
+        <v>1</v>
+      </c>
       <c r="L743">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="744" spans="12:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="M743">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="744" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A744">
+        <v>166</v>
+      </c>
+      <c r="B744" t="s">
+        <v>13</v>
+      </c>
+      <c r="C744" t="s">
+        <v>28</v>
+      </c>
+      <c r="D744">
+        <v>2</v>
+      </c>
+      <c r="E744">
+        <v>1</v>
+      </c>
+      <c r="F744">
+        <v>7</v>
+      </c>
+      <c r="G744">
+        <v>11</v>
+      </c>
+      <c r="H744">
+        <v>3</v>
+      </c>
+      <c r="I744">
+        <v>0</v>
+      </c>
+      <c r="J744">
+        <v>22</v>
+      </c>
+      <c r="K744">
+        <v>4</v>
+      </c>
       <c r="L744">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="745" spans="12:12" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="M744">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="745" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A745">
+        <v>166</v>
+      </c>
+      <c r="B745" t="s">
+        <v>11</v>
+      </c>
+      <c r="C745" t="s">
+        <v>30</v>
+      </c>
+      <c r="D745">
+        <v>16</v>
+      </c>
+      <c r="E745">
+        <v>3</v>
+      </c>
+      <c r="F745">
+        <v>7</v>
+      </c>
+      <c r="G745">
+        <v>14</v>
+      </c>
+      <c r="H745">
+        <v>2</v>
+      </c>
+      <c r="I745">
+        <v>0</v>
+      </c>
+      <c r="J745">
+        <v>5</v>
+      </c>
+      <c r="K745">
+        <v>5</v>
+      </c>
       <c r="L745">
-        <f t="shared" ref="L745:L771" si="11">SUM(D745:K745)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="746" spans="12:12" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L745:L808" si="11">SUM(D745:K745)</f>
+        <v>52</v>
+      </c>
+      <c r="M745">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="746" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A746">
+        <v>166</v>
+      </c>
+      <c r="B746" t="s">
+        <v>14</v>
+      </c>
+      <c r="C746" t="s">
+        <v>35</v>
+      </c>
+      <c r="D746">
+        <v>-6</v>
+      </c>
+      <c r="E746">
+        <v>5</v>
+      </c>
+      <c r="F746">
+        <v>13</v>
+      </c>
+      <c r="G746">
+        <v>4</v>
+      </c>
+      <c r="H746">
+        <v>0</v>
+      </c>
+      <c r="I746">
+        <v>29</v>
+      </c>
+      <c r="J746">
+        <v>8</v>
+      </c>
+      <c r="K746">
+        <v>0</v>
+      </c>
       <c r="L746">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="747" spans="12:12" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="M746">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="747" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A747">
+        <v>166</v>
+      </c>
+      <c r="B747" t="s">
+        <v>15</v>
+      </c>
+      <c r="C747" t="s">
+        <v>33</v>
+      </c>
+      <c r="D747">
+        <v>18</v>
+      </c>
+      <c r="E747">
+        <v>-1</v>
+      </c>
+      <c r="F747">
+        <v>3</v>
+      </c>
+      <c r="G747">
+        <v>0</v>
+      </c>
+      <c r="H747">
+        <v>0</v>
+      </c>
+      <c r="I747">
+        <v>36</v>
+      </c>
+      <c r="J747">
+        <v>0</v>
+      </c>
+      <c r="K747">
+        <v>0</v>
+      </c>
       <c r="L747">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="748" spans="12:12" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="M747">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="748" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A748">
+        <v>166</v>
+      </c>
+      <c r="B748" t="s">
+        <v>18</v>
+      </c>
+      <c r="C748" t="s">
+        <v>29</v>
+      </c>
+      <c r="D748">
+        <v>-3</v>
+      </c>
+      <c r="E748">
+        <v>0</v>
+      </c>
+      <c r="F748">
+        <v>3</v>
+      </c>
+      <c r="G748">
+        <v>0</v>
+      </c>
+      <c r="H748">
+        <v>2</v>
+      </c>
+      <c r="I748">
+        <v>48</v>
+      </c>
+      <c r="J748">
+        <v>7</v>
+      </c>
+      <c r="K748">
+        <v>7</v>
+      </c>
       <c r="L748">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="749" spans="12:12" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="M748">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="749" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A749">
+        <v>166</v>
+      </c>
+      <c r="B749" t="s">
+        <v>37</v>
+      </c>
+      <c r="C749" t="s">
+        <v>32</v>
+      </c>
+      <c r="D749">
+        <v>-3</v>
+      </c>
+      <c r="E749">
+        <v>2</v>
+      </c>
+      <c r="F749">
+        <v>10</v>
+      </c>
+      <c r="G749">
+        <v>37</v>
+      </c>
+      <c r="H749">
+        <v>3</v>
+      </c>
+      <c r="I749">
+        <v>0</v>
+      </c>
+      <c r="J749">
+        <v>0</v>
+      </c>
+      <c r="K749">
+        <v>9</v>
+      </c>
       <c r="L749">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="750" spans="12:12" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="M749">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="750" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A750">
+        <v>166</v>
+      </c>
+      <c r="B750" t="s">
+        <v>26</v>
+      </c>
+      <c r="C750" t="s">
+        <v>31</v>
+      </c>
+      <c r="D750">
+        <v>12</v>
+      </c>
+      <c r="E750">
+        <v>1</v>
+      </c>
+      <c r="F750">
+        <v>5</v>
+      </c>
+      <c r="G750">
+        <v>18</v>
+      </c>
+      <c r="H750">
+        <v>0</v>
+      </c>
+      <c r="I750">
+        <v>2</v>
+      </c>
+      <c r="J750">
+        <v>8</v>
+      </c>
+      <c r="K750">
+        <v>18</v>
+      </c>
       <c r="L750">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="751" spans="12:12" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="M750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A751">
+        <v>167</v>
+      </c>
+      <c r="B751" t="s">
+        <v>13</v>
+      </c>
+      <c r="C751" t="s">
+        <v>35</v>
+      </c>
+      <c r="D751">
+        <v>11</v>
+      </c>
+      <c r="E751">
+        <v>13</v>
+      </c>
+      <c r="F751">
+        <v>20</v>
+      </c>
+      <c r="G751">
+        <v>12</v>
+      </c>
+      <c r="H751">
+        <v>13</v>
+      </c>
+      <c r="I751">
+        <v>0</v>
+      </c>
+      <c r="J751">
+        <v>0</v>
+      </c>
+      <c r="K751">
+        <v>4</v>
+      </c>
       <c r="L751">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="752" spans="12:12" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="M751">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A752">
+        <v>167</v>
+      </c>
+      <c r="B752" t="s">
+        <v>11</v>
+      </c>
+      <c r="C752" t="s">
+        <v>31</v>
+      </c>
+      <c r="D752">
+        <v>-5</v>
+      </c>
+      <c r="E752">
+        <v>5</v>
+      </c>
+      <c r="F752">
+        <v>5</v>
+      </c>
+      <c r="G752">
+        <v>22</v>
+      </c>
+      <c r="H752">
+        <v>9</v>
+      </c>
+      <c r="I752">
+        <v>0</v>
+      </c>
+      <c r="J752">
+        <v>13</v>
+      </c>
+      <c r="K752">
+        <v>15</v>
+      </c>
       <c r="L752">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="753" spans="12:12" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="M752">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="753" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A753">
+        <v>167</v>
+      </c>
+      <c r="B753" t="s">
+        <v>14</v>
+      </c>
+      <c r="C753" t="s">
+        <v>28</v>
+      </c>
+      <c r="D753">
+        <v>10</v>
+      </c>
+      <c r="E753">
+        <v>0</v>
+      </c>
+      <c r="F753">
+        <v>7</v>
+      </c>
+      <c r="G753">
+        <v>8</v>
+      </c>
+      <c r="H753">
+        <v>0</v>
+      </c>
+      <c r="I753">
+        <v>26</v>
+      </c>
+      <c r="J753">
+        <v>9</v>
+      </c>
+      <c r="K753">
+        <v>0</v>
+      </c>
       <c r="L753">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="754" spans="12:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="M753">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="754" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A754">
+        <v>167</v>
+      </c>
+      <c r="B754" t="s">
+        <v>15</v>
+      </c>
+      <c r="C754" t="s">
+        <v>33</v>
+      </c>
+      <c r="D754">
+        <v>-3</v>
+      </c>
+      <c r="E754">
+        <v>0</v>
+      </c>
+      <c r="F754">
+        <v>3</v>
+      </c>
+      <c r="G754">
+        <v>19</v>
+      </c>
+      <c r="H754">
+        <v>0</v>
+      </c>
+      <c r="I754">
+        <v>48</v>
+      </c>
+      <c r="J754">
+        <v>0</v>
+      </c>
+      <c r="K754">
+        <v>2</v>
+      </c>
       <c r="L754">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="755" spans="12:12" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="M754">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="755" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A755">
+        <v>167</v>
+      </c>
+      <c r="B755" t="s">
+        <v>18</v>
+      </c>
+      <c r="C755" t="s">
+        <v>32</v>
+      </c>
+      <c r="D755">
+        <v>14</v>
+      </c>
+      <c r="E755">
+        <v>10</v>
+      </c>
+      <c r="F755">
+        <v>10</v>
+      </c>
+      <c r="G755">
+        <v>0</v>
+      </c>
+      <c r="H755">
+        <v>0</v>
+      </c>
+      <c r="I755">
+        <v>0</v>
+      </c>
+      <c r="J755">
+        <v>8</v>
+      </c>
+      <c r="K755">
+        <v>0</v>
+      </c>
       <c r="L755">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="756" spans="12:12" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="M755">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="756" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A756">
+        <v>167</v>
+      </c>
+      <c r="B756" t="s">
+        <v>37</v>
+      </c>
+      <c r="C756" t="s">
+        <v>34</v>
+      </c>
+      <c r="D756">
+        <v>0</v>
+      </c>
+      <c r="E756">
+        <v>2</v>
+      </c>
+      <c r="F756">
+        <v>7</v>
+      </c>
+      <c r="G756">
+        <v>16</v>
+      </c>
+      <c r="H756">
+        <v>2</v>
+      </c>
+      <c r="I756">
+        <v>0</v>
+      </c>
+      <c r="J756">
+        <v>10</v>
+      </c>
+      <c r="K756">
+        <v>17</v>
+      </c>
       <c r="L756">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="757" spans="12:12" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="M756">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="757" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A757">
+        <v>167</v>
+      </c>
+      <c r="B757" t="s">
+        <v>26</v>
+      </c>
+      <c r="C757" t="s">
+        <v>29</v>
+      </c>
+      <c r="D757">
+        <v>5</v>
+      </c>
+      <c r="E757">
+        <v>1</v>
+      </c>
+      <c r="F757">
+        <v>3</v>
+      </c>
+      <c r="G757">
+        <v>12</v>
+      </c>
+      <c r="H757">
+        <v>4</v>
+      </c>
+      <c r="I757">
+        <v>25</v>
+      </c>
+      <c r="J757">
+        <v>0</v>
+      </c>
+      <c r="K757">
+        <v>2</v>
+      </c>
       <c r="L757">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="758" spans="12:12" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="M757">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="758" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A758">
+        <v>168</v>
+      </c>
+      <c r="B758" t="s">
+        <v>13</v>
+      </c>
+      <c r="C758" t="s">
+        <v>35</v>
+      </c>
+      <c r="D758">
+        <v>6</v>
+      </c>
+      <c r="E758">
+        <v>2</v>
+      </c>
+      <c r="F758">
+        <v>13</v>
+      </c>
+      <c r="G758">
+        <v>14</v>
+      </c>
+      <c r="H758">
+        <v>9</v>
+      </c>
+      <c r="I758">
+        <v>0</v>
+      </c>
+      <c r="J758">
+        <v>8</v>
+      </c>
+      <c r="K758">
+        <v>17</v>
+      </c>
       <c r="L758">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="759" spans="12:12" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="M758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A759">
+        <v>168</v>
+      </c>
+      <c r="B759" t="s">
+        <v>11</v>
+      </c>
+      <c r="C759" t="s">
+        <v>33</v>
+      </c>
+      <c r="D759">
+        <v>18</v>
+      </c>
+      <c r="E759">
+        <v>-3</v>
+      </c>
+      <c r="F759">
+        <v>3</v>
+      </c>
+      <c r="G759">
+        <v>13</v>
+      </c>
+      <c r="H759">
+        <v>0</v>
+      </c>
+      <c r="I759">
+        <v>9</v>
+      </c>
+      <c r="J759">
+        <v>9</v>
+      </c>
+      <c r="K759">
+        <v>11</v>
+      </c>
       <c r="L759">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="760" spans="12:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="M759">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="760" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A760">
+        <v>168</v>
+      </c>
+      <c r="B760" t="s">
+        <v>14</v>
+      </c>
+      <c r="C760" t="s">
+        <v>30</v>
+      </c>
+      <c r="D760">
+        <v>-1</v>
+      </c>
+      <c r="E760">
+        <v>3</v>
+      </c>
+      <c r="F760">
+        <v>7</v>
+      </c>
+      <c r="G760">
+        <v>17</v>
+      </c>
+      <c r="H760">
+        <v>0</v>
+      </c>
+      <c r="I760">
+        <v>0</v>
+      </c>
+      <c r="J760">
+        <v>20</v>
+      </c>
+      <c r="K760">
+        <v>2</v>
+      </c>
       <c r="L760">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="761" spans="12:12" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="M760">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="761" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A761">
+        <v>168</v>
+      </c>
+      <c r="B761" t="s">
+        <v>15</v>
+      </c>
+      <c r="C761" t="s">
+        <v>32</v>
+      </c>
+      <c r="D761">
+        <v>13</v>
+      </c>
+      <c r="E761">
+        <v>6</v>
+      </c>
+      <c r="F761">
+        <v>10</v>
+      </c>
+      <c r="G761">
+        <v>0</v>
+      </c>
+      <c r="H761">
+        <v>3</v>
+      </c>
+      <c r="I761">
+        <v>5</v>
+      </c>
+      <c r="J761">
+        <v>0</v>
+      </c>
+      <c r="K761">
+        <v>1</v>
+      </c>
       <c r="L761">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="762" spans="12:12" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="M761">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="762" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A762">
+        <v>168</v>
+      </c>
+      <c r="B762" t="s">
+        <v>18</v>
+      </c>
+      <c r="C762" t="s">
+        <v>31</v>
+      </c>
+      <c r="D762">
+        <v>7</v>
+      </c>
+      <c r="E762">
+        <v>6</v>
+      </c>
+      <c r="F762">
+        <v>5</v>
+      </c>
+      <c r="G762">
+        <v>14</v>
+      </c>
+      <c r="H762">
+        <v>8</v>
+      </c>
+      <c r="I762">
+        <v>0</v>
+      </c>
+      <c r="J762">
+        <v>7</v>
+      </c>
+      <c r="K762">
+        <v>0</v>
+      </c>
       <c r="L762">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="763" spans="12:12" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="M762">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="763" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A763">
+        <v>168</v>
+      </c>
+      <c r="B763" t="s">
+        <v>37</v>
+      </c>
+      <c r="C763" t="s">
+        <v>29</v>
+      </c>
+      <c r="D763">
+        <v>6</v>
+      </c>
+      <c r="E763">
+        <v>2</v>
+      </c>
+      <c r="F763">
+        <v>3</v>
+      </c>
+      <c r="G763">
+        <v>18</v>
+      </c>
+      <c r="H763">
+        <v>0</v>
+      </c>
+      <c r="I763">
+        <v>2</v>
+      </c>
+      <c r="J763">
+        <v>3</v>
+      </c>
+      <c r="K763">
+        <v>0</v>
+      </c>
       <c r="L763">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="764" spans="12:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="M763">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="764" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A764">
+        <v>168</v>
+      </c>
+      <c r="B764" t="s">
+        <v>26</v>
+      </c>
+      <c r="C764" t="s">
+        <v>28</v>
+      </c>
+      <c r="D764">
+        <v>-6</v>
+      </c>
+      <c r="E764">
+        <v>8</v>
+      </c>
+      <c r="F764">
+        <v>7</v>
+      </c>
+      <c r="G764">
+        <v>22</v>
+      </c>
+      <c r="H764">
+        <v>0</v>
+      </c>
+      <c r="I764">
+        <v>26</v>
+      </c>
+      <c r="J764">
+        <v>0</v>
+      </c>
+      <c r="K764">
+        <v>7</v>
+      </c>
       <c r="L764">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="765" spans="12:12" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="M764">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="765" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A765">
+        <v>169</v>
+      </c>
+      <c r="B765" t="s">
+        <v>13</v>
+      </c>
+      <c r="C765" t="s">
+        <v>30</v>
+      </c>
+      <c r="D765">
+        <v>15</v>
+      </c>
+      <c r="E765">
+        <v>1</v>
+      </c>
+      <c r="F765">
+        <v>7</v>
+      </c>
+      <c r="G765">
+        <v>18</v>
+      </c>
+      <c r="H765">
+        <v>6</v>
+      </c>
+      <c r="I765">
+        <v>0</v>
+      </c>
+      <c r="J765">
+        <v>5</v>
+      </c>
+      <c r="K765">
+        <v>8</v>
+      </c>
       <c r="L765">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="766" spans="12:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="M765">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="766" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A766">
+        <v>169</v>
+      </c>
+      <c r="B766" t="s">
+        <v>11</v>
+      </c>
+      <c r="C766" t="s">
+        <v>33</v>
+      </c>
+      <c r="D766">
+        <v>6</v>
+      </c>
+      <c r="E766">
+        <v>1</v>
+      </c>
+      <c r="F766">
+        <v>3</v>
+      </c>
+      <c r="G766">
+        <v>6</v>
+      </c>
+      <c r="H766">
+        <v>4</v>
+      </c>
+      <c r="I766">
+        <v>48</v>
+      </c>
+      <c r="J766">
+        <v>0</v>
+      </c>
+      <c r="K766">
+        <v>0</v>
+      </c>
       <c r="L766">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="767" spans="12:12" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="M766">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="767" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A767">
+        <v>169</v>
+      </c>
+      <c r="B767" t="s">
+        <v>37</v>
+      </c>
+      <c r="C767" t="s">
+        <v>36</v>
+      </c>
+      <c r="D767">
+        <v>-4</v>
+      </c>
+      <c r="E767">
+        <v>2</v>
+      </c>
+      <c r="F767">
+        <v>17</v>
+      </c>
+      <c r="G767">
+        <v>37</v>
+      </c>
+      <c r="H767">
+        <v>3</v>
+      </c>
+      <c r="I767">
+        <v>0</v>
+      </c>
+      <c r="J767">
+        <v>0</v>
+      </c>
+      <c r="K767">
+        <v>1</v>
+      </c>
       <c r="L767">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="768" spans="12:12" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="M767">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="768" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A768">
+        <v>169</v>
+      </c>
+      <c r="B768" t="s">
+        <v>14</v>
+      </c>
+      <c r="C768" t="s">
+        <v>28</v>
+      </c>
+      <c r="D768">
+        <v>9</v>
+      </c>
+      <c r="E768">
+        <v>4</v>
+      </c>
+      <c r="F768">
+        <v>7</v>
+      </c>
+      <c r="G768">
+        <v>12</v>
+      </c>
+      <c r="H768">
+        <v>4</v>
+      </c>
+      <c r="I768">
+        <v>0</v>
+      </c>
+      <c r="J768">
+        <v>5</v>
+      </c>
+      <c r="K768">
+        <v>4</v>
+      </c>
       <c r="L768">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="769" spans="12:12" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="M768">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="769" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A769">
+        <v>169</v>
+      </c>
+      <c r="B769" t="s">
+        <v>15</v>
+      </c>
+      <c r="C769" t="s">
+        <v>31</v>
+      </c>
+      <c r="D769">
+        <v>12</v>
+      </c>
+      <c r="E769">
+        <v>2</v>
+      </c>
+      <c r="F769">
+        <v>5</v>
+      </c>
+      <c r="G769">
+        <v>0</v>
+      </c>
+      <c r="H769">
+        <v>3</v>
+      </c>
+      <c r="I769">
+        <v>0</v>
+      </c>
+      <c r="J769">
+        <v>13</v>
+      </c>
+      <c r="K769">
+        <v>8</v>
+      </c>
       <c r="L769">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="770" spans="12:12" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="M769">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="770" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A770">
+        <v>169</v>
+      </c>
+      <c r="B770" t="s">
+        <v>26</v>
+      </c>
+      <c r="C770" t="s">
+        <v>32</v>
+      </c>
+      <c r="D770">
+        <v>-6</v>
+      </c>
+      <c r="E770">
+        <v>4</v>
+      </c>
+      <c r="F770">
+        <v>2</v>
+      </c>
+      <c r="G770">
+        <v>0</v>
+      </c>
+      <c r="H770">
+        <v>3</v>
+      </c>
+      <c r="I770">
+        <v>55</v>
+      </c>
+      <c r="J770">
+        <v>6</v>
+      </c>
+      <c r="K770">
+        <v>4</v>
+      </c>
       <c r="L770">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="771" spans="12:12" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="M770">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A771">
+        <v>170</v>
+      </c>
+      <c r="B771" t="s">
+        <v>13</v>
+      </c>
+      <c r="C771" t="s">
+        <v>32</v>
+      </c>
+      <c r="D771">
+        <v>-4</v>
+      </c>
+      <c r="E771">
+        <v>5</v>
+      </c>
+      <c r="F771">
+        <v>10</v>
+      </c>
+      <c r="G771">
+        <v>11</v>
+      </c>
+      <c r="H771">
+        <v>0</v>
+      </c>
+      <c r="I771">
+        <v>20</v>
+      </c>
+      <c r="J771">
+        <v>6</v>
+      </c>
+      <c r="K771">
+        <v>7</v>
+      </c>
       <c r="L771">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="M771">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="772" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A772">
+        <v>170</v>
+      </c>
+      <c r="B772" t="s">
+        <v>11</v>
+      </c>
+      <c r="C772" t="s">
+        <v>31</v>
+      </c>
+      <c r="D772">
+        <v>-1</v>
+      </c>
+      <c r="E772">
+        <v>-4</v>
+      </c>
+      <c r="F772">
+        <v>5</v>
+      </c>
+      <c r="G772">
+        <v>32</v>
+      </c>
+      <c r="H772">
+        <v>0</v>
+      </c>
+      <c r="I772">
+        <v>0</v>
+      </c>
+      <c r="J772">
+        <v>19</v>
+      </c>
+      <c r="K772">
+        <v>12</v>
+      </c>
+      <c r="L772">
+        <f t="shared" si="11"/>
+        <v>63</v>
+      </c>
+      <c r="M772">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="773" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A773">
+        <v>170</v>
+      </c>
+      <c r="B773" t="s">
+        <v>37</v>
+      </c>
+      <c r="C773" t="s">
+        <v>30</v>
+      </c>
+      <c r="D773">
+        <v>17</v>
+      </c>
+      <c r="E773">
+        <v>5</v>
+      </c>
+      <c r="F773">
+        <v>7</v>
+      </c>
+      <c r="G773">
+        <v>16</v>
+      </c>
+      <c r="H773">
+        <v>8</v>
+      </c>
+      <c r="I773">
+        <v>0</v>
+      </c>
+      <c r="J773">
+        <v>8</v>
+      </c>
+      <c r="K773">
+        <v>0</v>
+      </c>
+      <c r="L773">
+        <f t="shared" si="11"/>
+        <v>61</v>
+      </c>
+      <c r="M773">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="774" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A774">
+        <v>170</v>
+      </c>
+      <c r="B774" t="s">
+        <v>26</v>
+      </c>
+      <c r="C774" t="s">
+        <v>33</v>
+      </c>
+      <c r="D774">
+        <v>-4</v>
+      </c>
+      <c r="E774">
+        <v>2</v>
+      </c>
+      <c r="F774">
+        <v>3</v>
+      </c>
+      <c r="G774">
+        <v>4</v>
+      </c>
+      <c r="H774">
+        <v>2</v>
+      </c>
+      <c r="I774">
+        <v>48</v>
+      </c>
+      <c r="J774">
+        <v>5</v>
+      </c>
+      <c r="K774">
+        <v>3</v>
+      </c>
+      <c r="L774">
+        <f t="shared" si="11"/>
+        <v>63</v>
+      </c>
+      <c r="M774">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A775">
+        <v>170</v>
+      </c>
+      <c r="B775" t="s">
+        <v>15</v>
+      </c>
+      <c r="C775" t="s">
+        <v>36</v>
+      </c>
+      <c r="D775">
+        <v>7</v>
+      </c>
+      <c r="E775">
+        <v>2</v>
+      </c>
+      <c r="F775">
+        <v>17</v>
+      </c>
+      <c r="G775">
+        <v>13</v>
+      </c>
+      <c r="H775">
+        <v>4</v>
+      </c>
+      <c r="I775">
+        <v>0</v>
+      </c>
+      <c r="J775">
+        <v>11</v>
+      </c>
+      <c r="K775">
+        <v>0</v>
+      </c>
+      <c r="L775">
+        <f t="shared" si="11"/>
+        <v>54</v>
+      </c>
+      <c r="M775">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="776" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A776">
+        <v>170</v>
+      </c>
+      <c r="B776" t="s">
+        <v>46</v>
+      </c>
+      <c r="C776" t="s">
+        <v>35</v>
+      </c>
+      <c r="D776">
+        <v>15</v>
+      </c>
+      <c r="E776">
+        <v>2</v>
+      </c>
+      <c r="F776">
+        <v>20</v>
+      </c>
+      <c r="G776">
+        <v>12</v>
+      </c>
+      <c r="H776">
+        <v>4</v>
+      </c>
+      <c r="I776">
+        <v>0</v>
+      </c>
+      <c r="J776">
+        <v>0</v>
+      </c>
+      <c r="K776">
+        <v>0</v>
+      </c>
+      <c r="L776">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+      <c r="M776">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="777" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A777">
+        <v>171</v>
+      </c>
+      <c r="B777" t="s">
+        <v>13</v>
+      </c>
+      <c r="C777" t="s">
+        <v>32</v>
+      </c>
+      <c r="D777">
+        <v>7</v>
+      </c>
+      <c r="E777">
+        <v>5</v>
+      </c>
+      <c r="F777">
+        <v>10</v>
+      </c>
+      <c r="G777">
+        <v>17</v>
+      </c>
+      <c r="H777">
+        <v>0</v>
+      </c>
+      <c r="I777">
+        <v>9</v>
+      </c>
+      <c r="J777">
+        <v>5</v>
+      </c>
+      <c r="K777">
+        <v>2</v>
+      </c>
+      <c r="L777">
+        <f t="shared" si="11"/>
+        <v>55</v>
+      </c>
+      <c r="M777">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="778" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A778">
+        <v>171</v>
+      </c>
+      <c r="B778" t="s">
+        <v>26</v>
+      </c>
+      <c r="C778" t="s">
+        <v>31</v>
+      </c>
+      <c r="D778">
+        <v>5</v>
+      </c>
+      <c r="E778">
+        <v>1</v>
+      </c>
+      <c r="F778">
+        <v>5</v>
+      </c>
+      <c r="G778">
+        <v>9</v>
+      </c>
+      <c r="H778">
+        <v>7</v>
+      </c>
+      <c r="I778">
+        <v>10</v>
+      </c>
+      <c r="J778">
+        <v>8</v>
+      </c>
+      <c r="K778">
+        <v>6</v>
+      </c>
+      <c r="L778">
+        <f t="shared" si="11"/>
+        <v>51</v>
+      </c>
+      <c r="M778">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="779" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A779">
+        <v>171</v>
+      </c>
+      <c r="B779" t="s">
+        <v>14</v>
+      </c>
+      <c r="C779" t="s">
+        <v>36</v>
+      </c>
+      <c r="D779">
+        <v>8</v>
+      </c>
+      <c r="E779">
+        <v>4</v>
+      </c>
+      <c r="F779">
+        <v>17</v>
+      </c>
+      <c r="G779">
+        <v>17</v>
+      </c>
+      <c r="H779">
+        <v>0</v>
+      </c>
+      <c r="I779">
+        <v>0</v>
+      </c>
+      <c r="J779">
+        <v>8</v>
+      </c>
+      <c r="K779">
+        <v>8</v>
+      </c>
+      <c r="L779">
+        <f t="shared" si="11"/>
+        <v>62</v>
+      </c>
+      <c r="M779">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A780">
+        <v>171</v>
+      </c>
+      <c r="B780" t="s">
+        <v>15</v>
+      </c>
+      <c r="C780" t="s">
+        <v>33</v>
+      </c>
+      <c r="D780">
+        <v>-4</v>
+      </c>
+      <c r="E780">
+        <v>0</v>
+      </c>
+      <c r="F780">
+        <v>3</v>
+      </c>
+      <c r="G780">
+        <v>0</v>
+      </c>
+      <c r="H780">
+        <v>0</v>
+      </c>
+      <c r="I780">
+        <v>48</v>
+      </c>
+      <c r="J780">
+        <v>6</v>
+      </c>
+      <c r="K780">
+        <v>8</v>
+      </c>
+      <c r="L780">
+        <f t="shared" si="11"/>
+        <v>61</v>
+      </c>
+      <c r="M780">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="781" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A781">
+        <v>171</v>
+      </c>
+      <c r="B781" t="s">
+        <v>11</v>
+      </c>
+      <c r="C781" t="s">
+        <v>28</v>
+      </c>
+      <c r="D781">
+        <v>17</v>
+      </c>
+      <c r="E781">
+        <v>2</v>
+      </c>
+      <c r="F781">
+        <v>7</v>
+      </c>
+      <c r="G781">
+        <v>32</v>
+      </c>
+      <c r="H781">
+        <v>3</v>
+      </c>
+      <c r="I781">
+        <v>1</v>
+      </c>
+      <c r="J781">
+        <v>0</v>
+      </c>
+      <c r="K781">
+        <v>0</v>
+      </c>
+      <c r="L781">
+        <f t="shared" si="11"/>
+        <v>62</v>
+      </c>
+      <c r="M781">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="782" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A782">
+        <v>171</v>
+      </c>
+      <c r="B782" t="s">
+        <v>18</v>
+      </c>
+      <c r="C782" t="s">
+        <v>35</v>
+      </c>
+      <c r="D782">
+        <v>-3</v>
+      </c>
+      <c r="E782">
+        <v>6</v>
+      </c>
+      <c r="F782">
+        <v>20</v>
+      </c>
+      <c r="G782">
+        <v>12</v>
+      </c>
+      <c r="H782">
+        <v>0</v>
+      </c>
+      <c r="I782">
+        <v>0</v>
+      </c>
+      <c r="J782">
+        <v>10</v>
+      </c>
+      <c r="K782">
+        <v>2</v>
+      </c>
+      <c r="L782">
+        <f t="shared" si="11"/>
+        <v>47</v>
+      </c>
+      <c r="M782">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="783" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A783">
+        <v>172</v>
+      </c>
+      <c r="B783" t="s">
+        <v>13</v>
+      </c>
+      <c r="C783" t="s">
+        <v>29</v>
+      </c>
+      <c r="D783">
+        <v>0</v>
+      </c>
+      <c r="E783">
+        <v>5</v>
+      </c>
+      <c r="F783">
+        <v>3</v>
+      </c>
+      <c r="G783">
+        <v>18</v>
+      </c>
+      <c r="H783">
+        <v>3</v>
+      </c>
+      <c r="I783">
+        <v>10</v>
+      </c>
+      <c r="J783">
+        <v>6</v>
+      </c>
+      <c r="K783">
+        <v>0</v>
+      </c>
+      <c r="L783">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="M783">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="784" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A784">
+        <v>172</v>
+      </c>
+      <c r="B784" t="s">
+        <v>26</v>
+      </c>
+      <c r="C784" t="s">
+        <v>35</v>
+      </c>
+      <c r="D784">
+        <v>8</v>
+      </c>
+      <c r="E784">
+        <v>0</v>
+      </c>
+      <c r="F784">
+        <v>20</v>
+      </c>
+      <c r="G784">
+        <v>17</v>
+      </c>
+      <c r="H784">
+        <v>3</v>
+      </c>
+      <c r="I784">
+        <v>0</v>
+      </c>
+      <c r="J784">
+        <v>0</v>
+      </c>
+      <c r="K784">
+        <v>2</v>
+      </c>
+      <c r="L784">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="M784">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="785" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A785">
+        <v>172</v>
+      </c>
+      <c r="B785" t="s">
+        <v>14</v>
+      </c>
+      <c r="C785" t="s">
+        <v>28</v>
+      </c>
+      <c r="D785">
+        <v>-2</v>
+      </c>
+      <c r="E785">
+        <v>4</v>
+      </c>
+      <c r="F785">
+        <v>7</v>
+      </c>
+      <c r="G785">
+        <v>6</v>
+      </c>
+      <c r="H785">
+        <v>0</v>
+      </c>
+      <c r="I785">
+        <v>34</v>
+      </c>
+      <c r="J785">
+        <v>0</v>
+      </c>
+      <c r="K785">
+        <v>4</v>
+      </c>
+      <c r="L785">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+      <c r="M785">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="786" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A786">
+        <v>172</v>
+      </c>
+      <c r="B786" t="s">
+        <v>15</v>
+      </c>
+      <c r="C786" t="s">
+        <v>32</v>
+      </c>
+      <c r="D786">
+        <v>18</v>
+      </c>
+      <c r="E786">
+        <v>2</v>
+      </c>
+      <c r="F786">
+        <v>10</v>
+      </c>
+      <c r="G786">
+        <v>17</v>
+      </c>
+      <c r="H786">
+        <v>3</v>
+      </c>
+      <c r="I786">
+        <v>2</v>
+      </c>
+      <c r="J786">
+        <v>0</v>
+      </c>
+      <c r="K786">
+        <v>13</v>
+      </c>
+      <c r="L786">
+        <f t="shared" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="M786">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="787" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A787">
+        <v>172</v>
+      </c>
+      <c r="B787" t="s">
+        <v>11</v>
+      </c>
+      <c r="C787" t="s">
+        <v>33</v>
+      </c>
+      <c r="D787">
+        <v>-6</v>
+      </c>
+      <c r="E787">
+        <v>2</v>
+      </c>
+      <c r="F787">
+        <v>3</v>
+      </c>
+      <c r="G787">
+        <v>13</v>
+      </c>
+      <c r="H787">
+        <v>0</v>
+      </c>
+      <c r="I787">
+        <v>40</v>
+      </c>
+      <c r="J787">
+        <v>19</v>
+      </c>
+      <c r="K787">
+        <v>0</v>
+      </c>
+      <c r="L787">
+        <f t="shared" si="11"/>
+        <v>71</v>
+      </c>
+      <c r="M787">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A788">
+        <v>172</v>
+      </c>
+      <c r="B788" t="s">
+        <v>18</v>
+      </c>
+      <c r="C788" t="s">
+        <v>36</v>
+      </c>
+      <c r="D788">
+        <v>18</v>
+      </c>
+      <c r="E788">
+        <v>1</v>
+      </c>
+      <c r="F788">
+        <v>17</v>
+      </c>
+      <c r="G788">
+        <v>7</v>
+      </c>
+      <c r="H788">
+        <v>0</v>
+      </c>
+      <c r="I788">
+        <v>0</v>
+      </c>
+      <c r="J788">
+        <v>0</v>
+      </c>
+      <c r="K788">
+        <v>9</v>
+      </c>
+      <c r="L788">
+        <f t="shared" si="11"/>
+        <v>52</v>
+      </c>
+      <c r="M788">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="789" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A789">
+        <v>173</v>
+      </c>
+      <c r="B789" t="s">
+        <v>15</v>
+      </c>
+      <c r="C789" t="s">
+        <v>29</v>
+      </c>
+      <c r="D789">
+        <v>9</v>
+      </c>
+      <c r="E789">
+        <v>2</v>
+      </c>
+      <c r="F789">
+        <v>3</v>
+      </c>
+      <c r="G789">
+        <v>9</v>
+      </c>
+      <c r="H789">
+        <v>0</v>
+      </c>
+      <c r="I789">
+        <v>36</v>
+      </c>
+      <c r="J789">
+        <v>5</v>
+      </c>
+      <c r="K789">
+        <v>0</v>
+      </c>
+      <c r="L789">
+        <f t="shared" si="11"/>
+        <v>64</v>
+      </c>
+      <c r="M789">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="790" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A790">
+        <v>173</v>
+      </c>
+      <c r="B790" t="s">
+        <v>18</v>
+      </c>
+      <c r="C790" t="s">
+        <v>33</v>
+      </c>
+      <c r="D790">
+        <v>-4</v>
+      </c>
+      <c r="E790">
+        <v>0</v>
+      </c>
+      <c r="F790">
+        <v>3</v>
+      </c>
+      <c r="G790">
+        <v>6</v>
+      </c>
+      <c r="H790">
+        <v>0</v>
+      </c>
+      <c r="I790">
+        <v>55</v>
+      </c>
+      <c r="J790">
+        <v>0</v>
+      </c>
+      <c r="K790">
+        <v>2</v>
+      </c>
+      <c r="L790">
+        <f t="shared" si="11"/>
+        <v>62</v>
+      </c>
+      <c r="M790">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="791" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A791">
+        <v>173</v>
+      </c>
+      <c r="B791" t="s">
+        <v>20</v>
+      </c>
+      <c r="C791" t="s">
+        <v>32</v>
+      </c>
+      <c r="D791">
+        <v>5</v>
+      </c>
+      <c r="E791">
+        <v>9</v>
+      </c>
+      <c r="F791">
+        <v>10</v>
+      </c>
+      <c r="G791">
+        <v>12</v>
+      </c>
+      <c r="H791">
+        <v>0</v>
+      </c>
+      <c r="I791">
+        <v>0</v>
+      </c>
+      <c r="J791">
+        <v>11</v>
+      </c>
+      <c r="K791">
+        <v>10</v>
+      </c>
+      <c r="L791">
+        <f t="shared" si="11"/>
+        <v>57</v>
+      </c>
+      <c r="M791">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="792" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A792">
+        <v>173</v>
+      </c>
+      <c r="B792" t="s">
+        <v>11</v>
+      </c>
+      <c r="C792" t="s">
+        <v>35</v>
+      </c>
+      <c r="D792">
+        <v>16</v>
+      </c>
+      <c r="E792">
+        <v>4</v>
+      </c>
+      <c r="F792">
+        <v>20</v>
+      </c>
+      <c r="G792">
+        <v>13</v>
+      </c>
+      <c r="H792">
+        <v>8</v>
+      </c>
+      <c r="I792">
+        <v>0</v>
+      </c>
+      <c r="J792">
+        <v>0</v>
+      </c>
+      <c r="K792">
+        <v>5</v>
+      </c>
+      <c r="L792">
+        <f t="shared" si="11"/>
+        <v>66</v>
+      </c>
+      <c r="M792">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A793">
+        <v>173</v>
+      </c>
+      <c r="B793" t="s">
+        <v>26</v>
+      </c>
+      <c r="C793" t="s">
+        <v>28</v>
+      </c>
+      <c r="D793">
+        <v>-4</v>
+      </c>
+      <c r="E793">
+        <v>5</v>
+      </c>
+      <c r="F793">
+        <v>7</v>
+      </c>
+      <c r="G793">
+        <v>13</v>
+      </c>
+      <c r="H793">
+        <v>4</v>
+      </c>
+      <c r="I793">
+        <v>4</v>
+      </c>
+      <c r="J793">
+        <v>12</v>
+      </c>
+      <c r="K793">
+        <v>15</v>
+      </c>
+      <c r="L793">
+        <f t="shared" si="11"/>
+        <v>56</v>
+      </c>
+      <c r="M793">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="794" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A794">
+        <v>174</v>
+      </c>
+      <c r="B794" t="s">
+        <v>13</v>
+      </c>
+      <c r="C794" t="s">
+        <v>28</v>
+      </c>
+      <c r="D794">
+        <v>13</v>
+      </c>
+      <c r="E794">
+        <v>2</v>
+      </c>
+      <c r="F794">
+        <v>7</v>
+      </c>
+      <c r="G794">
+        <v>7</v>
+      </c>
+      <c r="H794">
+        <v>7</v>
+      </c>
+      <c r="I794">
+        <v>16</v>
+      </c>
+      <c r="J794">
+        <v>0</v>
+      </c>
+      <c r="K794">
+        <v>3</v>
+      </c>
+      <c r="L794">
+        <f t="shared" si="11"/>
+        <v>55</v>
+      </c>
+      <c r="M794">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="795" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A795">
+        <v>174</v>
+      </c>
+      <c r="B795" t="s">
+        <v>15</v>
+      </c>
+      <c r="C795" t="s">
+        <v>36</v>
+      </c>
+      <c r="D795">
+        <v>-2</v>
+      </c>
+      <c r="E795">
+        <v>5</v>
+      </c>
+      <c r="F795">
+        <v>17</v>
+      </c>
+      <c r="G795">
+        <v>6</v>
+      </c>
+      <c r="H795">
+        <v>10</v>
+      </c>
+      <c r="I795">
+        <v>0</v>
+      </c>
+      <c r="J795">
+        <v>8</v>
+      </c>
+      <c r="K795">
+        <v>9</v>
+      </c>
+      <c r="L795">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+      <c r="M795">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="796" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A796">
+        <v>174</v>
+      </c>
+      <c r="B796" t="s">
+        <v>20</v>
+      </c>
+      <c r="C796" t="s">
+        <v>31</v>
+      </c>
+      <c r="D796">
+        <v>0</v>
+      </c>
+      <c r="E796">
+        <v>4</v>
+      </c>
+      <c r="F796">
+        <v>5</v>
+      </c>
+      <c r="G796">
+        <v>5</v>
+      </c>
+      <c r="H796">
+        <v>3</v>
+      </c>
+      <c r="I796">
+        <v>0</v>
+      </c>
+      <c r="J796">
+        <v>8</v>
+      </c>
+      <c r="K796">
+        <v>10</v>
+      </c>
+      <c r="L796">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="M796">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="797" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A797">
+        <v>174</v>
+      </c>
+      <c r="B797" t="s">
+        <v>14</v>
+      </c>
+      <c r="C797" t="s">
+        <v>30</v>
+      </c>
+      <c r="D797">
+        <v>17</v>
+      </c>
+      <c r="E797">
+        <v>4</v>
+      </c>
+      <c r="F797">
+        <v>7</v>
+      </c>
+      <c r="G797">
+        <v>20</v>
+      </c>
+      <c r="H797">
+        <v>0</v>
+      </c>
+      <c r="I797">
+        <v>0</v>
+      </c>
+      <c r="J797">
+        <v>8</v>
+      </c>
+      <c r="K797">
+        <v>2</v>
+      </c>
+      <c r="L797">
+        <f t="shared" si="11"/>
+        <v>58</v>
+      </c>
+      <c r="M797">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="798" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A798">
+        <v>174</v>
+      </c>
+      <c r="B798" t="s">
+        <v>11</v>
+      </c>
+      <c r="C798" t="s">
+        <v>32</v>
+      </c>
+      <c r="D798">
+        <v>-6</v>
+      </c>
+      <c r="E798">
+        <v>2</v>
+      </c>
+      <c r="F798">
+        <v>10</v>
+      </c>
+      <c r="G798">
+        <v>15</v>
+      </c>
+      <c r="H798">
+        <v>3</v>
+      </c>
+      <c r="I798">
+        <v>26</v>
+      </c>
+      <c r="J798">
+        <v>9</v>
+      </c>
+      <c r="K798">
+        <v>4</v>
+      </c>
+      <c r="L798">
+        <f t="shared" si="11"/>
+        <v>63</v>
+      </c>
+      <c r="M798">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="799" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A799">
+        <v>174</v>
+      </c>
+      <c r="B799" t="s">
+        <v>26</v>
+      </c>
+      <c r="C799" t="s">
+        <v>33</v>
+      </c>
+      <c r="D799">
+        <v>14</v>
+      </c>
+      <c r="E799">
+        <v>4</v>
+      </c>
+      <c r="F799">
+        <v>3</v>
+      </c>
+      <c r="G799">
+        <v>26</v>
+      </c>
+      <c r="H799">
+        <v>0</v>
+      </c>
+      <c r="I799">
+        <v>26</v>
+      </c>
+      <c r="J799">
+        <v>0</v>
+      </c>
+      <c r="K799">
+        <v>8</v>
+      </c>
+      <c r="L799">
+        <f t="shared" si="11"/>
+        <v>81</v>
+      </c>
+      <c r="M799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A800">
+        <v>174</v>
+      </c>
+      <c r="B800" t="s">
+        <v>18</v>
+      </c>
+      <c r="C800" t="s">
+        <v>29</v>
+      </c>
+      <c r="D800">
+        <v>-2</v>
+      </c>
+      <c r="E800">
+        <v>1</v>
+      </c>
+      <c r="F800">
+        <v>10</v>
+      </c>
+      <c r="G800">
+        <v>0</v>
+      </c>
+      <c r="H800">
+        <v>0</v>
+      </c>
+      <c r="I800">
+        <v>38</v>
+      </c>
+      <c r="J800">
+        <v>0</v>
+      </c>
+      <c r="K800">
+        <v>3</v>
+      </c>
+      <c r="L800">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="M800">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="801" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A801">
+        <v>175</v>
+      </c>
+      <c r="B801" t="s">
+        <v>13</v>
+      </c>
+      <c r="C801" t="s">
+        <v>36</v>
+      </c>
+      <c r="D801">
+        <v>9</v>
+      </c>
+      <c r="E801">
+        <v>2</v>
+      </c>
+      <c r="F801">
+        <v>17</v>
+      </c>
+      <c r="G801">
+        <v>3</v>
+      </c>
+      <c r="H801">
+        <v>6</v>
+      </c>
+      <c r="I801">
+        <v>0</v>
+      </c>
+      <c r="J801">
+        <v>7</v>
+      </c>
+      <c r="K801">
+        <v>6</v>
+      </c>
+      <c r="L801">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="M801">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="802" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A802">
+        <v>175</v>
+      </c>
+      <c r="B802" t="s">
+        <v>15</v>
+      </c>
+      <c r="C802" t="s">
+        <v>33</v>
+      </c>
+      <c r="D802">
+        <v>-6</v>
+      </c>
+      <c r="E802">
+        <v>2</v>
+      </c>
+      <c r="F802">
+        <v>3</v>
+      </c>
+      <c r="G802">
+        <v>9</v>
+      </c>
+      <c r="H802">
+        <v>0</v>
+      </c>
+      <c r="I802">
+        <v>48</v>
+      </c>
+      <c r="J802">
+        <v>0</v>
+      </c>
+      <c r="K802">
+        <v>13</v>
+      </c>
+      <c r="L802">
+        <f t="shared" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="M802">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="803" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A803">
+        <v>175</v>
+      </c>
+      <c r="B803" t="s">
+        <v>20</v>
+      </c>
+      <c r="C803" t="s">
+        <v>34</v>
+      </c>
+      <c r="D803">
+        <v>0</v>
+      </c>
+      <c r="E803">
+        <v>2</v>
+      </c>
+      <c r="F803">
+        <v>7</v>
+      </c>
+      <c r="G803">
+        <v>31</v>
+      </c>
+      <c r="H803">
+        <v>0</v>
+      </c>
+      <c r="I803">
+        <v>0</v>
+      </c>
+      <c r="J803">
+        <v>7</v>
+      </c>
+      <c r="K803">
+        <v>1</v>
+      </c>
+      <c r="L803">
+        <f t="shared" si="11"/>
+        <v>48</v>
+      </c>
+      <c r="M803">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="804" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A804">
+        <v>175</v>
+      </c>
+      <c r="B804" t="s">
+        <v>14</v>
+      </c>
+      <c r="C804" t="s">
+        <v>30</v>
+      </c>
+      <c r="D804">
+        <v>17</v>
+      </c>
+      <c r="E804">
+        <v>1</v>
+      </c>
+      <c r="F804">
+        <v>7</v>
+      </c>
+      <c r="G804">
+        <v>28</v>
+      </c>
+      <c r="H804">
+        <v>0</v>
+      </c>
+      <c r="I804">
+        <v>0</v>
+      </c>
+      <c r="J804">
+        <v>5</v>
+      </c>
+      <c r="K804">
+        <v>0</v>
+      </c>
+      <c r="L804">
+        <f t="shared" si="11"/>
+        <v>58</v>
+      </c>
+      <c r="M804">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="805" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A805">
+        <v>175</v>
+      </c>
+      <c r="B805" t="s">
+        <v>11</v>
+      </c>
+      <c r="C805" t="s">
+        <v>35</v>
+      </c>
+      <c r="D805">
+        <v>7</v>
+      </c>
+      <c r="E805">
+        <v>4</v>
+      </c>
+      <c r="F805">
+        <v>20</v>
+      </c>
+      <c r="G805">
+        <v>17</v>
+      </c>
+      <c r="H805">
+        <v>9</v>
+      </c>
+      <c r="I805">
+        <v>0</v>
+      </c>
+      <c r="J805">
+        <v>15</v>
+      </c>
+      <c r="K805">
+        <v>5</v>
+      </c>
+      <c r="L805">
+        <f t="shared" si="11"/>
+        <v>77</v>
+      </c>
+      <c r="M805">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A806">
+        <v>175</v>
+      </c>
+      <c r="B806" t="s">
+        <v>26</v>
+      </c>
+      <c r="C806" t="s">
+        <v>31</v>
+      </c>
+      <c r="D806">
+        <v>-6</v>
+      </c>
+      <c r="E806">
+        <v>5</v>
+      </c>
+      <c r="F806">
+        <v>5</v>
+      </c>
+      <c r="G806">
+        <v>12</v>
+      </c>
+      <c r="H806">
+        <v>0</v>
+      </c>
+      <c r="I806">
+        <v>50</v>
+      </c>
+      <c r="J806">
+        <v>0</v>
+      </c>
+      <c r="K806">
+        <v>0</v>
+      </c>
+      <c r="L806">
+        <f t="shared" si="11"/>
+        <v>66</v>
+      </c>
+      <c r="M806">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="807" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A807">
+        <v>175</v>
+      </c>
+      <c r="B807" t="s">
+        <v>18</v>
+      </c>
+      <c r="C807" t="s">
+        <v>28</v>
+      </c>
+      <c r="D807">
+        <v>13</v>
+      </c>
+      <c r="E807">
+        <v>0</v>
+      </c>
+      <c r="F807">
+        <v>7</v>
+      </c>
+      <c r="G807">
+        <v>7</v>
+      </c>
+      <c r="H807">
+        <v>7</v>
+      </c>
+      <c r="I807">
+        <v>0</v>
+      </c>
+      <c r="J807">
+        <v>0</v>
+      </c>
+      <c r="K807">
+        <v>8</v>
+      </c>
+      <c r="L807">
+        <f t="shared" si="11"/>
+        <v>42</v>
+      </c>
+      <c r="M807">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="808" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A808">
+        <v>176</v>
+      </c>
+      <c r="B808" t="s">
+        <v>13</v>
+      </c>
+      <c r="C808" t="s">
+        <v>32</v>
+      </c>
+      <c r="D808">
+        <v>8</v>
+      </c>
+      <c r="E808">
+        <v>5</v>
+      </c>
+      <c r="F808">
+        <v>10</v>
+      </c>
+      <c r="G808">
+        <v>25</v>
+      </c>
+      <c r="H808">
+        <v>3</v>
+      </c>
+      <c r="I808">
+        <v>0</v>
+      </c>
+      <c r="J808">
+        <v>13</v>
+      </c>
+      <c r="K808">
+        <v>4</v>
+      </c>
+      <c r="L808">
+        <f t="shared" si="11"/>
+        <v>68</v>
+      </c>
+      <c r="M808">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="809" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A809">
+        <v>176</v>
+      </c>
+      <c r="B809" t="s">
+        <v>15</v>
+      </c>
+      <c r="C809" t="s">
+        <v>28</v>
+      </c>
+      <c r="D809">
+        <v>9</v>
+      </c>
+      <c r="E809">
+        <v>6</v>
+      </c>
+      <c r="F809">
+        <v>7</v>
+      </c>
+      <c r="G809">
+        <v>23</v>
+      </c>
+      <c r="H809">
+        <v>3</v>
+      </c>
+      <c r="I809">
+        <v>0</v>
+      </c>
+      <c r="J809">
+        <v>8</v>
+      </c>
+      <c r="K809">
+        <v>8</v>
+      </c>
+      <c r="L809">
+        <f t="shared" ref="L809:L833" si="12">SUM(D809:K809)</f>
+        <v>64</v>
+      </c>
+      <c r="M809">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="810" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A810">
+        <v>176</v>
+      </c>
+      <c r="B810" t="s">
+        <v>26</v>
+      </c>
+      <c r="C810" t="s">
+        <v>34</v>
+      </c>
+      <c r="D810">
+        <v>-2</v>
+      </c>
+      <c r="E810">
+        <v>1</v>
+      </c>
+      <c r="F810">
+        <v>5</v>
+      </c>
+      <c r="G810">
+        <v>0</v>
+      </c>
+      <c r="H810">
+        <v>4</v>
+      </c>
+      <c r="I810">
+        <v>26</v>
+      </c>
+      <c r="J810">
+        <v>0</v>
+      </c>
+      <c r="K810">
+        <v>5</v>
+      </c>
+      <c r="L810">
+        <f t="shared" si="12"/>
+        <v>39</v>
+      </c>
+      <c r="M810">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="811" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A811">
+        <v>176</v>
+      </c>
+      <c r="B811" t="s">
+        <v>11</v>
+      </c>
+      <c r="C811" t="s">
+        <v>29</v>
+      </c>
+      <c r="D811">
+        <v>17</v>
+      </c>
+      <c r="E811">
+        <v>-2</v>
+      </c>
+      <c r="F811">
+        <v>3</v>
+      </c>
+      <c r="G811">
+        <v>13</v>
+      </c>
+      <c r="H811">
+        <v>6</v>
+      </c>
+      <c r="I811">
+        <v>0</v>
+      </c>
+      <c r="J811">
+        <v>4</v>
+      </c>
+      <c r="K811">
+        <v>8</v>
+      </c>
+      <c r="L811">
+        <f t="shared" si="12"/>
+        <v>49</v>
+      </c>
+      <c r="M811">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="812" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A812">
+        <v>176</v>
+      </c>
+      <c r="B812" t="s">
+        <v>46</v>
+      </c>
+      <c r="C812" t="s">
+        <v>30</v>
+      </c>
+      <c r="D812">
+        <v>6</v>
+      </c>
+      <c r="E812">
+        <v>3</v>
+      </c>
+      <c r="F812">
+        <v>7</v>
+      </c>
+      <c r="G812">
+        <v>18</v>
+      </c>
+      <c r="H812">
+        <v>2</v>
+      </c>
+      <c r="I812">
+        <v>0</v>
+      </c>
+      <c r="J812">
+        <v>0</v>
+      </c>
+      <c r="K812">
+        <v>4</v>
+      </c>
+      <c r="L812">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="M812">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="813" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A813">
+        <v>176</v>
+      </c>
+      <c r="B813" t="s">
+        <v>18</v>
+      </c>
+      <c r="C813" t="s">
+        <v>36</v>
+      </c>
+      <c r="D813">
+        <v>-3</v>
+      </c>
+      <c r="E813">
+        <v>2</v>
+      </c>
+      <c r="F813">
+        <v>17</v>
+      </c>
+      <c r="G813">
+        <v>21</v>
+      </c>
+      <c r="H813">
+        <v>5</v>
+      </c>
+      <c r="I813">
+        <v>0</v>
+      </c>
+      <c r="J813">
+        <v>5</v>
+      </c>
+      <c r="K813">
+        <v>0</v>
+      </c>
+      <c r="L813">
+        <f t="shared" si="12"/>
+        <v>47</v>
+      </c>
+      <c r="M813">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="814" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A814">
+        <v>176</v>
+      </c>
+      <c r="B814" t="s">
+        <v>14</v>
+      </c>
+      <c r="C814" t="s">
+        <v>33</v>
+      </c>
+      <c r="D814">
+        <v>-2</v>
+      </c>
+      <c r="E814">
+        <v>6</v>
+      </c>
+      <c r="F814">
+        <v>3</v>
+      </c>
+      <c r="G814">
+        <v>2</v>
+      </c>
+      <c r="H814">
+        <v>0</v>
+      </c>
+      <c r="I814">
+        <v>48</v>
+      </c>
+      <c r="J814">
+        <v>9</v>
+      </c>
+      <c r="K814">
+        <v>5</v>
+      </c>
+      <c r="L814">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="M814">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A815">
+        <v>177</v>
+      </c>
+      <c r="B815" t="s">
+        <v>15</v>
+      </c>
+      <c r="C815" t="s">
+        <v>35</v>
+      </c>
+      <c r="D815">
+        <v>-5</v>
+      </c>
+      <c r="E815">
+        <v>5</v>
+      </c>
+      <c r="F815">
+        <v>13</v>
+      </c>
+      <c r="G815">
+        <v>37</v>
+      </c>
+      <c r="H815">
+        <v>0</v>
+      </c>
+      <c r="I815">
+        <v>0</v>
+      </c>
+      <c r="J815">
+        <v>8</v>
+      </c>
+      <c r="K815">
+        <v>4</v>
+      </c>
+      <c r="L815">
+        <f t="shared" si="12"/>
+        <v>62</v>
+      </c>
+      <c r="M815">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="816" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A816">
+        <v>177</v>
+      </c>
+      <c r="B816" t="s">
+        <v>11</v>
+      </c>
+      <c r="C816" t="s">
+        <v>32</v>
+      </c>
+      <c r="D816">
+        <v>18</v>
+      </c>
+      <c r="E816">
+        <v>7</v>
+      </c>
+      <c r="F816">
+        <v>10</v>
+      </c>
+      <c r="G816">
+        <v>3</v>
+      </c>
+      <c r="H816">
+        <v>6</v>
+      </c>
+      <c r="I816">
+        <v>10</v>
+      </c>
+      <c r="J816">
+        <v>8</v>
+      </c>
+      <c r="K816">
+        <v>6</v>
+      </c>
+      <c r="L816">
+        <f t="shared" si="12"/>
+        <v>68</v>
+      </c>
+      <c r="M816">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="817" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A817">
+        <v>177</v>
+      </c>
+      <c r="B817" t="s">
+        <v>26</v>
+      </c>
+      <c r="C817" t="s">
+        <v>31</v>
+      </c>
+      <c r="D817">
+        <v>5</v>
+      </c>
+      <c r="E817">
+        <v>0</v>
+      </c>
+      <c r="F817">
+        <v>5</v>
+      </c>
+      <c r="G817">
+        <v>4</v>
+      </c>
+      <c r="H817">
+        <v>0</v>
+      </c>
+      <c r="I817">
+        <v>38</v>
+      </c>
+      <c r="J817">
+        <v>22</v>
+      </c>
+      <c r="K817">
+        <v>0</v>
+      </c>
+      <c r="L817">
+        <f t="shared" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="M817">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A818">
+        <v>178</v>
+      </c>
+      <c r="B818" t="s">
+        <v>13</v>
+      </c>
+      <c r="C818" t="s">
+        <v>30</v>
+      </c>
+      <c r="D818">
+        <v>17</v>
+      </c>
+      <c r="E818">
+        <v>3</v>
+      </c>
+      <c r="F818">
+        <v>7</v>
+      </c>
+      <c r="G818">
+        <v>24</v>
+      </c>
+      <c r="H818">
+        <v>0</v>
+      </c>
+      <c r="I818">
+        <v>0</v>
+      </c>
+      <c r="J818">
+        <v>0</v>
+      </c>
+      <c r="K818">
+        <v>5</v>
+      </c>
+      <c r="L818">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="M818">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="819" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A819">
+        <v>178</v>
+      </c>
+      <c r="B819" t="s">
+        <v>18</v>
+      </c>
+      <c r="C819" t="s">
+        <v>31</v>
+      </c>
+      <c r="D819">
+        <v>6</v>
+      </c>
+      <c r="E819">
+        <v>6</v>
+      </c>
+      <c r="F819">
+        <v>0</v>
+      </c>
+      <c r="G819">
+        <v>15</v>
+      </c>
+      <c r="H819">
+        <v>0</v>
+      </c>
+      <c r="I819">
+        <v>0</v>
+      </c>
+      <c r="J819">
+        <v>5</v>
+      </c>
+      <c r="K819">
+        <v>10</v>
+      </c>
+      <c r="L819">
+        <f t="shared" si="12"/>
+        <v>42</v>
+      </c>
+      <c r="M819">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="820" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A820">
+        <v>178</v>
+      </c>
+      <c r="B820" t="s">
+        <v>14</v>
+      </c>
+      <c r="C820" t="s">
+        <v>33</v>
+      </c>
+      <c r="D820">
+        <v>-2</v>
+      </c>
+      <c r="E820">
+        <v>3</v>
+      </c>
+      <c r="F820">
+        <v>3</v>
+      </c>
+      <c r="G820">
+        <v>0</v>
+      </c>
+      <c r="H820">
+        <v>0</v>
+      </c>
+      <c r="I820">
+        <v>55</v>
+      </c>
+      <c r="J820">
+        <v>6</v>
+      </c>
+      <c r="K820">
+        <v>2</v>
+      </c>
+      <c r="L820">
+        <f t="shared" si="12"/>
+        <v>67</v>
+      </c>
+      <c r="M820">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="821" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A821">
+        <v>178</v>
+      </c>
+      <c r="B821" t="s">
+        <v>37</v>
+      </c>
+      <c r="C821" t="s">
+        <v>32</v>
+      </c>
+      <c r="D821">
+        <v>-4</v>
+      </c>
+      <c r="E821">
+        <v>3</v>
+      </c>
+      <c r="F821">
+        <v>10</v>
+      </c>
+      <c r="G821">
+        <v>33</v>
+      </c>
+      <c r="H821">
+        <v>3</v>
+      </c>
+      <c r="I821">
+        <v>0</v>
+      </c>
+      <c r="J821">
+        <v>8</v>
+      </c>
+      <c r="K821">
+        <v>15</v>
+      </c>
+      <c r="L821">
+        <f t="shared" si="12"/>
+        <v>68</v>
+      </c>
+      <c r="M821">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A822">
+        <v>178</v>
+      </c>
+      <c r="B822" t="s">
+        <v>26</v>
+      </c>
+      <c r="C822" t="s">
+        <v>35</v>
+      </c>
+      <c r="D822">
+        <v>6</v>
+      </c>
+      <c r="E822">
+        <v>7</v>
+      </c>
+      <c r="F822">
+        <v>20</v>
+      </c>
+      <c r="G822">
+        <v>9</v>
+      </c>
+      <c r="H822">
+        <v>4</v>
+      </c>
+      <c r="I822">
+        <v>0</v>
+      </c>
+      <c r="J822">
+        <v>9</v>
+      </c>
+      <c r="K822">
+        <v>2</v>
+      </c>
+      <c r="L822">
+        <f t="shared" si="12"/>
+        <v>57</v>
+      </c>
+      <c r="M822">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="823" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A823">
+        <v>179</v>
+      </c>
+      <c r="B823" t="s">
+        <v>13</v>
+      </c>
+      <c r="C823" t="s">
+        <v>35</v>
+      </c>
+      <c r="D823">
+        <v>18</v>
+      </c>
+      <c r="E823">
+        <v>5</v>
+      </c>
+      <c r="F823">
+        <v>20</v>
+      </c>
+      <c r="G823">
+        <v>14</v>
+      </c>
+      <c r="H823">
+        <v>3</v>
+      </c>
+      <c r="I823">
+        <v>0</v>
+      </c>
+      <c r="J823">
+        <v>7</v>
+      </c>
+      <c r="K823">
+        <v>0</v>
+      </c>
+      <c r="L823">
+        <f t="shared" si="12"/>
+        <v>67</v>
+      </c>
+      <c r="M823">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="824" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A824">
+        <v>179</v>
+      </c>
+      <c r="B824" t="s">
+        <v>18</v>
+      </c>
+      <c r="C824" t="s">
+        <v>36</v>
+      </c>
+      <c r="D824">
+        <v>-3</v>
+      </c>
+      <c r="E824">
+        <v>5</v>
+      </c>
+      <c r="F824">
+        <v>10</v>
+      </c>
+      <c r="G824">
+        <v>15</v>
+      </c>
+      <c r="H824">
+        <v>0</v>
+      </c>
+      <c r="I824">
+        <v>0</v>
+      </c>
+      <c r="J824">
+        <v>9</v>
+      </c>
+      <c r="K824">
+        <v>21</v>
+      </c>
+      <c r="L824">
+        <f t="shared" si="12"/>
+        <v>57</v>
+      </c>
+      <c r="M824">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="825" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A825">
+        <v>179</v>
+      </c>
+      <c r="B825" t="s">
+        <v>14</v>
+      </c>
+      <c r="C825" t="s">
+        <v>33</v>
+      </c>
+      <c r="D825">
+        <v>10</v>
+      </c>
+      <c r="E825">
+        <v>6</v>
+      </c>
+      <c r="F825">
+        <v>3</v>
+      </c>
+      <c r="G825">
+        <v>7</v>
+      </c>
+      <c r="H825">
+        <v>0</v>
+      </c>
+      <c r="I825">
+        <v>48</v>
+      </c>
+      <c r="J825">
+        <v>0</v>
+      </c>
+      <c r="K825">
+        <v>4</v>
+      </c>
+      <c r="L825">
+        <f t="shared" si="12"/>
+        <v>78</v>
+      </c>
+      <c r="M825">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A826">
+        <v>179</v>
+      </c>
+      <c r="B826" t="s">
+        <v>37</v>
+      </c>
+      <c r="C826" t="s">
+        <v>29</v>
+      </c>
+      <c r="D826">
+        <v>-3</v>
+      </c>
+      <c r="E826">
+        <v>0</v>
+      </c>
+      <c r="F826">
+        <v>3</v>
+      </c>
+      <c r="G826">
+        <v>15</v>
+      </c>
+      <c r="H826">
+        <v>3</v>
+      </c>
+      <c r="I826">
+        <v>26</v>
+      </c>
+      <c r="J826">
+        <v>8</v>
+      </c>
+      <c r="K826">
+        <v>2</v>
+      </c>
+      <c r="L826">
+        <f t="shared" si="12"/>
+        <v>54</v>
+      </c>
+      <c r="M826">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="827" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A827">
+        <v>179</v>
+      </c>
+      <c r="B827" t="s">
+        <v>26</v>
+      </c>
+      <c r="C827" t="s">
+        <v>32</v>
+      </c>
+      <c r="D827">
+        <v>2</v>
+      </c>
+      <c r="E827">
+        <v>4</v>
+      </c>
+      <c r="F827">
+        <v>10</v>
+      </c>
+      <c r="G827">
+        <v>22</v>
+      </c>
+      <c r="H827">
+        <v>4</v>
+      </c>
+      <c r="I827">
+        <v>10</v>
+      </c>
+      <c r="J827">
+        <v>9</v>
+      </c>
+      <c r="K827">
+        <v>0</v>
+      </c>
+      <c r="L827">
+        <f t="shared" si="12"/>
+        <v>61</v>
+      </c>
+      <c r="M827">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/7wonders/data/7wonders.xlsx
+++ b/7wonders/data/7wonders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajiv Mota\Documents\VS Code\DataSy\7wonders\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20C0DB6-64AA-45D1-B7D7-CDF5941CE257}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FE126E-4952-4EA4-8053-A97B95305C97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4BEFDDDF-0926-4228-BEFA-2D10815E9504}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="47">
   <si>
     <t>Jogador</t>
   </si>
@@ -617,11 +617,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874C2040-D9D2-425D-8341-F45C98E38288}">
-  <dimension ref="A1:P827"/>
+  <dimension ref="A1:P846"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A818" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O838" sqref="O838"/>
+      <pane ySplit="1" topLeftCell="A830" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M847" sqref="M847"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33977,7 +33977,7 @@
         <v>8</v>
       </c>
       <c r="L809">
-        <f t="shared" ref="L809:L833" si="12">SUM(D809:K809)</f>
+        <f t="shared" ref="L809:L846" si="12">SUM(D809:K809)</f>
         <v>64</v>
       </c>
       <c r="M809">
@@ -34737,6 +34737,804 @@
         <v>61</v>
       </c>
       <c r="M827">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="828" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A828">
+        <v>180</v>
+      </c>
+      <c r="B828" t="s">
+        <v>13</v>
+      </c>
+      <c r="C828" t="s">
+        <v>29</v>
+      </c>
+      <c r="D828">
+        <v>-4</v>
+      </c>
+      <c r="E828">
+        <v>3</v>
+      </c>
+      <c r="F828">
+        <v>3</v>
+      </c>
+      <c r="G828">
+        <v>7</v>
+      </c>
+      <c r="H828">
+        <v>0</v>
+      </c>
+      <c r="I828">
+        <v>38</v>
+      </c>
+      <c r="J828">
+        <v>7</v>
+      </c>
+      <c r="K828">
+        <v>2</v>
+      </c>
+      <c r="L828">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="M828">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="829" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A829">
+        <v>180</v>
+      </c>
+      <c r="B829" t="s">
+        <v>14</v>
+      </c>
+      <c r="C829" t="s">
+        <v>33</v>
+      </c>
+      <c r="D829">
+        <v>14</v>
+      </c>
+      <c r="E829">
+        <v>2</v>
+      </c>
+      <c r="F829">
+        <v>2</v>
+      </c>
+      <c r="G829">
+        <v>12</v>
+      </c>
+      <c r="H829">
+        <v>0</v>
+      </c>
+      <c r="I829">
+        <v>18</v>
+      </c>
+      <c r="J829">
+        <v>0</v>
+      </c>
+      <c r="K829">
+        <v>5</v>
+      </c>
+      <c r="L829">
+        <f t="shared" si="12"/>
+        <v>53</v>
+      </c>
+      <c r="M829">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="830" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A830">
+        <v>180</v>
+      </c>
+      <c r="B830" t="s">
+        <v>37</v>
+      </c>
+      <c r="C830" t="s">
+        <v>31</v>
+      </c>
+      <c r="D830">
+        <v>0</v>
+      </c>
+      <c r="E830">
+        <v>3</v>
+      </c>
+      <c r="F830">
+        <v>5</v>
+      </c>
+      <c r="G830">
+        <v>39</v>
+      </c>
+      <c r="H830">
+        <v>4</v>
+      </c>
+      <c r="I830">
+        <v>0</v>
+      </c>
+      <c r="J830">
+        <v>6</v>
+      </c>
+      <c r="K830">
+        <v>3</v>
+      </c>
+      <c r="L830">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="M830">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="831" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A831">
+        <v>180</v>
+      </c>
+      <c r="B831" t="s">
+        <v>18</v>
+      </c>
+      <c r="C831" t="s">
+        <v>28</v>
+      </c>
+      <c r="D831">
+        <v>0</v>
+      </c>
+      <c r="E831">
+        <v>3</v>
+      </c>
+      <c r="F831">
+        <v>7</v>
+      </c>
+      <c r="G831">
+        <v>7</v>
+      </c>
+      <c r="H831">
+        <v>3</v>
+      </c>
+      <c r="I831">
+        <v>21</v>
+      </c>
+      <c r="J831">
+        <v>16</v>
+      </c>
+      <c r="K831">
+        <v>0</v>
+      </c>
+      <c r="L831">
+        <f t="shared" si="12"/>
+        <v>57</v>
+      </c>
+      <c r="M831">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="832" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A832">
+        <v>180</v>
+      </c>
+      <c r="B832" t="s">
+        <v>26</v>
+      </c>
+      <c r="C832" t="s">
+        <v>32</v>
+      </c>
+      <c r="D832">
+        <v>18</v>
+      </c>
+      <c r="E832">
+        <v>13</v>
+      </c>
+      <c r="F832">
+        <v>10</v>
+      </c>
+      <c r="G832">
+        <v>6</v>
+      </c>
+      <c r="H832">
+        <v>6</v>
+      </c>
+      <c r="I832">
+        <v>0</v>
+      </c>
+      <c r="J832">
+        <v>22</v>
+      </c>
+      <c r="K832">
+        <v>3</v>
+      </c>
+      <c r="L832">
+        <f t="shared" si="12"/>
+        <v>78</v>
+      </c>
+      <c r="M832">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A833">
+        <v>181</v>
+      </c>
+      <c r="B833" t="s">
+        <v>13</v>
+      </c>
+      <c r="C833" t="s">
+        <v>30</v>
+      </c>
+      <c r="D833">
+        <v>17</v>
+      </c>
+      <c r="E833">
+        <v>3</v>
+      </c>
+      <c r="F833">
+        <v>7</v>
+      </c>
+      <c r="G833">
+        <v>26</v>
+      </c>
+      <c r="H833">
+        <v>8</v>
+      </c>
+      <c r="I833">
+        <v>0</v>
+      </c>
+      <c r="J833">
+        <v>5</v>
+      </c>
+      <c r="K833">
+        <v>0</v>
+      </c>
+      <c r="L833">
+        <f t="shared" si="12"/>
+        <v>66</v>
+      </c>
+      <c r="M833">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="834" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A834">
+        <v>181</v>
+      </c>
+      <c r="B834" t="s">
+        <v>14</v>
+      </c>
+      <c r="C834" t="s">
+        <v>32</v>
+      </c>
+      <c r="D834">
+        <v>-5</v>
+      </c>
+      <c r="E834">
+        <v>2</v>
+      </c>
+      <c r="F834">
+        <v>2</v>
+      </c>
+      <c r="G834">
+        <v>14</v>
+      </c>
+      <c r="H834">
+        <v>0</v>
+      </c>
+      <c r="I834">
+        <v>55</v>
+      </c>
+      <c r="J834">
+        <v>0</v>
+      </c>
+      <c r="K834">
+        <v>0</v>
+      </c>
+      <c r="L834">
+        <f t="shared" si="12"/>
+        <v>68</v>
+      </c>
+      <c r="M834">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A835">
+        <v>181</v>
+      </c>
+      <c r="B835" t="s">
+        <v>26</v>
+      </c>
+      <c r="C835" t="s">
+        <v>28</v>
+      </c>
+      <c r="D835">
+        <v>6</v>
+      </c>
+      <c r="E835">
+        <v>4</v>
+      </c>
+      <c r="F835">
+        <v>7</v>
+      </c>
+      <c r="G835">
+        <v>11</v>
+      </c>
+      <c r="H835">
+        <v>2</v>
+      </c>
+      <c r="I835">
+        <v>1</v>
+      </c>
+      <c r="J835">
+        <v>12</v>
+      </c>
+      <c r="K835">
+        <v>9</v>
+      </c>
+      <c r="L835">
+        <f t="shared" si="12"/>
+        <v>52</v>
+      </c>
+      <c r="M835">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="836" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A836">
+        <v>182</v>
+      </c>
+      <c r="B836" t="s">
+        <v>13</v>
+      </c>
+      <c r="C836" t="s">
+        <v>33</v>
+      </c>
+      <c r="D836">
+        <v>13</v>
+      </c>
+      <c r="E836">
+        <v>0</v>
+      </c>
+      <c r="F836">
+        <v>3</v>
+      </c>
+      <c r="G836">
+        <v>10</v>
+      </c>
+      <c r="H836">
+        <v>0</v>
+      </c>
+      <c r="I836">
+        <v>2</v>
+      </c>
+      <c r="J836">
+        <v>0</v>
+      </c>
+      <c r="K836">
+        <v>13</v>
+      </c>
+      <c r="L836">
+        <f t="shared" si="12"/>
+        <v>41</v>
+      </c>
+      <c r="M836">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="837" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A837">
+        <v>182</v>
+      </c>
+      <c r="B837" t="s">
+        <v>14</v>
+      </c>
+      <c r="C837" t="s">
+        <v>32</v>
+      </c>
+      <c r="D837">
+        <v>-4</v>
+      </c>
+      <c r="E837">
+        <v>1</v>
+      </c>
+      <c r="F837">
+        <v>10</v>
+      </c>
+      <c r="G837">
+        <v>18</v>
+      </c>
+      <c r="H837">
+        <v>0</v>
+      </c>
+      <c r="I837">
+        <v>26</v>
+      </c>
+      <c r="J837">
+        <v>5</v>
+      </c>
+      <c r="K837">
+        <v>0</v>
+      </c>
+      <c r="L837">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="M837">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="838" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A838">
+        <v>182</v>
+      </c>
+      <c r="B838" t="s">
+        <v>18</v>
+      </c>
+      <c r="C838" t="s">
+        <v>28</v>
+      </c>
+      <c r="D838">
+        <v>8</v>
+      </c>
+      <c r="E838">
+        <v>1</v>
+      </c>
+      <c r="F838">
+        <v>7</v>
+      </c>
+      <c r="G838">
+        <v>2</v>
+      </c>
+      <c r="H838">
+        <v>3</v>
+      </c>
+      <c r="I838">
+        <v>43</v>
+      </c>
+      <c r="J838">
+        <v>0</v>
+      </c>
+      <c r="K838">
+        <v>0</v>
+      </c>
+      <c r="L838">
+        <f t="shared" si="12"/>
+        <v>64</v>
+      </c>
+      <c r="M838">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A839">
+        <v>182</v>
+      </c>
+      <c r="B839" t="s">
+        <v>37</v>
+      </c>
+      <c r="C839" t="s">
+        <v>31</v>
+      </c>
+      <c r="D839">
+        <v>-4</v>
+      </c>
+      <c r="E839">
+        <v>3</v>
+      </c>
+      <c r="F839">
+        <v>5</v>
+      </c>
+      <c r="G839">
+        <v>28</v>
+      </c>
+      <c r="H839">
+        <v>6</v>
+      </c>
+      <c r="I839">
+        <v>0</v>
+      </c>
+      <c r="J839">
+        <v>10</v>
+      </c>
+      <c r="K839">
+        <v>7</v>
+      </c>
+      <c r="L839">
+        <f t="shared" si="12"/>
+        <v>55</v>
+      </c>
+      <c r="M839">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="840" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A840">
+        <v>182</v>
+      </c>
+      <c r="B840" t="s">
+        <v>26</v>
+      </c>
+      <c r="C840" t="s">
+        <v>36</v>
+      </c>
+      <c r="D840">
+        <v>13</v>
+      </c>
+      <c r="E840">
+        <v>-1</v>
+      </c>
+      <c r="F840">
+        <v>3</v>
+      </c>
+      <c r="G840">
+        <v>12</v>
+      </c>
+      <c r="H840">
+        <v>4</v>
+      </c>
+      <c r="I840">
+        <v>0</v>
+      </c>
+      <c r="J840">
+        <v>14</v>
+      </c>
+      <c r="K840">
+        <v>4</v>
+      </c>
+      <c r="L840">
+        <f t="shared" si="12"/>
+        <v>49</v>
+      </c>
+      <c r="M840">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="841" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A841">
+        <v>183</v>
+      </c>
+      <c r="B841" t="s">
+        <v>13</v>
+      </c>
+      <c r="C841" t="s">
+        <v>35</v>
+      </c>
+      <c r="D841">
+        <v>15</v>
+      </c>
+      <c r="E841">
+        <v>3</v>
+      </c>
+      <c r="F841">
+        <v>20</v>
+      </c>
+      <c r="G841">
+        <v>28</v>
+      </c>
+      <c r="H841">
+        <v>4</v>
+      </c>
+      <c r="I841">
+        <v>0</v>
+      </c>
+      <c r="J841">
+        <v>0</v>
+      </c>
+      <c r="K841">
+        <v>0</v>
+      </c>
+      <c r="L841">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="M841">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A842">
+        <v>183</v>
+      </c>
+      <c r="B842" t="s">
+        <v>14</v>
+      </c>
+      <c r="C842" t="s">
+        <v>33</v>
+      </c>
+      <c r="D842">
+        <v>-4</v>
+      </c>
+      <c r="E842">
+        <v>8</v>
+      </c>
+      <c r="F842">
+        <v>3</v>
+      </c>
+      <c r="G842">
+        <v>0</v>
+      </c>
+      <c r="H842">
+        <v>0</v>
+      </c>
+      <c r="I842">
+        <v>38</v>
+      </c>
+      <c r="J842">
+        <v>8</v>
+      </c>
+      <c r="K842">
+        <v>3</v>
+      </c>
+      <c r="L842">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="M842">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="843" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A843">
+        <v>183</v>
+      </c>
+      <c r="B843" t="s">
+        <v>26</v>
+      </c>
+      <c r="C843" t="s">
+        <v>29</v>
+      </c>
+      <c r="D843">
+        <v>7</v>
+      </c>
+      <c r="E843">
+        <v>0</v>
+      </c>
+      <c r="F843">
+        <v>3</v>
+      </c>
+      <c r="G843">
+        <v>17</v>
+      </c>
+      <c r="H843">
+        <v>6</v>
+      </c>
+      <c r="I843">
+        <v>18</v>
+      </c>
+      <c r="J843">
+        <v>5</v>
+      </c>
+      <c r="K843">
+        <v>0</v>
+      </c>
+      <c r="L843">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="M843">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="844" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A844">
+        <v>184</v>
+      </c>
+      <c r="B844" t="s">
+        <v>13</v>
+      </c>
+      <c r="C844" t="s">
+        <v>32</v>
+      </c>
+      <c r="D844">
+        <v>-4</v>
+      </c>
+      <c r="E844">
+        <v>3</v>
+      </c>
+      <c r="F844">
+        <v>10</v>
+      </c>
+      <c r="G844">
+        <v>20</v>
+      </c>
+      <c r="H844">
+        <v>0</v>
+      </c>
+      <c r="I844">
+        <v>26</v>
+      </c>
+      <c r="J844">
+        <v>0</v>
+      </c>
+      <c r="K844">
+        <v>5</v>
+      </c>
+      <c r="L844">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="M844">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A845">
+        <v>184</v>
+      </c>
+      <c r="B845" t="s">
+        <v>14</v>
+      </c>
+      <c r="C845" t="s">
+        <v>30</v>
+      </c>
+      <c r="D845">
+        <v>14</v>
+      </c>
+      <c r="E845">
+        <v>7</v>
+      </c>
+      <c r="F845">
+        <v>7</v>
+      </c>
+      <c r="G845">
+        <v>12</v>
+      </c>
+      <c r="H845">
+        <v>8</v>
+      </c>
+      <c r="I845">
+        <v>0</v>
+      </c>
+      <c r="J845">
+        <v>7</v>
+      </c>
+      <c r="K845">
+        <v>0</v>
+      </c>
+      <c r="L845">
+        <f t="shared" si="12"/>
+        <v>55</v>
+      </c>
+      <c r="M845">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="846" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A846">
+        <v>184</v>
+      </c>
+      <c r="B846" t="s">
+        <v>26</v>
+      </c>
+      <c r="C846" t="s">
+        <v>33</v>
+      </c>
+      <c r="D846">
+        <v>5</v>
+      </c>
+      <c r="E846">
+        <v>3</v>
+      </c>
+      <c r="F846">
+        <v>2</v>
+      </c>
+      <c r="G846">
+        <v>9</v>
+      </c>
+      <c r="H846">
+        <v>4</v>
+      </c>
+      <c r="I846">
+        <v>25</v>
+      </c>
+      <c r="J846">
+        <v>6</v>
+      </c>
+      <c r="K846">
+        <v>0</v>
+      </c>
+      <c r="L846">
+        <f t="shared" si="12"/>
+        <v>54</v>
+      </c>
+      <c r="M846">
         <v>3</v>
       </c>
     </row>
